--- a/data/preprocessed/video/S4.xlsx
+++ b/data/preprocessed/video/S4.xlsx
@@ -903,10 +903,10 @@
         <v>1.008044192657406e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03611822342291486</v>
+        <v>0.03610814298098829</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01892098949617951</v>
+        <v>0.01893106993810609</v>
       </c>
       <c r="S3" t="n">
         <v>0.02847724844257172</v>
@@ -1088,10 +1088,10 @@
         <v>4.032176770629624e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03269423331518854</v>
+        <v>0.03268751302057082</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02661236668615552</v>
+        <v>0.02661908698077324</v>
       </c>
       <c r="S4" t="n">
         <v>0.02906527422162188</v>
@@ -1273,10 +1273,10 @@
         <v>0.002661236668615552</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03025140622164876</v>
+        <v>0.03024636600068547</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02335134372290881</v>
+        <v>0.0233563839438721</v>
       </c>
       <c r="S5" t="n">
         <v>0.02779681861252797</v>
@@ -1458,10 +1458,10 @@
         <v>0.002128989334892442</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02642285437793593</v>
+        <v>0.0264188222011653</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02294308582488256</v>
+        <v>0.02294711800165319</v>
       </c>
       <c r="S6" t="n">
         <v>0.04600713695288401</v>
@@ -1643,10 +1643,10 @@
         <v>0.001784238221003609</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02516750334334657</v>
+        <v>0.02516414319603771</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03153834264094138</v>
+        <v>0.03154170278825023</v>
       </c>
       <c r="S7" t="n">
         <v>0.05076174539491812</v>
@@ -1828,10 +1828,10 @@
         <v>0.001869201945813304</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02724887459066205</v>
+        <v>0.02724599446439732</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02941472954174311</v>
+        <v>0.02941760966800784</v>
       </c>
       <c r="S8" t="n">
         <v>0.05260550622539292</v>
@@ -2013,10 +2013,10 @@
         <v>0.001635551702586641</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.09704441442712848</v>
+        <v>0.09704189431664684</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02573788834902522</v>
+        <v>0.02574040845950687</v>
       </c>
       <c r="S9" t="n">
         <v>0.0460298179472188</v>
@@ -2198,10 +2198,10 @@
         <v>0.00145382373563257</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0862617017130031</v>
+        <v>0.08625946161479719</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02287812297691131</v>
+        <v>0.02288036307511721</v>
       </c>
       <c r="S10" t="n">
         <v>0.04091539373086116</v>
@@ -2383,10 +2383,10 @@
         <v>0.002209632870305034</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.07763553154170279</v>
+        <v>0.07763351545331747</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02059031067922018</v>
+        <v>0.02059232676760549</v>
       </c>
       <c r="S11" t="n">
         <v>0.03682587044616036</v>
@@ -2568,10 +2568,10 @@
         <v>0.002872009545262101</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.07293474655019785</v>
+        <v>0.07293291374257484</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01945525291828794</v>
+        <v>0.01945708572591095</v>
       </c>
       <c r="S12" t="n">
         <v>0.03418002936157812</v>
@@ -2753,10 +2753,10 @@
         <v>0.006034824566709005</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06712062256809338</v>
+        <v>0.06711894249443896</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01783398184176394</v>
+        <v>0.01783566191541837</v>
       </c>
       <c r="S13" t="n">
         <v>0.03133169358144661</v>
@@ -2938,10 +2938,10 @@
         <v>0.005570607292346774</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06195749775516313</v>
+        <v>0.06195594691794365</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01646213708470518</v>
+        <v>0.01646368792192465</v>
       </c>
       <c r="S14" t="n">
         <v>0.02892156330595072</v>
@@ -3123,10 +3123,10 @@
         <v>0.005172706771464861</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0575319622012229</v>
+        <v>0.05753052213809053</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01528627015008338</v>
+        <v>0.01528771021321575</v>
       </c>
       <c r="S15" t="n">
         <v>0.02685573735552567</v>
@@ -3308,10 +3308,10 @@
         <v>0.004848020537220352</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0536964980544747</v>
+        <v>0.05369515399555116</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01426718547341115</v>
+        <v>0.0142685295323347</v>
       </c>
       <c r="S16" t="n">
         <v>0.02506535486515729</v>
@@ -3493,10 +3493,10 @@
         <v>0.00454501925364408</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05034046692607004</v>
+        <v>0.05033920687082922</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01337548638132296</v>
+        <v>0.01337674643656378</v>
       </c>
       <c r="S17" t="n">
         <v>0.02349877018608496</v>
@@ -3678,10 +3678,10 @@
         <v>0.004277665179900311</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04737926298924239</v>
+        <v>0.04737807705489808</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01258869306477455</v>
+        <v>0.01258987899911885</v>
       </c>
       <c r="S18" t="n">
         <v>0.02211648958690349</v>
@@ -3863,10 +3863,10 @@
         <v>0.004113940355145169</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04560055912851219</v>
+        <v>0.04559943907940924</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01327706206640099</v>
+        <v>0.01327818211550394</v>
       </c>
       <c r="S19" t="n">
         <v>0.02183423721295942</v>
@@ -4048,10 +4048,10 @@
         <v>0.003897417178558582</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04320052970069576</v>
+        <v>0.0431994686015456</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0125782693260641</v>
+        <v>0.01257933042521426</v>
       </c>
       <c r="S20" t="n">
         <v>0.02068506683332997</v>
@@ -4233,10 +4233,10 @@
         <v>0.003702546319630653</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04104050321566097</v>
+        <v>0.04103949517146831</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01194935585976089</v>
+        <v>0.01195036390395355</v>
       </c>
       <c r="S21" t="n">
         <v>0.01965081349166347</v>
@@ -4418,10 +4418,10 @@
         <v>0.003526234590124431</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03908619353872474</v>
+        <v>0.03908523349663649</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01138705920867571</v>
+        <v>0.01138801925076395</v>
       </c>
       <c r="S22" t="n">
         <v>0.02429002487469051</v>
@@ -4603,10 +4603,10 @@
         <v>0.003369616814910257</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03832217458958855</v>
+        <v>0.03832125818577704</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01243834893358088</v>
+        <v>0.01243926533739239</v>
       </c>
       <c r="S23" t="n">
         <v>0.02717503862642065</v>
@@ -4788,10 +4788,10 @@
         <v>0.003223111736001115</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0366559930856934</v>
+        <v>0.03665511652552587</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01189755115385998</v>
+        <v>0.01189842771402751</v>
       </c>
       <c r="S24" t="n">
         <v>0.02599351520788063</v>
@@ -4973,10 +4973,10 @@
         <v>0.003181219464661331</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.03526726611694657</v>
+        <v>0.03526642608011935</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01145054199176092</v>
+        <v>0.01145138202858813</v>
       </c>
       <c r="S25" t="n">
         <v>0.02494405354730751</v>
@@ -5158,10 +5158,10 @@
         <v>0.003137033527549848</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03468317171024778</v>
+        <v>0.03468236527489365</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01107638958891958</v>
+        <v>0.0110771960242737</v>
       </c>
       <c r="S26" t="n">
         <v>0.02414306163182194</v>
@@ -5343,10 +5343,10 @@
         <v>0.00308306439231219</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03367100229058657</v>
+        <v>0.03367022687197684</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01066665839553483</v>
+        <v>0.01066743381414457</v>
       </c>
       <c r="S27" t="n">
         <v>0.02321448233829032</v>
@@ -5528,10 +5528,10 @@
         <v>0.002968876822226553</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03271663429724759</v>
+        <v>0.03271588759784563</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01027159697347798</v>
+        <v>0.01027234367287995</v>
       </c>
       <c r="S28" t="n">
         <v>0.02235468669613143</v>
@@ -5713,10 +5713,10 @@
         <v>0.002862845507147033</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03178075326822328</v>
+        <v>0.0317800332366571</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01151330474327994</v>
+        <v>0.01151402477484613</v>
       </c>
       <c r="S29" t="n">
         <v>0.02710918846682239</v>
@@ -5898,10 +5898,10 @@
         <v>0.002764126696555756</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03122503787117751</v>
+        <v>0.03122434266828603</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01111768464067396</v>
+        <v>0.01111837984356545</v>
       </c>
       <c r="S30" t="n">
         <v>0.02617438886451817</v>
@@ -6083,10 +6083,10 @@
         <v>0.002671989140003898</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.03055986774460192</v>
+        <v>0.03055919571514015</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01074709515265149</v>
+        <v>0.01074776718211326</v>
       </c>
       <c r="S31" t="n">
         <v>0.02530190923570089</v>
@@ -6268,10 +6268,10 @@
         <v>0.002660586317523515</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.03217481957634829</v>
+        <v>0.03217416922525625</v>
       </c>
       <c r="R32" t="n">
-        <v>0.01103580768077647</v>
+        <v>0.0110364580318685</v>
       </c>
       <c r="S32" t="n">
         <v>0.0244889703706546</v>
@@ -6453,10 +6453,10 @@
         <v>0.002632885425697062</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03215534969053043</v>
+        <v>0.03215471966291002</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0116870123586218</v>
+        <v>0.01168764238624221</v>
       </c>
       <c r="S33" t="n">
         <v>0.0254644563617669</v>
@@ -6638,10 +6638,10 @@
         <v>0.002553101018857758</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03208329744085071</v>
+        <v>0.03208268650497638</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0126445397911699</v>
+        <v>0.01264515072704424</v>
       </c>
       <c r="S34" t="n">
         <v>0.02569168632352842</v>
@@ -6823,10 +6823,10 @@
         <v>0.002680211618124397</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.03192594551580435</v>
+        <v>0.0319253525486322</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01277073398662503</v>
+        <v>0.01277132695379718</v>
       </c>
       <c r="S35" t="n">
         <v>0.02511215974061244</v>
@@ -7008,10 +7008,10 @@
         <v>0.002603634143320843</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03101377564392423</v>
+        <v>0.03101319961867128</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01246230634751028</v>
+        <v>0.01246288237276322</v>
       </c>
       <c r="S36" t="n">
         <v>0.02591422407958365</v>
@@ -7193,10 +7193,10 @@
         <v>0.002531310972673042</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03110040344168688</v>
+        <v>0.03109984341713541</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01350723215705777</v>
+        <v>0.01350779218160924</v>
       </c>
       <c r="S37" t="n">
         <v>0.02654236361722098</v>
@@ -7378,10 +7378,10 @@
         <v>0.002542995809260602</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0309229816094597</v>
+        <v>0.03092243672070692</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01337211488216508</v>
+        <v>0.01337265977091787</v>
       </c>
       <c r="S38" t="n">
         <v>0.02733325450609376</v>
@@ -7563,10 +7563,10 @@
         <v>0.002476074866911639</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03234230209705025</v>
+        <v>0.03234177154747517</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01302021712210811</v>
+        <v>0.01302074767168319</v>
       </c>
       <c r="S39" t="n">
         <v>0.02661395833488077</v>
@@ -7748,10 +7748,10 @@
         <v>0.002412585767760059</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03151301229968999</v>
+        <v>0.03151249535395016</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01268636540102841</v>
+        <v>0.01268688234676824</v>
       </c>
       <c r="S40" t="n">
         <v>0.02593154914680691</v>
@@ -7933,10 +7933,10 @@
         <v>0.002352271123566057</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03072518699219774</v>
+        <v>0.03072468297010141</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0123692062660027</v>
+        <v>0.01236971028809903</v>
       </c>
       <c r="S41" t="n">
         <v>0.02528326041813673</v>
@@ -8118,10 +8118,10 @@
         <v>0.002889398866368253</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03058946982284484</v>
+        <v>0.03058897809397037</v>
       </c>
       <c r="R42" t="n">
-        <v>0.01225929256933746</v>
+        <v>0.01225978429821193</v>
       </c>
       <c r="S42" t="n">
         <v>0.02488049759028265</v>
@@ -8303,10 +8303,10 @@
         <v>0.003996175192320432</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02991875163807181</v>
+        <v>0.02991827161702769</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0119674046510199</v>
+        <v>0.01196788467206402</v>
       </c>
       <c r="S43" t="n">
         <v>0.02428810479051402</v>
@@ -8488,10 +8488,10 @@
         <v>0.003903240885522282</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02922296671625619</v>
+        <v>0.02922249785849216</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01168909291494967</v>
+        <v>0.0116895617727137</v>
       </c>
       <c r="S44" t="n">
         <v>0.02372326514422299</v>
@@ -8673,10 +8673,10 @@
         <v>0.004101365258398383</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02855880838179582</v>
+        <v>0.02855835017989007</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01142343171233718</v>
+        <v>0.01142388991424293</v>
       </c>
       <c r="S45" t="n">
         <v>0.02318410002730883</v>
@@ -8858,10 +8858,10 @@
         <v>0.004699278016348236</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02817057899818328</v>
+        <v>0.0281701309785421</v>
       </c>
       <c r="R46" t="n">
-        <v>0.01127038209355098</v>
+        <v>0.01127083011319216</v>
       </c>
       <c r="S46" t="n">
         <v>0.02287050664301123</v>
@@ -9043,10 +9043,10 @@
         <v>0.00464576888789935</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02768571461129378</v>
+        <v>0.02768527633121001</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01137687441434824</v>
+        <v>0.011377312694432</v>
       </c>
       <c r="S47" t="n">
         <v>0.02396866122089053</v>
@@ -9228,10 +9228,10 @@
         <v>0.0045469227413483</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02709665685360668</v>
+        <v>0.02709622789863108</v>
       </c>
       <c r="R48" t="n">
-        <v>0.01113481325659615</v>
+        <v>0.01113524221157175</v>
       </c>
       <c r="S48" t="n">
         <v>0.02345868970555244</v>
@@ -9413,10 +9413,10 @@
         <v>0.004452195184236877</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02653214316915654</v>
+        <v>0.02653172315074293</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01090283798041706</v>
+        <v>0.01090325799883067</v>
       </c>
       <c r="S49" t="n">
         <v>0.02296996700335343</v>
@@ -9598,10 +9598,10 @@
         <v>0.004361334058027961</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.02599067085958191</v>
+        <v>0.02599025941297266</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01068033108285753</v>
+        <v>0.01068074252946678</v>
       </c>
       <c r="S50" t="n">
         <v>0.0225011921665503</v>
@@ -9783,10 +9783,10 @@
         <v>0.004274107376867402</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02547085744239027</v>
+        <v>0.02547045422471321</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01046672446120038</v>
+        <v>0.01046712767887744</v>
       </c>
       <c r="S51" t="n">
         <v>0.02205116832321929</v>
@@ -9968,10 +9968,10 @@
         <v>0.00598699188148879</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0249718241765366</v>
+        <v>0.0249714288650885</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0102626805041486</v>
+        <v>0.0102630758155967</v>
       </c>
       <c r="S52" t="n">
         <v>0.02163460493166844</v>
@@ -10153,10 +10153,10 @@
         <v>0.005871857422229391</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02449159678852629</v>
+        <v>0.02449120907922142</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0100653212636842</v>
+        <v>0.01006570897298907</v>
       </c>
       <c r="S53" t="n">
         <v>0.02121855483682866</v>
@@ -10338,10 +10338,10 @@
         <v>0.005761067659545817</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02402949118874277</v>
+        <v>0.02402911079470781</v>
       </c>
       <c r="R54" t="n">
-        <v>0.009875409541727895</v>
+        <v>0.009875789935762859</v>
       </c>
       <c r="S54" t="n">
         <v>0.02081820474556774</v>
@@ -10523,10 +10523,10 @@
         <v>0.005664835013033638</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02377901580538624</v>
+        <v>0.02377864245568526</v>
       </c>
       <c r="R55" t="n">
-        <v>0.009692531587251451</v>
+        <v>0.009692904936952436</v>
       </c>
       <c r="S55" t="n">
         <v>0.02043268243546464</v>
@@ -10708,10 +10708,10 @@
         <v>0.007645373718638371</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02448521015888609</v>
+        <v>0.02448484359736149</v>
       </c>
       <c r="R56" t="n">
-        <v>0.009524001532227173</v>
+        <v>0.009524368093751776</v>
       </c>
       <c r="S56" t="n">
         <v>0.02007180940266967</v>
@@ -10893,10 +10893,10 @@
         <v>0.008048512846803205</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02419630076582557</v>
+        <v>0.02419594075004248</v>
       </c>
       <c r="R57" t="n">
-        <v>0.009353930076294545</v>
+        <v>0.009354290092077637</v>
       </c>
       <c r="S57" t="n">
         <v>0.01971338423476485</v>
@@ -11078,10 +11078,10 @@
         <v>0.008293550957695038</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.02421994180224861</v>
+        <v>0.02421958810253189</v>
       </c>
       <c r="R58" t="n">
-        <v>0.009190887139018491</v>
+        <v>0.009191240838735213</v>
       </c>
       <c r="S58" t="n">
         <v>0.01936753538854091</v>
@@ -11263,10 +11263,10 @@
         <v>0.008753994809615213</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02446418975145801</v>
+        <v>0.02446384215001227</v>
       </c>
       <c r="R59" t="n">
-        <v>0.009278177789797063</v>
+        <v>0.009278525391242807</v>
       </c>
       <c r="S59" t="n">
         <v>0.01903361236460055</v>
@@ -11448,10 +11448,10 @@
         <v>0.009900360811478992</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.02544713594142272</v>
+        <v>0.02544679423152691</v>
       </c>
       <c r="R60" t="n">
-        <v>0.009183795159952693</v>
+        <v>0.00918413686984851</v>
       </c>
       <c r="S60" t="n">
         <v>0.01871100876520054</v>
@@ -11633,10 +11633,10 @@
         <v>0.01183578288072149</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.02658414144876111</v>
+        <v>0.02658380543403023</v>
       </c>
       <c r="R61" t="n">
-        <v>0.009033420025133902</v>
+        <v>0.009033756039864787</v>
       </c>
       <c r="S61" t="n">
         <v>0.01851474768653858</v>
@@ -11702,10 +11702,10 @@
         <v>0.0002889726685617898</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.01268623616459346</v>
+        <v>0.01268657217932434</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.1128189619832933</v>
+        <v>0.1128186259685625</v>
       </c>
       <c r="AP61" t="n">
         <v>0.01487369206266003</v>
@@ -11818,10 +11818,10 @@
         <v>0.01164175365316868</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02614833585124044</v>
+        <v>0.02614800534494777</v>
       </c>
       <c r="R62" t="n">
-        <v>0.008885331172262855</v>
+        <v>0.008885661678555529</v>
       </c>
       <c r="S62" t="n">
         <v>0.0182112272326609</v>
@@ -11887,10 +11887,10 @@
         <v>0.0002842354117001211</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.01247826507992799</v>
+        <v>0.01247859558622066</v>
       </c>
       <c r="AO62" t="n">
-        <v>0.1109694708032394</v>
+        <v>0.1109691402969467</v>
       </c>
       <c r="AP62" t="n">
         <v>0.01462986104523937</v>
@@ -12003,10 +12003,10 @@
         <v>0.01145398343295628</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02572658849880108</v>
+        <v>0.02572626332325506</v>
       </c>
       <c r="R63" t="n">
-        <v>0.008742019379161841</v>
+        <v>0.008742344554707859</v>
       </c>
       <c r="S63" t="n">
         <v>0.01791944881444248</v>
@@ -12072,10 +12072,10 @@
         <v>0.0002796509695759256</v>
       </c>
       <c r="AN63" t="n">
-        <v>0.01227700273992915</v>
+        <v>0.01227732791547517</v>
       </c>
       <c r="AO63" t="n">
-        <v>0.1091796406289936</v>
+        <v>0.1091793154534475</v>
       </c>
       <c r="AP63" t="n">
         <v>0.0143938955445097</v>
@@ -12188,10 +12188,10 @@
         <v>0.0112721741721157</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02573264811929355</v>
+        <v>0.02573232810526414</v>
       </c>
       <c r="R64" t="n">
-        <v>0.009023115573386737</v>
+        <v>0.009023435587416152</v>
       </c>
       <c r="S64" t="n">
         <v>0.0181403152714215</v>
@@ -12257,10 +12257,10 @@
         <v>0.0002752120652969426</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.0120821296805652</v>
+        <v>0.01208244969459461</v>
       </c>
       <c r="AO64" t="n">
-        <v>0.1074466304602794</v>
+        <v>0.10744631044625</v>
       </c>
       <c r="AP64" t="n">
         <v>0.01416542101205717</v>
@@ -12373,10 +12373,10 @@
         <v>0.01147406302292293</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.02551328350234874</v>
+        <v>0.02551296848853854</v>
       </c>
       <c r="R65" t="n">
-        <v>0.008884649503034213</v>
+        <v>0.008884964516844418</v>
       </c>
       <c r="S65" t="n">
         <v>0.01787545866010766</v>
@@ -12442,10 +12442,10 @@
         <v>0.0002709118767766779</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.01189334640430637</v>
+        <v>0.01189366141811657</v>
       </c>
       <c r="AO65" t="n">
-        <v>0.1057677768593375</v>
+        <v>0.1057674618455273</v>
       </c>
       <c r="AP65" t="n">
         <v>0.01394408630874377</v>
@@ -12558,10 +12558,10 @@
         <v>0.01129753897641642</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.02512077144846646</v>
+        <v>0.02512046128102256</v>
       </c>
       <c r="R66" t="n">
-        <v>0.008776808159885114</v>
+        <v>0.008777118327329008</v>
       </c>
       <c r="S66" t="n">
         <v>0.01833058576672617</v>
@@ -12627,10 +12627,10 @@
         <v>0.0002667440017493444</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.01171037184424011</v>
+        <v>0.01171068201168401</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.1041405802922708</v>
+        <v>0.1041402701248269</v>
       </c>
       <c r="AP66" t="n">
         <v>0.01372956190399387</v>
@@ -12743,10 +12743,10 @@
         <v>0.01112636414344041</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02553345393207493</v>
+        <v>0.02553314846413776</v>
       </c>
       <c r="R67" t="n">
-        <v>0.009170758409685044</v>
+        <v>0.009171063877622213</v>
       </c>
       <c r="S67" t="n">
         <v>0.01864881756416201</v>
@@ -12812,10 +12812,10 @@
         <v>0.0002627024259652634</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.01153294196781223</v>
+        <v>0.0115332474357494</v>
       </c>
       <c r="AO67" t="n">
-        <v>0.1025626927120849</v>
+        <v>0.1025623872441477</v>
       </c>
       <c r="AP67" t="n">
         <v>0.01352153823878184</v>
@@ -12928,10 +12928,10 @@
         <v>0.01096029900697115</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02540843092053693</v>
+        <v>0.0254081300118227</v>
       </c>
       <c r="R68" t="n">
-        <v>0.009369394634857807</v>
+        <v>0.009369695543572034</v>
       </c>
       <c r="S68" t="n">
         <v>0.01907219612507812</v>
@@ -12997,10 +12997,10 @@
         <v>0.0002587814942344386</v>
       </c>
       <c r="AN68" t="n">
-        <v>0.01136080850560608</v>
+        <v>0.01136110941432031</v>
       </c>
       <c r="AO68" t="n">
-        <v>0.1051429211074524</v>
+        <v>0.1051426201987382</v>
       </c>
       <c r="AP68" t="n">
         <v>0.01331972423521794</v>
@@ -13113,10 +13113,10 @@
         <v>0.01079911813922158</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.02594705751900163</v>
+        <v>0.02594676103541556</v>
       </c>
       <c r="R69" t="n">
-        <v>0.009231609419639309</v>
+        <v>0.009231905903225385</v>
       </c>
       <c r="S69" t="n">
         <v>0.0187917226526505</v>
@@ -13182,10 +13182,10 @@
         <v>0.0002549758840251086</v>
       </c>
       <c r="AN69" t="n">
-        <v>0.01119373779228834</v>
+        <v>0.01119403427587442</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.1035967016794016</v>
+        <v>0.1035964051958155</v>
       </c>
       <c r="AP69" t="n">
         <v>0.0131238459376412</v>
@@ -13298,10 +13298,10 @@
         <v>0.01064260918068213</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02557101320713204</v>
+        <v>0.02557072102040954</v>
       </c>
       <c r="R70" t="n">
-        <v>0.009097817978774972</v>
+        <v>0.009098110165497482</v>
       </c>
       <c r="S70" t="n">
         <v>0.01851937884609035</v>
@@ -13367,10 +13367,10 @@
         <v>0.000251280581358078</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.01103150970834214</v>
+        <v>0.01103180189506464</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.1020953002057871</v>
+        <v>0.1020950080190646</v>
       </c>
       <c r="AP70" t="n">
         <v>0.01293364527187828</v>
@@ -13483,10 +13483,10 @@
         <v>0.01049057190667239</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02520571301845873</v>
+        <v>0.02520542500583225</v>
       </c>
       <c r="R71" t="n">
-        <v>0.008967849150506758</v>
+        <v>0.008968137163133232</v>
       </c>
       <c r="S71" t="n">
         <v>0.0182548162911462</v>
@@ -13552,10 +13552,10 @@
         <v>0.0002476908587672483</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.01087391671250868</v>
+        <v>0.01087420472513515</v>
       </c>
       <c r="AO71" t="n">
-        <v>0.100636795917133</v>
+        <v>0.1006365079045065</v>
       </c>
       <c r="AP71" t="n">
         <v>0.01274887891085145</v>
@@ -13668,10 +13668,10 @@
         <v>0.01092549531174264</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.02521530262196554</v>
+        <v>0.02521501866585493</v>
       </c>
       <c r="R72" t="n">
-        <v>0.008988062769066161</v>
+        <v>0.008988346725176771</v>
       </c>
       <c r="S72" t="n">
         <v>0.01809851062180425</v>
@@ -13737,10 +13737,10 @@
         <v>0.0002442022551226392</v>
       </c>
       <c r="AN72" t="n">
-        <v>0.01072076295599447</v>
+        <v>0.01072104691210508</v>
       </c>
       <c r="AO72" t="n">
-        <v>0.09921937625632832</v>
+        <v>0.09921909230021771</v>
       </c>
       <c r="AP72" t="n">
         <v>0.01256931723605073</v>
@@ -13853,10 +13853,10 @@
         <v>0.01138809925427131</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.02492949290896913</v>
+        <v>0.02492921289669339</v>
       </c>
       <c r="R73" t="n">
-        <v>0.008885629545999297</v>
+        <v>0.008885909558275035</v>
       </c>
       <c r="S73" t="n">
         <v>0.01784714241872364</v>
@@ -13922,10 +13922,10 @@
         <v>0.0002408105571348248</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.01057186347049455</v>
+        <v>0.01057214348277028</v>
       </c>
       <c r="AO73" t="n">
-        <v>0.09784132936387931</v>
+        <v>0.09784104935160358</v>
       </c>
       <c r="AP73" t="n">
         <v>0.01239474338555002</v>
@@ -14038,10 +14038,10 @@
         <v>0.01123209789462376</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.02458799300610654</v>
+        <v>0.0245877168296154</v>
       </c>
       <c r="R74" t="n">
-        <v>0.008763908593314374</v>
+        <v>0.008764184769805514</v>
       </c>
       <c r="S74" t="n">
         <v>0.01760266101572742</v>
@@ -14107,10 +14107,10 @@
         <v>0.0002375117823795532</v>
       </c>
       <c r="AN74" t="n">
-        <v>0.01042704342295353</v>
+        <v>0.01042731959944466</v>
       </c>
       <c r="AO74" t="n">
-        <v>0.09650103718081247</v>
+        <v>0.09650076100432134</v>
       </c>
       <c r="AP74" t="n">
         <v>0.01222495238026852</v>
@@ -14223,10 +14223,10 @@
         <v>0.01108031278793965</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02425572283034834</v>
+        <v>0.02425545038597195</v>
       </c>
       <c r="R75" t="n">
-        <v>0.008645477396107423</v>
+        <v>0.008645749840483817</v>
       </c>
       <c r="S75" t="n">
         <v>0.01736478721821759</v>
@@ -14292,10 +14292,10 @@
         <v>0.0002343021636987484</v>
       </c>
       <c r="AN75" t="n">
-        <v>0.01028613743075145</v>
+        <v>0.01028640987512785</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.0951969691108015</v>
+        <v>0.09519669666642509</v>
       </c>
       <c r="AP75" t="n">
         <v>0.0120597503210757</v>
@@ -14408,10 +14408,10 @@
         <v>0.01096913368682083</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02393231319261037</v>
+        <v>0.02393204438082566</v>
       </c>
       <c r="R76" t="n">
-        <v>0.008530204364159326</v>
+        <v>0.008530473175944034</v>
       </c>
       <c r="S76" t="n">
         <v>0.01713325672197469</v>
@@ -14477,10 +14477,10 @@
         <v>0.0002311781348494318</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.01014898893167476</v>
+        <v>0.01014925774345947</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.09392767618932414</v>
+        <v>0.09392740737753943</v>
       </c>
       <c r="AP76" t="n">
         <v>0.01189895365012802</v>
@@ -14593,10 +14593,10 @@
         <v>0.01082480298041529</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.02361741433481286</v>
+        <v>0.02361714906002532</v>
       </c>
       <c r="R77" t="n">
-        <v>0.008417964833051966</v>
+        <v>0.008418230107839507</v>
       </c>
       <c r="S77" t="n">
         <v>0.01690781913352766</v>
@@ -14662,10 +14662,10 @@
         <v>0.0002281363172856235</v>
       </c>
       <c r="AN77" t="n">
-        <v>0.01001544960362641</v>
+        <v>0.01001571487841395</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.09269178571314882</v>
+        <v>0.09269152043836128</v>
       </c>
       <c r="AP77" t="n">
         <v>0.01174238847052107</v>
@@ -14778,10 +14778,10 @@
         <v>0.01068422112352678</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.02331069466812698</v>
+        <v>0.02331043283846655</v>
       </c>
       <c r="R78" t="n">
-        <v>0.0083086406144409</v>
+        <v>0.008308902444101332</v>
       </c>
       <c r="S78" t="n">
         <v>0.01668823706685846</v>
@@ -14847,10 +14847,10 @@
         <v>0.0002251735079702258</v>
       </c>
       <c r="AN78" t="n">
-        <v>0.009885378829553343</v>
+        <v>0.009885640659213773</v>
       </c>
       <c r="AO78" t="n">
-        <v>0.09148799628830273</v>
+        <v>0.09148773445864231</v>
       </c>
       <c r="AP78" t="n">
         <v>0.01158988991895587</v>
@@ -14963,10 +14963,10 @@
         <v>0.01054724392963541</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0230118396082792</v>
+        <v>0.02301158113540928</v>
       </c>
       <c r="R79" t="n">
-        <v>0.008202119580922427</v>
+        <v>0.00820237805379234</v>
       </c>
       <c r="S79" t="n">
         <v>0.01647428530959105</v>
@@ -15032,10 +15032,10 @@
         <v>0.0002222866681244537</v>
       </c>
       <c r="AN79" t="n">
-        <v>0.009758643203533427</v>
+        <v>0.00975890167640334</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.09031507325896553</v>
+        <v>0.09031481478609561</v>
       </c>
       <c r="AP79" t="n">
         <v>0.01144130158666156</v>
@@ -15148,10 +15148,10 @@
         <v>0.01041373451280459</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02272055049931364</v>
+        <v>0.02272029529825221</v>
       </c>
       <c r="R80" t="n">
-        <v>0.008098295282429739</v>
+        <v>0.00809855048349117</v>
       </c>
       <c r="S80" t="n">
         <v>0.01626575005250762</v>
@@ -15217,10 +15217,10 @@
         <v>0.0002194729128317391</v>
       </c>
       <c r="AN80" t="n">
-        <v>0.009635116074374776</v>
+        <v>0.009635371275436209</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.08917184448353557</v>
+        <v>0.08917158928247414</v>
       </c>
       <c r="AP80" t="n">
         <v>0.01129647498429875</v>
@@ -15333,10 +15333,10 @@
         <v>0.01028356283139453</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02243654361807221</v>
+        <v>0.02243629160702405</v>
       </c>
       <c r="R81" t="n">
-        <v>0.007997066591399368</v>
+        <v>0.007997318602447531</v>
       </c>
       <c r="S81" t="n">
         <v>0.01606242817685127</v>
@@ -15402,10 +15402,10 @@
         <v>0.0002167295014213423</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.009514677123445092</v>
+        <v>0.009514929134493257</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.08805719642749138</v>
+        <v>0.08805694441644321</v>
       </c>
       <c r="AP81" t="n">
         <v>0.01115526904699502</v>
@@ -15518,10 +15518,10 @@
         <v>0.01015660526557484</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.022159549252417</v>
+        <v>0.02215930035261635</v>
       </c>
       <c r="R82" t="n">
-        <v>0.007898337374221596</v>
+        <v>0.007898586274022254</v>
       </c>
       <c r="S82" t="n">
         <v>0.01586412659442101</v>
@@ -15587,10 +15587,10 @@
         <v>0.0002140538285642887</v>
       </c>
       <c r="AN82" t="n">
-        <v>0.009397211973772929</v>
+        <v>0.009397460873573587</v>
       </c>
       <c r="AO82" t="n">
-        <v>0.08697007054567051</v>
+        <v>0.08696982164586985</v>
       </c>
       <c r="AP82" t="n">
         <v>0.01101754967604446</v>
@@ -15703,10 +15703,10 @@
         <v>0.01003274422575076</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.02188931084689972</v>
+        <v>0.02188906498246249</v>
       </c>
       <c r="R83" t="n">
-        <v>0.00780201618673109</v>
+        <v>0.007802262051168323</v>
       </c>
       <c r="S83" t="n">
         <v>0.01567066163595246</v>
@@ -15772,10 +15772,10 @@
         <v>0.0002114434160208218</v>
       </c>
       <c r="AN83" t="n">
-        <v>0.00928261182775131</v>
+        <v>0.009282857692188543</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.08590945992925988</v>
+        <v>0.08590921406482264</v>
       </c>
       <c r="AP83" t="n">
         <v>0.01088318931414148</v>
@@ -15888,10 +15888,10 @@
         <v>0.00991186778929593</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.02162558421019009</v>
+        <v>0.02162534130797499</v>
       </c>
       <c r="R84" t="n">
-        <v>0.007708015991710233</v>
+        <v>0.007708258893925331</v>
       </c>
       <c r="S84" t="n">
         <v>0.01548185848371207</v>
@@ -15957,10 +15957,10 @@
         <v>0.0002088959049844263</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.009170773131031413</v>
+        <v>0.009171016033246512</v>
       </c>
       <c r="AO84" t="n">
-        <v>0.08487440619517242</v>
+        <v>0.08487416329295731</v>
       </c>
       <c r="AP84" t="n">
         <v>0.0107520665513205</v>
@@ -16073,10 +16073,10 @@
         <v>0.00985099186748347</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02155942516519924</v>
+        <v>0.02155918515467718</v>
       </c>
       <c r="R85" t="n">
-        <v>0.007619614043879684</v>
+        <v>0.007619854054401745</v>
       </c>
       <c r="S85" t="n">
         <v>0.01529827067618644</v>
@@ -16142,10 +16142,10 @@
         <v>0.000206409048972707</v>
       </c>
       <c r="AN85" t="n">
-        <v>0.009061597260423897</v>
+        <v>0.009061837270945958</v>
       </c>
       <c r="AO85" t="n">
-        <v>0.08386399659761085</v>
+        <v>0.08386375658708878</v>
       </c>
       <c r="AP85" t="n">
         <v>0.01062406575904288</v>
@@ -16258,10 +16258,10 @@
         <v>0.009735097845513076</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.02130578486913808</v>
+        <v>0.02130554768226921</v>
       </c>
       <c r="R86" t="n">
-        <v>0.007529971525716393</v>
+        <v>0.007530208712585254</v>
       </c>
       <c r="S86" t="n">
         <v>0.01511829102117249</v>
@@ -16327,10 +16327,10 @@
         <v>0.0002039807072200869</v>
       </c>
       <c r="AN86" t="n">
-        <v>0.008954990233830675</v>
+        <v>0.008955227420699536</v>
       </c>
       <c r="AO86" t="n">
-        <v>0.08287736134352131</v>
+        <v>0.08287712415665244</v>
       </c>
       <c r="AP86" t="n">
         <v>0.01049907675011296</v>
@@ -16443,10 +16443,10 @@
         <v>0.0101425655803076</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.02182790763314505</v>
+        <v>0.02182767320426304</v>
       </c>
       <c r="R87" t="n">
-        <v>0.007856883980677434</v>
+        <v>0.007857118409559447</v>
       </c>
       <c r="S87" t="n">
         <v>0.01497555141189483</v>
@@ -16512,10 +16512,10 @@
         <v>0.0002016088385314812</v>
       </c>
       <c r="AN87" t="n">
-        <v>0.00885086244041404</v>
+        <v>0.008851096869296053</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.08191367109534083</v>
+        <v>0.08191343666645881</v>
       </c>
       <c r="AP87" t="n">
         <v>0.01037699446232095</v>
@@ -16628,10 +16628,10 @@
         <v>0.01139831487453789</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.02363295882753569</v>
+        <v>0.02363272709323853</v>
       </c>
       <c r="R88" t="n">
-        <v>0.008611941685454524</v>
+        <v>0.008612173419751687</v>
       </c>
       <c r="S88" t="n">
         <v>0.01504859352344352</v>
@@ -16697,10 +16697,10 @@
         <v>0.000199291495559855</v>
       </c>
       <c r="AN88" t="n">
-        <v>0.008749128389374796</v>
+        <v>0.008749360123671959</v>
       </c>
       <c r="AO88" t="n">
-        <v>0.08097213464596908</v>
+        <v>0.08097190291167192</v>
       </c>
       <c r="AP88" t="n">
         <v>0.01025771866390347</v>
@@ -16810,13 +16810,13 @@
         <v>0.01290754768507233</v>
       </c>
       <c r="P89" t="n">
-        <v>0.01165253266521386</v>
+        <v>0.01165230356426098</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.0251603248468231</v>
+        <v>0.02516009574587023</v>
       </c>
       <c r="R89" t="n">
-        <v>0.00904719662910022</v>
+        <v>0.009047425730053096</v>
       </c>
       <c r="S89" t="n">
         <v>0.01489958047033509</v>
@@ -16846,7 +16846,7 @@
         <v>0.01164909615092071</v>
       </c>
       <c r="AB89" t="n">
-        <v>0.02404047938916188</v>
+        <v>0.02404070849011475</v>
       </c>
       <c r="AC89" t="n">
         <v>0.05443530280731144</v>
@@ -16882,10 +16882,10 @@
         <v>0.0001970268194739476</v>
       </c>
       <c r="AN89" t="n">
-        <v>0.008649706475859175</v>
+        <v>0.00864993557681205</v>
       </c>
       <c r="AO89" t="n">
-        <v>0.08006024438656845</v>
+        <v>0.08006001528561557</v>
       </c>
       <c r="AP89" t="n">
         <v>0.01014115367908638</v>
@@ -16995,13 +16995,13 @@
         <v>0.01291836948738574</v>
       </c>
       <c r="P90" t="n">
-        <v>0.01174043020607821</v>
+        <v>0.01174020367929334</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02532139053919944</v>
+        <v>0.02532116401241457</v>
       </c>
       <c r="R90" t="n">
-        <v>0.009210579072685424</v>
+        <v>0.00921080559947029</v>
       </c>
       <c r="S90" t="n">
         <v>0.01483093513201641</v>
@@ -17031,7 +17031,7 @@
         <v>0.01151820743012385</v>
       </c>
       <c r="AB90" t="n">
-        <v>0.02501467327248975</v>
+        <v>0.02501489979927462</v>
       </c>
       <c r="AC90" t="n">
         <v>0.05576070072889523</v>
@@ -17067,10 +17067,10 @@
         <v>0.0001948130349854762</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.008552518762647274</v>
+        <v>0.00855274528943214</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.07916069107885421</v>
+        <v>0.07916046455206933</v>
       </c>
       <c r="AP90" t="n">
         <v>0.01002720813213035</v>
@@ -17180,13 +17180,13 @@
         <v>0.01277483204863701</v>
       </c>
       <c r="P91" t="n">
-        <v>0.01193434720178133</v>
+        <v>0.01193412319196074</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.02568541404855189</v>
+        <v>0.0256851900387313</v>
       </c>
       <c r="R91" t="n">
-        <v>0.009112495491802361</v>
+        <v>0.009112719501622952</v>
       </c>
       <c r="S91" t="n">
         <v>0.0146661469638829</v>
@@ -17216,7 +17216,7 @@
         <v>0.01139022734756692</v>
       </c>
       <c r="AB91" t="n">
-        <v>0.02492131655051757</v>
+        <v>0.02492154056033816</v>
       </c>
       <c r="AC91" t="n">
         <v>0.05658756879901615</v>
@@ -17252,10 +17252,10 @@
         <v>0.0001926484457078598</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.008462194982628039</v>
+        <v>0.00846241899244863</v>
       </c>
       <c r="AO91" t="n">
-        <v>0.08434708977641579</v>
+        <v>0.08434686576659521</v>
       </c>
       <c r="AP91" t="n">
         <v>0.009915794708440019</v>
@@ -17365,13 +17365,13 @@
         <v>0.01263444927887177</v>
       </c>
       <c r="P92" t="n">
-        <v>0.01231054584817614</v>
+        <v>0.01231032430000193</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.02654789616746029</v>
+        <v>0.02654767461928608</v>
       </c>
       <c r="R92" t="n">
-        <v>0.009043153374920879</v>
+        <v>0.00904337492309509</v>
       </c>
       <c r="S92" t="n">
         <v>0.01450498051373034</v>
@@ -17401,7 +17401,7 @@
         <v>0.01126506001407717</v>
       </c>
       <c r="AB92" t="n">
-        <v>0.02494344428982843</v>
+        <v>0.02494366583800265</v>
       </c>
       <c r="AC92" t="n">
         <v>0.05753539619792317</v>
@@ -17437,10 +17437,10 @@
         <v>0.0001905314298209603</v>
       </c>
       <c r="AN92" t="n">
-        <v>0.008369203828972785</v>
+        <v>0.008369425377146996</v>
       </c>
       <c r="AO92" t="n">
-        <v>0.08664283842203642</v>
+        <v>0.08664261687386221</v>
       </c>
       <c r="AP92" t="n">
         <v>0.009806829931424194</v>
@@ -17550,13 +17550,13 @@
         <v>0.01249711830844925</v>
       </c>
       <c r="P93" t="n">
-        <v>0.01226636384434746</v>
+        <v>0.01226614470430558</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.02665071619348488</v>
+        <v>0.026650497053443</v>
       </c>
       <c r="R93" t="n">
-        <v>0.009080286775424409</v>
+        <v>0.00908050591546629</v>
       </c>
       <c r="S93" t="n">
         <v>0.01441064915416327</v>
@@ -17586,7 +17586,7 @@
         <v>0.01114261370957633</v>
       </c>
       <c r="AB93" t="n">
-        <v>0.02467231989537378</v>
+        <v>0.02467253903541566</v>
       </c>
       <c r="AC93" t="n">
         <v>0.05691001145664139</v>
@@ -17622,10 +17622,10 @@
         <v>0.0001884604360185585</v>
       </c>
       <c r="AN93" t="n">
-        <v>0.008278234222136124</v>
+        <v>0.008278453362178006</v>
       </c>
       <c r="AO93" t="n">
-        <v>0.0857010684391882</v>
+        <v>0.08570084929914631</v>
       </c>
       <c r="AP93" t="n">
         <v>0.009700233953908713</v>
@@ -17735,13 +17735,13 @@
         <v>0.01236274069222937</v>
       </c>
       <c r="P94" t="n">
-        <v>0.01217912490057758</v>
+        <v>0.01217890811688023</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.02659242258599972</v>
+        <v>0.02659220580230237</v>
       </c>
       <c r="R94" t="n">
-        <v>0.009130495764805296</v>
+        <v>0.009130712548502642</v>
       </c>
       <c r="S94" t="n">
         <v>0.01462184360226869</v>
@@ -17771,7 +17771,7 @@
         <v>0.01102280065893573</v>
       </c>
       <c r="AB94" t="n">
-        <v>0.02440702613305793</v>
+        <v>0.02440724291675528</v>
       </c>
       <c r="AC94" t="n">
         <v>0.05629807584958073</v>
@@ -17807,10 +17807,10 @@
         <v>0.0001864339797172837</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.008189220950930359</v>
+        <v>0.008189437734627705</v>
       </c>
       <c r="AO94" t="n">
-        <v>0.0847795515742507</v>
+        <v>0.08477933479055334</v>
       </c>
       <c r="AP94" t="n">
         <v>0.009595930363006469</v>
@@ -17920,13 +17920,13 @@
         <v>0.01223122217422693</v>
       </c>
       <c r="P95" t="n">
-        <v>0.01230178526771294</v>
+        <v>0.01230157079022515</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.02636807682755195</v>
+        <v>0.02636786235006415</v>
       </c>
       <c r="R95" t="n">
-        <v>0.009033362831137155</v>
+        <v>0.009033577308624955</v>
       </c>
       <c r="S95" t="n">
         <v>0.01447272639921896</v>
@@ -17956,7 +17956,7 @@
         <v>0.01090553682213854</v>
       </c>
       <c r="AB95" t="n">
-        <v>0.02414737691887646</v>
+        <v>0.02414759139636426</v>
       </c>
       <c r="AC95" t="n">
         <v>0.05569916014905327</v>
@@ -17992,10 +17992,10 @@
         <v>0.0001844506395075254</v>
       </c>
       <c r="AN95" t="n">
-        <v>0.008102101579111952</v>
+        <v>0.008102316056599751</v>
       </c>
       <c r="AO95" t="n">
-        <v>0.08387764145112037</v>
+        <v>0.08387742697363257</v>
       </c>
       <c r="AP95" t="n">
         <v>0.00949384599744257</v>
@@ -18105,13 +18105,13 @@
         <v>0.0121024724671298</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0121722927912107</v>
+        <v>0.01217208057138067</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.02609051812410404</v>
+        <v>0.026090305904274</v>
       </c>
       <c r="R96" t="n">
-        <v>0.008973078853461146</v>
+        <v>0.00897329107329118</v>
       </c>
       <c r="S96" t="n">
         <v>0.01503513829835774</v>
@@ -18141,7 +18141,7 @@
         <v>0.01079074169769497</v>
       </c>
       <c r="AB96" t="n">
-        <v>0.02389319400394092</v>
+        <v>0.02389340622377096</v>
       </c>
       <c r="AC96" t="n">
         <v>0.05511285320011587</v>
@@ -18177,10 +18177,10 @@
         <v>0.0001825090538284988</v>
       </c>
       <c r="AN96" t="n">
-        <v>0.008016816299331826</v>
+        <v>0.008017028519161858</v>
       </c>
       <c r="AO96" t="n">
-        <v>0.08299471890952963</v>
+        <v>0.0829945066896996</v>
       </c>
       <c r="AP96" t="n">
         <v>0.00939391077641686</v>
@@ -18290,13 +18290,13 @@
         <v>0.0119764050455972</v>
       </c>
       <c r="P97" t="n">
-        <v>0.01204549807463559</v>
+        <v>0.01204528806542879</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.02629546279308885</v>
+        <v>0.02629525278388204</v>
       </c>
       <c r="R97" t="n">
-        <v>0.009286187106442747</v>
+        <v>0.009286397115649551</v>
       </c>
       <c r="S97" t="n">
         <v>0.01524708843235687</v>
@@ -18326,7 +18326,7 @@
         <v>0.01067833813834398</v>
       </c>
       <c r="AB97" t="n">
-        <v>0.02364430656639987</v>
+        <v>0.02364451657560667</v>
       </c>
       <c r="AC97" t="n">
         <v>0.05454779137517389</v>
@@ -18362,10 +18362,10 @@
         <v>0.0001806079178511186</v>
       </c>
       <c r="AN97" t="n">
-        <v>0.007933307796213786</v>
+        <v>0.007933517805420589</v>
       </c>
       <c r="AO97" t="n">
-        <v>0.08213019058755536</v>
+        <v>0.08212998057834855</v>
       </c>
       <c r="AP97" t="n">
         <v>0.009296057539162517</v>
@@ -18475,13 +18475,13 @@
         <v>0.01185293695234362</v>
       </c>
       <c r="P98" t="n">
-        <v>0.01192131768211358</v>
+        <v>0.01192110983795014</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.02631930641571285</v>
+        <v>0.02631909857154942</v>
       </c>
       <c r="R98" t="n">
-        <v>0.009456701592107077</v>
+        <v>0.00945690943627051</v>
       </c>
       <c r="S98" t="n">
         <v>0.01554237869746973</v>
@@ -18511,7 +18511,7 @@
         <v>0.01056825217815487</v>
       </c>
       <c r="AB98" t="n">
-        <v>0.02340803321848558</v>
+        <v>0.02340824106264901</v>
       </c>
       <c r="AC98" t="n">
         <v>0.05507454642687824</v>
@@ -18547,10 +18547,10 @@
         <v>0.0001787459805536844</v>
       </c>
       <c r="AN98" t="n">
-        <v>0.007851521117902304</v>
+        <v>0.007851728962065738</v>
       </c>
       <c r="AO98" t="n">
-        <v>0.08395677922190212</v>
+        <v>0.08395657137773868</v>
       </c>
       <c r="AP98" t="n">
         <v>0.009200221894428883</v>
@@ -18660,13 +18660,13 @@
         <v>0.01173198861609522</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0117996715833165</v>
+        <v>0.01179946586001187</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.02663211612339942</v>
+        <v>0.0266319104000948</v>
       </c>
       <c r="R99" t="n">
-        <v>0.009360204637085576</v>
+        <v>0.0093604103603902</v>
       </c>
       <c r="S99" t="n">
         <v>0.01538378299647514</v>
@@ -18696,7 +18696,7 @@
         <v>0.01046041287021452</v>
       </c>
       <c r="AB99" t="n">
-        <v>0.0231691757366643</v>
+        <v>0.02316938145996892</v>
       </c>
       <c r="AC99" t="n">
         <v>0.05714232226226512</v>
@@ -18732,10 +18732,10 @@
         <v>0.000176922041976606</v>
       </c>
       <c r="AN99" t="n">
-        <v>0.007771403555474729</v>
+        <v>0.007771609278779353</v>
       </c>
       <c r="AO99" t="n">
-        <v>0.08619847608404867</v>
+        <v>0.08619827036074404</v>
       </c>
       <c r="AP99" t="n">
         <v>0.009106342079179609</v>
@@ -18845,13 +18845,13 @@
         <v>0.0116134836805791</v>
       </c>
       <c r="P100" t="n">
-        <v>0.01168048298146482</v>
+        <v>0.01168027933617337</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.02636310484942569</v>
+        <v>0.02636290120413425</v>
       </c>
       <c r="R100" t="n">
-        <v>0.009265657115498852</v>
+        <v>0.009265860760790298</v>
       </c>
       <c r="S100" t="n">
         <v>0.01522839124903599</v>
@@ -18881,7 +18881,7 @@
         <v>0.01035475213415174</v>
       </c>
       <c r="AB100" t="n">
-        <v>0.02293514365851617</v>
+        <v>0.02293534730380762</v>
       </c>
       <c r="AC100" t="n">
         <v>0.05656512708789881</v>
@@ -18917,10 +18917,10 @@
         <v>0.0001751349506435089</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.007692904529661853</v>
+        <v>0.007693108174953299</v>
       </c>
       <c r="AO100" t="n">
-        <v>0.08532778440643202</v>
+        <v>0.08532758076114057</v>
       </c>
       <c r="AP100" t="n">
         <v>0.009014358825854562</v>
@@ -19030,13 +19030,13 @@
         <v>0.01149734884377331</v>
       </c>
       <c r="P101" t="n">
-        <v>0.01156367815165017</v>
+        <v>0.01156347654281164</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.02609947380093143</v>
+        <v>0.0260992721920929</v>
       </c>
       <c r="R101" t="n">
-        <v>0.009173000544343864</v>
+        <v>0.009173202153182396</v>
       </c>
       <c r="S101" t="n">
         <v>0.01507610733654563</v>
@@ -19066,7 +19066,7 @@
         <v>0.01025120461281023</v>
       </c>
       <c r="AB101" t="n">
-        <v>0.02270579222193101</v>
+        <v>0.02270599383076954</v>
       </c>
       <c r="AC101" t="n">
         <v>0.05599947581701982</v>
@@ -19102,10 +19102,10 @@
         <v>0.0001733836011370738</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.007615975484365234</v>
+        <v>0.007616177093203766</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.0844745065623677</v>
+        <v>0.08447430495352916</v>
       </c>
       <c r="AP101" t="n">
         <v>0.008924215237596017</v>
@@ -19179,10 +19179,10 @@
         <v>0.01653172514687004</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0229700335409239</v>
+        <v>0.02297023315363532</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03839570465383064</v>
+        <v>0.03839550504111922</v>
       </c>
       <c r="F102" t="n">
         <v>0.02884623253962662</v>
@@ -19215,13 +19215,13 @@
         <v>0.0119711735291188</v>
       </c>
       <c r="P102" t="n">
-        <v>0.01174700845419717</v>
+        <v>0.01174680884148575</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.02621992809550909</v>
+        <v>0.02621972848279767</v>
       </c>
       <c r="R102" t="n">
-        <v>0.009192764198901292</v>
+        <v>0.00919296381161271</v>
       </c>
       <c r="S102" t="n">
         <v>0.01496955606731819</v>
@@ -19251,7 +19251,7 @@
         <v>0.01014970753743587</v>
       </c>
       <c r="AB102" t="n">
-        <v>0.02248098239795149</v>
+        <v>0.02248118201066291</v>
       </c>
       <c r="AC102" t="n">
         <v>0.05544502556140576</v>
@@ -19287,10 +19287,10 @@
         <v>0.000171666931818885</v>
       </c>
       <c r="AN102" t="n">
-        <v>0.007540569786500233</v>
+        <v>0.00754076939921165</v>
       </c>
       <c r="AO102" t="n">
-        <v>0.08363812530927495</v>
+        <v>0.08363792569656353</v>
       </c>
       <c r="AP102" t="n">
         <v>0.008835856670887144</v>
@@ -19364,10 +19364,10 @@
         <v>0.01656690982273839</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02285038529030289</v>
+        <v>0.02285058294602694</v>
       </c>
       <c r="E103" t="n">
-        <v>0.03826081147162198</v>
+        <v>0.03826061381589792</v>
       </c>
       <c r="F103" t="n">
         <v>0.02882828500848536</v>
@@ -19400,13 +19400,13 @@
         <v>0.01224793459651153</v>
       </c>
       <c r="P103" t="n">
-        <v>0.01196014786229405</v>
+        <v>0.01195995020657</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.02602137607124461</v>
+        <v>0.02602117841552056</v>
       </c>
       <c r="R103" t="n">
-        <v>0.009148890499124188</v>
+        <v>0.009149088154848238</v>
       </c>
       <c r="S103" t="n">
         <v>0.01482279571371703</v>
@@ -19436,7 +19436,7 @@
         <v>0.01020753455713851</v>
       </c>
       <c r="AB103" t="n">
-        <v>0.02252168382120696</v>
+        <v>0.02252188147693101</v>
       </c>
       <c r="AC103" t="n">
         <v>0.0554062595986561</v>
@@ -19472,10 +19472,10 @@
         <v>0.0001699839226834057</v>
       </c>
       <c r="AN103" t="n">
-        <v>0.007466642631730622</v>
+        <v>0.007466840287454673</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.08281814368859577</v>
+        <v>0.08281794603287172</v>
       </c>
       <c r="AP103" t="n">
         <v>0.008749230625094133</v>
@@ -19549,10 +19549,10 @@
         <v>0.01658085894369104</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02276731423556094</v>
+        <v>0.02276750997229738</v>
       </c>
       <c r="E104" t="n">
-        <v>0.03813499688680721</v>
+        <v>0.03813480115007077</v>
       </c>
       <c r="F104" t="n">
         <v>0.02881244760372237</v>
@@ -19585,13 +19585,13 @@
         <v>0.01275166116874797</v>
       </c>
       <c r="P104" t="n">
-        <v>0.01184402992188343</v>
+        <v>0.01184383418514699</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.02576874135210631</v>
+        <v>0.02576854561536987</v>
       </c>
       <c r="R104" t="n">
-        <v>0.00906006631952104</v>
+        <v>0.009060262056257479</v>
       </c>
       <c r="S104" t="n">
         <v>0.01467888507571978</v>
@@ -19621,7 +19621,7 @@
         <v>0.01038461681499923</v>
       </c>
       <c r="AB104" t="n">
-        <v>0.02230302669672922</v>
+        <v>0.02230322243346566</v>
       </c>
       <c r="AC104" t="n">
         <v>0.05486833474818371</v>
@@ -19657,10 +19657,10 @@
         <v>0.0001683335933369649</v>
       </c>
       <c r="AN104" t="n">
-        <v>0.007394150955694402</v>
+        <v>0.007394346692430841</v>
       </c>
       <c r="AO104" t="n">
-        <v>0.08201408404113368</v>
+        <v>0.08201388830439725</v>
       </c>
       <c r="AP104" t="n">
         <v>0.008664286638442735</v>
@@ -19734,10 +19734,10 @@
         <v>0.01679459781362969</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02282987470786104</v>
+        <v>0.02283006856251347</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03798892081890409</v>
+        <v>0.03798872696425165</v>
       </c>
       <c r="F105" t="n">
         <v>0.02899154483547943</v>
@@ -19770,13 +19770,13 @@
         <v>0.01291789247425222</v>
       </c>
       <c r="P105" t="n">
-        <v>0.01173014501878839</v>
+        <v>0.01172995116413596</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.02552096499295144</v>
+        <v>0.02552077113829901</v>
       </c>
       <c r="R105" t="n">
-        <v>0.008972950297217954</v>
+        <v>0.008973144151870387</v>
       </c>
       <c r="S105" t="n">
         <v>0.0145377419499917</v>
@@ -19806,7 +19806,7 @@
         <v>0.01046291715582657</v>
       </c>
       <c r="AB105" t="n">
-        <v>0.02208857451695298</v>
+        <v>0.02208876837160541</v>
       </c>
       <c r="AC105" t="n">
         <v>0.05434075460637425</v>
@@ -19842,10 +19842,10 @@
         <v>0.0001667150010933402</v>
       </c>
       <c r="AN105" t="n">
-        <v>0.007323053350351187</v>
+        <v>0.007323247205003621</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.0812254870791997</v>
+        <v>0.08122529322454727</v>
       </c>
       <c r="AP105" t="n">
         <v>0.008580976189996169</v>
@@ -19919,10 +19919,10 @@
         <v>0.01678960005606646</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02273821284325105</v>
+        <v>0.0227384048516687</v>
       </c>
       <c r="E106" t="n">
-        <v>0.03778341642497607</v>
+        <v>0.03778322441655842</v>
       </c>
       <c r="F106" t="n">
         <v>0.02907141849098665</v>
@@ -19955,13 +19955,13 @@
         <v>0.01324301257367123</v>
       </c>
       <c r="P106" t="n">
-        <v>0.01163513408427825</v>
+        <v>0.01163494207586061</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.02527790818349476</v>
+        <v>0.02527771617507711</v>
       </c>
       <c r="R106" t="n">
-        <v>0.008887493627720639</v>
+        <v>0.008887685636138289</v>
       </c>
       <c r="S106" t="n">
         <v>0.01439928726475369</v>
@@ -19991,7 +19991,7 @@
         <v>0.01052129325349623</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.02187820714060104</v>
+        <v>0.02187839914901869</v>
       </c>
       <c r="AC106" t="n">
         <v>0.05382322361012307</v>
@@ -20027,10 +20027,10 @@
         <v>0.0001651272391781656</v>
       </c>
       <c r="AN106" t="n">
-        <v>0.007253309985109748</v>
+        <v>0.007253501993527397</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.08045191101177876</v>
+        <v>0.08045171900336111</v>
       </c>
       <c r="AP106" t="n">
         <v>0.008499252607234302</v>
@@ -20104,10 +20104,10 @@
         <v>0.01665631360901504</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02255013878676366</v>
+        <v>0.02255032898378114</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03750114593703033</v>
+        <v>0.03750095574001285</v>
       </c>
       <c r="F107" t="n">
         <v>0.02895159980417315</v>
@@ -20140,13 +20140,13 @@
         <v>0.01311807849278754</v>
       </c>
       <c r="P107" t="n">
-        <v>0.01152536866838884</v>
+        <v>0.01152517847137135</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.025039437351575</v>
+        <v>0.02503924715455752</v>
       </c>
       <c r="R107" t="n">
-        <v>0.008803649348213842</v>
+        <v>0.008803839545231323</v>
       </c>
       <c r="S107" t="n">
         <v>0.01426344493206733</v>
@@ -20176,7 +20176,7 @@
         <v>0.01042203576997268</v>
       </c>
       <c r="AB107" t="n">
-        <v>0.02167180896002933</v>
+        <v>0.02167199915704682</v>
       </c>
       <c r="AC107" t="n">
         <v>0.05331545734965021</v>
@@ -20212,10 +20212,10 @@
         <v>0.0001635694350349753</v>
       </c>
       <c r="AN107" t="n">
-        <v>0.007184882532420033</v>
+        <v>0.007185072729437515</v>
       </c>
       <c r="AO107" t="n">
-        <v>0.07969293071921481</v>
+        <v>0.07969274052219733</v>
       </c>
       <c r="AP107" t="n">
         <v>0.008419070978864166</v>
@@ -20289,10 +20289,10 @@
         <v>0.01653192475958146</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02235879703209179</v>
+        <v>0.02235898545156706</v>
       </c>
       <c r="E108" t="n">
-        <v>0.03718891709109724</v>
+        <v>0.03718872867162197</v>
       </c>
       <c r="F108" t="n">
         <v>0.02873905730344975</v>
@@ -20325,13 +20325,13 @@
         <v>0.01299547962836896</v>
       </c>
       <c r="P108" t="n">
-        <v>0.01141765494251604</v>
+        <v>0.01141746652304078</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.02480542391838271</v>
+        <v>0.02480523549890745</v>
       </c>
       <c r="R108" t="n">
-        <v>0.008721372251501562</v>
+        <v>0.008721560670976824</v>
       </c>
       <c r="S108" t="n">
         <v>0.01413014170840315</v>
@@ -20361,7 +20361,7 @@
         <v>0.010324633566515</v>
       </c>
       <c r="AB108" t="n">
-        <v>0.02146926868937486</v>
+        <v>0.02146945710885012</v>
       </c>
       <c r="AC108" t="n">
         <v>0.05281718204731703</v>
@@ -20397,10 +20397,10 @@
         <v>0.0001620407487262372</v>
       </c>
       <c r="AN108" t="n">
-        <v>0.007117734097537603</v>
+        <v>0.007117922517012865</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.07894813697417541</v>
+        <v>0.07894794855470015</v>
       </c>
       <c r="AP108" t="n">
         <v>0.008340388072519642</v>
@@ -20474,10 +20474,10 @@
         <v>0.01637885138217793</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0221517711336465</v>
+        <v>0.02215195780849699</v>
       </c>
       <c r="E109" t="n">
-        <v>0.03684830876318951</v>
+        <v>0.03684812208833902</v>
       </c>
       <c r="F109" t="n">
         <v>0.02848508878629239</v>
@@ -20510,13 +20510,13 @@
         <v>0.01287515111329147</v>
       </c>
       <c r="P109" t="n">
-        <v>0.01131193591527052</v>
+        <v>0.01131174924042003</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.02457574406728658</v>
+        <v>0.02457555739243608</v>
       </c>
       <c r="R109" t="n">
-        <v>0.008640618804728399</v>
+        <v>0.008640805479578892</v>
       </c>
       <c r="S109" t="n">
         <v>0.01399930706295497</v>
@@ -20546,7 +20546,7 @@
         <v>0.01022903510756578</v>
       </c>
       <c r="AB109" t="n">
-        <v>0.02127047916447324</v>
+        <v>0.02127066583932373</v>
       </c>
       <c r="AC109" t="n">
         <v>0.05232813406539743</v>
@@ -20582,10 +20582,10 @@
         <v>0.0001605403714232165</v>
       </c>
       <c r="AN109" t="n">
-        <v>0.007051829152190032</v>
+        <v>0.007052015827040524</v>
       </c>
       <c r="AO109" t="n">
-        <v>0.07821713570589602</v>
+        <v>0.07821694903104552</v>
       </c>
       <c r="AP109" t="n">
         <v>0.008263162257033349</v>
@@ -20659,10 +20659,10 @@
         <v>0.01622988142625861</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02196537543912347</v>
+        <v>0.02196556040136066</v>
       </c>
       <c r="E110" t="n">
-        <v>0.03652005388319893</v>
+        <v>0.03651986892096176</v>
       </c>
       <c r="F110" t="n">
         <v>0.02823762986429875</v>
@@ -20695,13 +20695,13 @@
         <v>0.01275703046087595</v>
       </c>
       <c r="P110" t="n">
-        <v>0.01120815668669006</v>
+        <v>0.01120797172445288</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.02435027852538486</v>
+        <v>0.02435009356314768</v>
       </c>
       <c r="R110" t="n">
-        <v>0.008561347072574927</v>
+        <v>0.008561532034812113</v>
       </c>
       <c r="S110" t="n">
         <v>0.01387087305320309</v>
@@ -20731,7 +20731,7 @@
         <v>0.01013519074878078</v>
       </c>
       <c r="AB110" t="n">
-        <v>0.02107533715379</v>
+        <v>0.02107552211602718</v>
       </c>
       <c r="AC110" t="n">
         <v>0.05184805944094424</v>
@@ -20767,10 +20767,10 @@
         <v>0.0001590675239789668</v>
       </c>
       <c r="AN110" t="n">
-        <v>0.00698713347189471</v>
+        <v>0.006987318434131896</v>
       </c>
       <c r="AO110" t="n">
-        <v>0.07749954730492449</v>
+        <v>0.07749936234268731</v>
       </c>
       <c r="AP110" t="n">
         <v>0.00818735342898717</v>
@@ -20844,10 +20844,10 @@
         <v>0.01608233704965626</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02176569020785871</v>
+        <v>0.02176587348862101</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03618805339335168</v>
+        <v>0.03618787011258937</v>
       </c>
       <c r="F111" t="n">
         <v>0.02798092413825968</v>
@@ -20880,13 +20880,13 @@
         <v>0.01264105745668617</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0111062643531747</v>
+        <v>0.0111060810724124</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02412891235697227</v>
+        <v>0.02412872907620997</v>
       </c>
       <c r="R111" t="n">
-        <v>0.008483516644642428</v>
+        <v>0.008483699925404729</v>
       </c>
       <c r="S111" t="n">
         <v>0.01374477420726488</v>
@@ -20916,7 +20916,7 @@
         <v>0.01004305265106459</v>
       </c>
       <c r="AB111" t="n">
-        <v>0.02088374317966463</v>
+        <v>0.02088392646042693</v>
       </c>
       <c r="AC111" t="n">
         <v>0.05137671344602657</v>
@@ -20931,16 +20931,16 @@
         <v>0.0195186680620442</v>
       </c>
       <c r="AG111" t="n">
-        <v>0.01827070935153434</v>
+        <v>0.01827052607077203</v>
       </c>
       <c r="AH111" t="n">
-        <v>0.03417068204270075</v>
+        <v>0.03417086532346306</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.04486108234621369</v>
+        <v>0.04486089906545139</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0.0155704338805486</v>
+        <v>0.0155706171613109</v>
       </c>
       <c r="AK111" t="n">
         <v>0.01532520422058939</v>
@@ -20952,10 +20952,10 @@
         <v>0.000157621455579158</v>
       </c>
       <c r="AN111" t="n">
-        <v>0.006923614076695668</v>
+        <v>0.006923797357457969</v>
       </c>
       <c r="AO111" t="n">
-        <v>0.07679500596578881</v>
+        <v>0.07679482268502651</v>
       </c>
       <c r="AP111" t="n">
         <v>0.008112922943269105</v>
@@ -21029,10 +21029,10 @@
         <v>0.01593745113028999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02156960290868882</v>
+        <v>0.02156978453827308</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03586203489431247</v>
+        <v>0.0358618532647282</v>
       </c>
       <c r="F112" t="n">
         <v>0.02773229470271869</v>
@@ -21065,13 +21065,13 @@
         <v>0.01252717405617549</v>
       </c>
       <c r="P112" t="n">
-        <v>0.01100620791756051</v>
+        <v>0.01100602628797625</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02391153476817072</v>
+        <v>0.02391135313858646</v>
       </c>
       <c r="R112" t="n">
-        <v>0.008407088566762767</v>
+        <v>0.00840727019634703</v>
       </c>
       <c r="S112" t="n">
         <v>0.01365763658862588</v>
@@ -21101,7 +21101,7 @@
         <v>0.009952574699253194</v>
       </c>
       <c r="AB112" t="n">
-        <v>0.0206956013492172</v>
+        <v>0.02069578297880147</v>
       </c>
       <c r="AC112" t="n">
         <v>0.05091386017173804</v>
@@ -21116,16 +21116,16 @@
         <v>0.02317048606437933</v>
       </c>
       <c r="AG112" t="n">
-        <v>0.0192369341580043</v>
+        <v>0.01923675252842004</v>
       </c>
       <c r="AH112" t="n">
-        <v>0.03627923804936365</v>
+        <v>0.03627941967894791</v>
       </c>
       <c r="AI112" t="n">
-        <v>0.04600858998955812</v>
+        <v>0.04600840835997385</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0.01543015970144455</v>
+        <v>0.01543034133102882</v>
       </c>
       <c r="AK112" t="n">
         <v>0.0151871393177012</v>
@@ -21137,10 +21137,10 @@
         <v>0.0001562014424658323</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.006861239175103815</v>
+        <v>0.006861420804688077</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.07610315906519612</v>
+        <v>0.07610297743561185</v>
       </c>
       <c r="AP112" t="n">
         <v>0.008039833547383798</v>
@@ -21214,10 +21214,10 @@
         <v>0.01579515245948382</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02137701716843267</v>
+        <v>0.02137719717632421</v>
       </c>
       <c r="E113" t="n">
-        <v>0.03554183815418468</v>
+        <v>0.03554165814629313</v>
       </c>
       <c r="F113" t="n">
         <v>0.02748468492858727</v>
@@ -21250,13 +21250,13 @@
         <v>0.01241532428781678</v>
       </c>
       <c r="P113" t="n">
-        <v>0.01090793820401086</v>
+        <v>0.01090775819611932</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02369803892202634</v>
+        <v>0.02369785891413479</v>
       </c>
       <c r="R113" t="n">
-        <v>0.008332025275988099</v>
+        <v>0.008332205283879646</v>
       </c>
       <c r="S113" t="n">
         <v>0.01354703390196626</v>
@@ -21286,7 +21286,7 @@
         <v>0.009863712425152719</v>
       </c>
       <c r="AB113" t="n">
-        <v>0.02051081919431348</v>
+        <v>0.02051099920220503</v>
       </c>
       <c r="AC113" t="n">
         <v>0.05045927213449038</v>
@@ -21301,16 +21301,16 @@
         <v>0.03021126446183401</v>
       </c>
       <c r="AG113" t="n">
-        <v>0.02011372178556308</v>
+        <v>0.02011354177767153</v>
       </c>
       <c r="AH113" t="n">
-        <v>0.03595531628106576</v>
+        <v>0.03595549628895731</v>
       </c>
       <c r="AI113" t="n">
-        <v>0.04559779900750849</v>
+        <v>0.04559761899961694</v>
       </c>
       <c r="AJ113" t="n">
-        <v>0.01529239041839594</v>
+        <v>0.01529257042628749</v>
       </c>
       <c r="AK113" t="n">
         <v>0.01505153985950744</v>
@@ -21322,10 +21322,10 @@
         <v>0.0001548067867295302</v>
       </c>
       <c r="AN113" t="n">
-        <v>0.006799978111040388</v>
+        <v>0.006800158118931934</v>
       </c>
       <c r="AO113" t="n">
-        <v>0.07542366657354259</v>
+        <v>0.07542348656565104</v>
       </c>
       <c r="AP113" t="n">
         <v>0.007968049319282158</v>
@@ -21399,10 +21399,10 @@
         <v>0.0156553723492229</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02118784002534919</v>
+        <v>0.02118801844025054</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03522730861299721</v>
+        <v>0.03522713019809585</v>
       </c>
       <c r="F114" t="n">
         <v>0.02724145762833428</v>
@@ -21435,13 +21435,13 @@
         <v>0.01230545416137592</v>
       </c>
       <c r="P114" t="n">
-        <v>0.0108114077774267</v>
+        <v>0.01081122936252534</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02348832176342434</v>
+        <v>0.02348814334852298</v>
       </c>
       <c r="R114" t="n">
-        <v>0.008258290539032452</v>
+        <v>0.008258468953933808</v>
       </c>
       <c r="S114" t="n">
         <v>0.01342714864619665</v>
@@ -21471,7 +21471,7 @@
         <v>0.009776422934664641</v>
       </c>
       <c r="AB114" t="n">
-        <v>0.02032930752002752</v>
+        <v>0.02032948593492888</v>
       </c>
       <c r="AC114" t="n">
         <v>0.0500127299032117</v>
@@ -21486,16 +21486,16 @@
         <v>0.02994390813916291</v>
       </c>
       <c r="AG114" t="n">
-        <v>0.01998835664353755</v>
+        <v>0.0199881782286362</v>
       </c>
       <c r="AH114" t="n">
-        <v>0.03845501259341581</v>
+        <v>0.03845519100831717</v>
       </c>
       <c r="AI114" t="n">
-        <v>0.04964448154681438</v>
+        <v>0.04964430313191302</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0.01515741635954028</v>
+        <v>0.01515759477444164</v>
       </c>
       <c r="AK114" t="n">
         <v>0.01491834039172419</v>
@@ -21507,10 +21507,10 @@
         <v>0.0001534368151655521</v>
       </c>
       <c r="AN114" t="n">
-        <v>0.006739801313597553</v>
+        <v>0.006739979728498908</v>
       </c>
       <c r="AO114" t="n">
-        <v>0.07475620049767052</v>
+        <v>0.07475602208276917</v>
       </c>
       <c r="AP114" t="n">
         <v>0.007897535608492049</v>
@@ -21584,10 +21584,10 @@
         <v>0.01551804452159814</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02100198177951279</v>
+        <v>0.02100215862937115</v>
       </c>
       <c r="E115" t="n">
-        <v>0.03491829713393583</v>
+        <v>0.03491812028407747</v>
       </c>
       <c r="F115" t="n">
         <v>0.02700249747369977</v>
@@ -21620,13 +21620,13 @@
         <v>0.01219751158101298</v>
       </c>
       <c r="P115" t="n">
-        <v>0.01071657086709839</v>
+        <v>0.01071639401724003</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02328228385321886</v>
+        <v>0.0232821070033605</v>
       </c>
       <c r="R115" t="n">
-        <v>0.008185849393953221</v>
+        <v>0.008186026243811581</v>
       </c>
       <c r="S115" t="n">
         <v>0.01330936664052826</v>
@@ -21656,7 +21656,7 @@
         <v>0.00969066483874653</v>
       </c>
       <c r="AB115" t="n">
-        <v>0.02015098026107991</v>
+        <v>0.02015115711093827</v>
       </c>
       <c r="AC115" t="n">
         <v>0.04957543654503287</v>
@@ -21671,16 +21671,16 @@
         <v>0.02968124227829306</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.01981302018175213</v>
+        <v>0.01981284333189378</v>
       </c>
       <c r="AH115" t="n">
-        <v>0.03811768792154374</v>
+        <v>0.0381178647714021</v>
       </c>
       <c r="AI115" t="n">
-        <v>0.04920900363850898</v>
+        <v>0.04920882678865063</v>
       </c>
       <c r="AJ115" t="n">
-        <v>0.01502445656691274</v>
+        <v>0.0150246334167711</v>
       </c>
       <c r="AK115" t="n">
         <v>0.01478747775670907</v>
@@ -21692,10 +21692,10 @@
         <v>0.0001520908781904157</v>
       </c>
       <c r="AN115" t="n">
-        <v>0.006680680249443188</v>
+        <v>0.006680857099301549</v>
       </c>
       <c r="AO115" t="n">
-        <v>0.07916117989981102</v>
+        <v>0.07916100304995266</v>
       </c>
       <c r="AP115" t="n">
         <v>0.009801903399655568</v>
@@ -21769,10 +21769,10 @@
         <v>0.01544867170455014</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02084617859212165</v>
+        <v>0.02084635390415516</v>
       </c>
       <c r="E116" t="n">
-        <v>0.03462763285803319</v>
+        <v>0.03462745754599968</v>
       </c>
       <c r="F116" t="n">
         <v>0.0267889059038957</v>
@@ -21805,13 +21805,13 @@
         <v>0.01354197802814284</v>
       </c>
       <c r="P116" t="n">
-        <v>0.01085058768976432</v>
+        <v>0.01085041237773081</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02308631575625667</v>
+        <v>0.02308614044422316</v>
       </c>
       <c r="R116" t="n">
-        <v>0.008124134944684671</v>
+        <v>0.008124310256718175</v>
       </c>
       <c r="S116" t="n">
         <v>0.01322887073630177</v>
@@ -21841,7 +21841,7 @@
         <v>0.01030589320166231</v>
       </c>
       <c r="AB116" t="n">
-        <v>0.01997575434576617</v>
+        <v>0.01997592965779968</v>
       </c>
       <c r="AC116" t="n">
         <v>0.04914434579246737</v>
@@ -21856,16 +21856,16 @@
         <v>0.02953306516435942</v>
       </c>
       <c r="AG116" t="n">
-        <v>0.0196407330497369</v>
+        <v>0.01964055773770339</v>
       </c>
       <c r="AH116" t="n">
-        <v>0.03778622976570423</v>
+        <v>0.03778640507773773</v>
       </c>
       <c r="AI116" t="n">
-        <v>0.04878109925904369</v>
+        <v>0.04878092394701018</v>
       </c>
       <c r="AJ116" t="n">
-        <v>0.0148938091185048</v>
+        <v>0.0148939844305383</v>
       </c>
       <c r="AK116" t="n">
         <v>0.01465889099360725</v>
@@ -21877,10 +21877,10 @@
         <v>0.0001507683488148468</v>
       </c>
       <c r="AN116" t="n">
-        <v>0.0066225873777089</v>
+        <v>0.006622762689742405</v>
       </c>
       <c r="AO116" t="n">
-        <v>0.07847282181372571</v>
+        <v>0.07847264650169219</v>
       </c>
       <c r="AP116" t="n">
         <v>0.009716669457049867</v>
@@ -21954,10 +21954,10 @@
         <v>0.01531549350020057</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02066647015598267</v>
+        <v>0.02066664395670554</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03432911878167084</v>
+        <v>0.03432894498094796</v>
       </c>
       <c r="F117" t="n">
         <v>0.0265579670598966</v>
@@ -21990,13 +21990,13 @@
         <v>0.01342523683824506</v>
       </c>
       <c r="P117" t="n">
-        <v>0.01075704814071463</v>
+        <v>0.01075687433999175</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02288729579284066</v>
+        <v>0.02288712199211779</v>
       </c>
       <c r="R117" t="n">
-        <v>0.008054099298609802</v>
+        <v>0.008054273099332675</v>
       </c>
       <c r="S117" t="n">
         <v>0.01311656675442444</v>
@@ -22026,7 +22026,7 @@
         <v>0.01021704929475143</v>
       </c>
       <c r="AB117" t="n">
-        <v>0.01980354956692336</v>
+        <v>0.01980372336764623</v>
       </c>
       <c r="AC117" t="n">
         <v>0.04975810415390679</v>
@@ -22041,16 +22041,16 @@
         <v>0.03070155009388715</v>
       </c>
       <c r="AG117" t="n">
-        <v>0.02093238526197678</v>
+        <v>0.02093221146125391</v>
       </c>
       <c r="AH117" t="n">
-        <v>0.03766140004129505</v>
+        <v>0.03766157384201792</v>
       </c>
       <c r="AI117" t="n">
-        <v>0.04836057254129331</v>
+        <v>0.04836039874057044</v>
       </c>
       <c r="AJ117" t="n">
-        <v>0.01476541421231079</v>
+        <v>0.01476558801303366</v>
       </c>
       <c r="AK117" t="n">
         <v>0.01453252124366236</v>
@@ -22062,10 +22062,10 @@
         <v>0.0001494686216698913</v>
       </c>
       <c r="AN117" t="n">
-        <v>0.006565496107211409</v>
+        <v>0.006565669907934281</v>
       </c>
       <c r="AO117" t="n">
-        <v>0.07991235577147013</v>
+        <v>0.07991218197074726</v>
       </c>
       <c r="AP117" t="n">
         <v>0.009747265940828502</v>
@@ -22139,10 +22139,10 @@
         <v>0.0151845918463527</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02048983365892299</v>
+        <v>0.0204900059741696</v>
       </c>
       <c r="E118" t="n">
-        <v>0.03403570751003263</v>
+        <v>0.03403553519478602</v>
       </c>
       <c r="F118" t="n">
         <v>0.02633097588844449</v>
@@ -22175,13 +22175,13 @@
         <v>0.01331049122424296</v>
       </c>
       <c r="P118" t="n">
-        <v>0.01066510755831536</v>
+        <v>0.01066493524306875</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02269167788008134</v>
+        <v>0.02269150556483473</v>
       </c>
       <c r="R118" t="n">
-        <v>0.008015760641715764</v>
+        <v>0.008015932956962372</v>
       </c>
       <c r="S118" t="n">
         <v>0.01300445934626697</v>
@@ -22211,7 +22211,7 @@
         <v>0.01012972408710398</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.01963428845951376</v>
+        <v>0.01963446077476037</v>
       </c>
       <c r="AC118" t="n">
         <v>0.04960387309533496</v>
@@ -22226,16 +22226,16 @@
         <v>0.03068572680072448</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.02075347598623339</v>
+        <v>0.02075330367098678</v>
       </c>
       <c r="AH118" t="n">
-        <v>0.0373395077332498</v>
+        <v>0.0373396800484964</v>
       </c>
       <c r="AI118" t="n">
-        <v>0.04794723431444466</v>
+        <v>0.04794706199919804</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0.01463921409083805</v>
+        <v>0.01463938640608466</v>
       </c>
       <c r="AK118" t="n">
         <v>0.01440831166038319</v>
@@ -22247,10 +22247,10 @@
         <v>0.0001481911120829691</v>
       </c>
       <c r="AN118" t="n">
-        <v>0.006509380755867722</v>
+        <v>0.00650955307111433</v>
       </c>
       <c r="AO118" t="n">
-        <v>0.08263877365306772</v>
+        <v>0.08263860133782111</v>
       </c>
       <c r="AP118" t="n">
         <v>0.009890033579072106</v>
@@ -22324,10 +22324,10 @@
         <v>0.01506171793283282</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0203816284458453</v>
+        <v>0.02038179930079321</v>
       </c>
       <c r="E119" t="n">
-        <v>0.03387028487328884</v>
+        <v>0.03387011401834094</v>
       </c>
       <c r="F119" t="n">
         <v>0.02614456583878332</v>
@@ -22360,13 +22360,13 @@
         <v>0.01319769045115616</v>
       </c>
       <c r="P119" t="n">
-        <v>0.01057762982498644</v>
+        <v>0.01057745897003854</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02267398928192741</v>
+        <v>0.0226738184269795</v>
       </c>
       <c r="R119" t="n">
-        <v>0.007960986297774888</v>
+        <v>0.007961157152722796</v>
       </c>
       <c r="S119" t="n">
         <v>0.01289425206367149</v>
@@ -22396,7 +22396,7 @@
         <v>0.01004387896772174</v>
       </c>
       <c r="AB119" t="n">
-        <v>0.02015524563986716</v>
+        <v>0.02015541649481507</v>
       </c>
       <c r="AC119" t="n">
         <v>0.05217295031298918</v>
@@ -22411,16 +22411,16 @@
         <v>0.03042567826851495</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.02057759907109582</v>
+        <v>0.02057742821614791</v>
       </c>
       <c r="AH119" t="n">
-        <v>0.03702307122703581</v>
+        <v>0.03702324208198372</v>
       </c>
       <c r="AI119" t="n">
-        <v>0.04754090182025444</v>
+        <v>0.04754073096530654</v>
       </c>
       <c r="AJ119" t="n">
-        <v>0.01451515295447502</v>
+        <v>0.01451532380942292</v>
       </c>
       <c r="AK119" t="n">
         <v>0.01428620732427825</v>
@@ -22432,10 +22432,10 @@
         <v>0.00014693525520091</v>
       </c>
       <c r="AN119" t="n">
-        <v>0.006454216512173928</v>
+        <v>0.006454387367121835</v>
       </c>
       <c r="AO119" t="n">
-        <v>0.08512130188736627</v>
+        <v>0.08512113103241836</v>
       </c>
       <c r="AP119" t="n">
         <v>0.009806219735181665</v>
@@ -22509,10 +22509,10 @@
         <v>0.01493616538972598</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02027981612596249</v>
+        <v>0.02027998554515454</v>
       </c>
       <c r="E120" t="n">
-        <v>0.03363496161554076</v>
+        <v>0.03363479219634871</v>
       </c>
       <c r="F120" t="n">
         <v>0.02595298719072315</v>
@@ -22545,13 +22545,13 @@
         <v>0.01311473965606887</v>
       </c>
       <c r="P120" t="n">
-        <v>0.01071169783612725</v>
+        <v>0.01071152841693521</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02264846584991933</v>
+        <v>0.02264829643072729</v>
       </c>
       <c r="R120" t="n">
-        <v>0.007962024349265118</v>
+        <v>0.007962193768457162</v>
       </c>
       <c r="S120" t="n">
         <v>0.01292448190340429</v>
@@ -22581,7 +22581,7 @@
         <v>0.0100191121790544</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.02020306923196689</v>
+        <v>0.02020323865115894</v>
       </c>
       <c r="AC120" t="n">
         <v>0.05200728705828817</v>
@@ -22596,16 +22596,16 @@
         <v>0.03017220274936853</v>
       </c>
       <c r="AG120" t="n">
-        <v>0.02040467807049838</v>
+        <v>0.02040450865130633</v>
       </c>
       <c r="AH120" t="n">
-        <v>0.03671195298143047</v>
+        <v>0.03671212240062251</v>
       </c>
       <c r="AI120" t="n">
-        <v>0.04714139844361365</v>
+        <v>0.04714122902442161</v>
       </c>
       <c r="AJ120" t="n">
-        <v>0.01439317687922733</v>
+        <v>0.01439334629841937</v>
       </c>
       <c r="AK120" t="n">
         <v>0.01416615516188936</v>
@@ -22617,10 +22617,10 @@
         <v>0.0001457005051572049</v>
       </c>
       <c r="AN120" t="n">
-        <v>0.006399979398626248</v>
+        <v>0.006400148817818291</v>
       </c>
       <c r="AO120" t="n">
-        <v>0.08972474294449539</v>
+        <v>0.08972457352530334</v>
       </c>
       <c r="AP120" t="n">
         <v>0.0111782782910144</v>
@@ -22694,10 +22694,10 @@
         <v>0.0148116973448116</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02015332352170319</v>
+        <v>0.02015349152906864</v>
       </c>
       <c r="E121" t="n">
-        <v>0.03359189666874996</v>
+        <v>0.03359172866138452</v>
       </c>
       <c r="F121" t="n">
         <v>0.02584625309973589</v>
@@ -22730,13 +22730,13 @@
         <v>0.01300561816630041</v>
       </c>
       <c r="P121" t="n">
-        <v>0.01065536313111967</v>
+        <v>0.01065519512375422</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02274298905264007</v>
+        <v>0.02274282104527462</v>
       </c>
       <c r="R121" t="n">
-        <v>0.007965229195647938</v>
+        <v>0.007965397203013379</v>
       </c>
       <c r="S121" t="n">
         <v>0.01285306747847826</v>
@@ -22766,7 +22766,7 @@
         <v>0.009940827805891009</v>
       </c>
       <c r="AB121" t="n">
-        <v>0.02003857449110569</v>
+        <v>0.02003874249847113</v>
       </c>
       <c r="AC121" t="n">
         <v>0.05211958092242764</v>
@@ -22781,16 +22781,16 @@
         <v>0.02994664086073533</v>
       </c>
       <c r="AG121" t="n">
-        <v>0.02023463908657756</v>
+        <v>0.02023447107921211</v>
       </c>
       <c r="AH121" t="n">
-        <v>0.03640602003991855</v>
+        <v>0.036406188047284</v>
       </c>
       <c r="AI121" t="n">
-        <v>0.04674855345658354</v>
+        <v>0.0467483854492181</v>
       </c>
       <c r="AJ121" t="n">
-        <v>0.0142732337385671</v>
+        <v>0.01427340174593254</v>
       </c>
       <c r="AK121" t="n">
         <v>0.01404810386887361</v>
@@ -22802,10 +22802,10 @@
         <v>0.0001444863342808949</v>
       </c>
       <c r="AN121" t="n">
-        <v>0.006346646236971029</v>
+        <v>0.006346814244336471</v>
       </c>
       <c r="AO121" t="n">
-        <v>0.09404145077720208</v>
+        <v>0.09404128276983663</v>
       </c>
       <c r="AP121" t="n">
         <v>0.01238298286996902</v>
@@ -22879,10 +22879,10 @@
         <v>0.01477909419648131</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02009157040122325</v>
+        <v>0.02009173702009807</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03359969582058213</v>
+        <v>0.03359952920170731</v>
       </c>
       <c r="F122" t="n">
         <v>0.02590840194004353</v>
@@ -22915,13 +22915,13 @@
         <v>0.01289813371864503</v>
       </c>
       <c r="P122" t="n">
-        <v>0.01063944825159317</v>
+        <v>0.01063928163271835</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02297824240746946</v>
+        <v>0.02297807578859464</v>
       </c>
       <c r="R122" t="n">
-        <v>0.008008036361570289</v>
+        <v>0.00800820298044511</v>
       </c>
       <c r="S122" t="n">
         <v>0.01285947813968693</v>
@@ -22951,7 +22951,7 @@
         <v>0.009858672204189432</v>
       </c>
       <c r="AB122" t="n">
-        <v>0.01987779838482995</v>
+        <v>0.01987796500370477</v>
       </c>
       <c r="AC122" t="n">
         <v>0.05213021398362237</v>
@@ -22966,16 +22966,16 @@
         <v>0.02970747890480081</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.02006741066437443</v>
+        <v>0.02006724404549962</v>
       </c>
       <c r="AH122" t="n">
-        <v>0.03610514384124153</v>
+        <v>0.03610531046011636</v>
       </c>
       <c r="AI122" t="n">
-        <v>0.04636220177512417</v>
+        <v>0.04636203515624935</v>
       </c>
       <c r="AJ122" t="n">
-        <v>0.01415527312915745</v>
+        <v>0.01415543974803227</v>
       </c>
       <c r="AK122" t="n">
         <v>0.01393200383689945</v>
@@ -22987,10 +22987,10 @@
         <v>0.0001432922323446891</v>
       </c>
       <c r="AN122" t="n">
-        <v>0.006294194615177879</v>
+        <v>0.006294361234052699</v>
       </c>
       <c r="AO122" t="n">
-        <v>0.09820383186755932</v>
+        <v>0.0982036652486845</v>
       </c>
       <c r="AP122" t="n">
         <v>0.01302426420688333</v>
@@ -23064,10 +23064,10 @@
         <v>0.01476735166299199</v>
       </c>
       <c r="D123" t="n">
-        <v>0.02008139708975989</v>
+        <v>0.02008156234290623</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03374171792543844</v>
+        <v>0.0337415526722921</v>
       </c>
       <c r="F123" t="n">
         <v>0.02612305211985083</v>
@@ -23100,13 +23100,13 @@
         <v>0.01279241131111516</v>
       </c>
       <c r="P123" t="n">
-        <v>0.01056942598658607</v>
+        <v>0.01056926073343973</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.02303380980222173</v>
+        <v>0.02303364454907539</v>
       </c>
       <c r="R123" t="n">
-        <v>0.008373707431202637</v>
+        <v>0.008373872684348974</v>
       </c>
       <c r="S123" t="n">
         <v>0.01291965623379486</v>
@@ -23136,7 +23136,7 @@
         <v>0.009777863415630502</v>
       </c>
       <c r="AB123" t="n">
-        <v>0.01973072991323218</v>
+        <v>0.01973089516637852</v>
       </c>
       <c r="AC123" t="n">
         <v>0.05202202097326832</v>
@@ -23151,16 +23151,16 @@
         <v>0.0294643054856443</v>
       </c>
       <c r="AG123" t="n">
-        <v>0.01990292369171563</v>
+        <v>0.01990275843856929</v>
       </c>
       <c r="AH123" t="n">
-        <v>0.03580920003926415</v>
+        <v>0.03580936529241049</v>
       </c>
       <c r="AI123" t="n">
-        <v>0.04598218372778708</v>
+        <v>0.04598201847464075</v>
       </c>
       <c r="AJ123" t="n">
-        <v>0.01403924630022993</v>
+        <v>0.01403941155337627</v>
       </c>
       <c r="AK123" t="n">
         <v>0.01381780708413798</v>
@@ -23172,10 +23172,10 @@
         <v>0.0001421177058500605</v>
       </c>
       <c r="AN123" t="n">
-        <v>0.006242602856037078</v>
+        <v>0.006242768109183415</v>
       </c>
       <c r="AO123" t="n">
-        <v>0.1000278947311017</v>
+        <v>0.1000277294779554</v>
       </c>
       <c r="AP123" t="n">
         <v>0.01445370119124383</v>
@@ -23249,10 +23249,10 @@
         <v>0.01497347204677063</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02033938143457965</v>
+        <v>0.02033954534420447</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03387700516790656</v>
+        <v>0.03387684125828174</v>
       </c>
       <c r="F124" t="n">
         <v>0.02634568572656957</v>
@@ -23285,13 +23285,13 @@
         <v>0.01270807712210103</v>
       </c>
       <c r="P124" t="n">
-        <v>0.01063035871785302</v>
+        <v>0.0106301948082282</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.02293374297626769</v>
+        <v>0.02293357906664287</v>
       </c>
       <c r="R124" t="n">
-        <v>0.008826041567808675</v>
+        <v>0.008826205477433496</v>
       </c>
       <c r="S124" t="n">
         <v>0.013362240434767</v>
@@ -23321,7 +23321,7 @@
         <v>0.009698368591113182</v>
       </c>
       <c r="AB124" t="n">
-        <v>0.01957031747491322</v>
+        <v>0.01957048138453804</v>
       </c>
       <c r="AC124" t="n">
         <v>0.05159907771332305</v>
@@ -23336,16 +23336,16 @@
         <v>0.02924770563404914</v>
       </c>
       <c r="AG124" t="n">
-        <v>0.0197411113039781</v>
+        <v>0.01974094739435328</v>
       </c>
       <c r="AH124" t="n">
-        <v>0.03551806833162786</v>
+        <v>0.03551823224125267</v>
       </c>
       <c r="AI124" t="n">
-        <v>0.04560834483569125</v>
+        <v>0.04560818092606643</v>
       </c>
       <c r="AJ124" t="n">
-        <v>0.01392510608640693</v>
+        <v>0.01392526999603175</v>
       </c>
       <c r="AK124" t="n">
         <v>0.01370546718914499</v>
@@ -23357,10 +23357,10 @@
         <v>0.0001409622773472145</v>
       </c>
       <c r="AN124" t="n">
-        <v>0.006191849987288809</v>
+        <v>0.006192013896913631</v>
       </c>
       <c r="AO124" t="n">
-        <v>0.09921465981458871</v>
+        <v>0.09921449590496388</v>
       </c>
       <c r="AP124" t="n">
         <v>0.01433619142546136</v>
@@ -23434,10 +23434,10 @@
         <v>0.01507123620686628</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02053386020443136</v>
+        <v>0.02053402279220437</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03399482710741394</v>
+        <v>0.03399466451964093</v>
       </c>
       <c r="F125" t="n">
         <v>0.0263995392912864</v>
@@ -23470,13 +23470,13 @@
         <v>0.01260559262918086</v>
       </c>
       <c r="P125" t="n">
-        <v>0.0107220132788686</v>
+        <v>0.01072185069109559</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.02297787960830654</v>
+        <v>0.02297771702053353</v>
       </c>
       <c r="R125" t="n">
-        <v>0.008797949573077026</v>
+        <v>0.008798112160850035</v>
       </c>
       <c r="S125" t="n">
         <v>0.01380646592062725</v>
@@ -23506,7 +23506,7 @@
         <v>0.009620155941184849</v>
       </c>
       <c r="AB125" t="n">
-        <v>0.0194124923339865</v>
+        <v>0.01941265492175951</v>
       </c>
       <c r="AC125" t="n">
         <v>0.05118295611886077</v>
@@ -23521,16 +23521,16 @@
         <v>0.02934351609716505</v>
       </c>
       <c r="AG125" t="n">
-        <v>0.01958190879346215</v>
+        <v>0.01958174620568914</v>
       </c>
       <c r="AH125" t="n">
-        <v>0.03523163229669537</v>
+        <v>0.03523179488446838</v>
       </c>
       <c r="AI125" t="n">
-        <v>0.04524053560314536</v>
+        <v>0.04524037301537235</v>
       </c>
       <c r="AJ125" t="n">
-        <v>0.01381280684377461</v>
+        <v>0.01381296943154762</v>
       </c>
       <c r="AK125" t="n">
         <v>0.01359493922794221</v>
@@ -23542,10 +23542,10 @@
         <v>0.0001398254847879628</v>
       </c>
       <c r="AN125" t="n">
-        <v>0.006141915713197769</v>
+        <v>0.006142078300970779</v>
       </c>
       <c r="AO125" t="n">
-        <v>0.09841454159027752</v>
+        <v>0.09841437900250451</v>
       </c>
       <c r="AP125" t="n">
         <v>0.01422057697848183</v>
@@ -23619,10 +23619,10 @@
         <v>0.01520598375032761</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02070990504223705</v>
+        <v>0.02071006632930788</v>
       </c>
       <c r="E126" t="n">
-        <v>0.03447107921211266</v>
+        <v>0.03447091792504183</v>
       </c>
       <c r="F126" t="n">
         <v>0.02693639241144332</v>
@@ -23655,13 +23655,13 @@
         <v>0.0125103929356263</v>
       </c>
       <c r="P126" t="n">
-        <v>0.01069026834136409</v>
+        <v>0.01069010705429326</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.02297324650712687</v>
+        <v>0.02297308522005605</v>
       </c>
       <c r="R126" t="n">
-        <v>0.009105622870506643</v>
+        <v>0.009105784157577469</v>
       </c>
       <c r="S126" t="n">
         <v>0.01431003407189371</v>
@@ -23691,7 +23691,7 @@
         <v>0.009543194693655371</v>
       </c>
       <c r="AB126" t="n">
-        <v>0.01925719239531461</v>
+        <v>0.01925735368238543</v>
       </c>
       <c r="AC126" t="n">
         <v>0.05077349246990988</v>
@@ -23706,16 +23706,16 @@
         <v>0.02910876796838774</v>
       </c>
       <c r="AG126" t="n">
-        <v>0.01942525352311445</v>
+        <v>0.01942509223604363</v>
       </c>
       <c r="AH126" t="n">
-        <v>0.03494977923832181</v>
+        <v>0.03494994052539263</v>
       </c>
       <c r="AI126" t="n">
-        <v>0.0448786113183202</v>
+        <v>0.04487845003124937</v>
       </c>
       <c r="AJ126" t="n">
-        <v>0.01370230438902442</v>
+        <v>0.01370246567609524</v>
       </c>
       <c r="AK126" t="n">
         <v>0.01348617971411867</v>
@@ -23727,10 +23727,10 @@
         <v>0.0001387068809096591</v>
       </c>
       <c r="AN126" t="n">
-        <v>0.006092780387492188</v>
+        <v>0.006092941674563013</v>
       </c>
       <c r="AO126" t="n">
-        <v>0.09762722525755529</v>
+        <v>0.09762706397048447</v>
       </c>
       <c r="AP126" t="n">
         <v>0.01410681236265398</v>
@@ -23804,10 +23804,10 @@
         <v>0.01536579363639302</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02092475734136184</v>
+        <v>0.02092491734837655</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03489544981651996</v>
+        <v>0.03489528980950525</v>
       </c>
       <c r="F127" t="n">
         <v>0.02739192086181058</v>
@@ -23840,13 +23840,13 @@
         <v>0.01243126498665702</v>
       </c>
       <c r="P127" t="n">
-        <v>0.0106852684421685</v>
+        <v>0.0106851084351538</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.02317429596113494</v>
+        <v>0.02317413595412023</v>
       </c>
       <c r="R127" t="n">
-        <v>0.009384731426625744</v>
+        <v>0.009384891433640451</v>
       </c>
       <c r="S127" t="n">
         <v>0.01478672825016649</v>
@@ -23876,7 +23876,7 @@
         <v>0.009467455053229533</v>
       </c>
       <c r="AB127" t="n">
-        <v>0.01910435753503434</v>
+        <v>0.01910451754204904</v>
       </c>
       <c r="AC127" t="n">
         <v>0.05037052824395821</v>
@@ -23891,16 +23891,16 @@
         <v>0.02887774600038466</v>
       </c>
       <c r="AG127" t="n">
-        <v>0.01927108484435958</v>
+        <v>0.01927092483734487</v>
       </c>
       <c r="AH127" t="n">
-        <v>0.03467240003801766</v>
+        <v>0.03467256004503237</v>
       </c>
       <c r="AI127" t="n">
-        <v>0.04452243186341289</v>
+        <v>0.04452227185639818</v>
       </c>
       <c r="AJ127" t="n">
-        <v>0.01359355594149247</v>
+        <v>0.01359371594850718</v>
       </c>
       <c r="AK127" t="n">
         <v>0.01337914654178439</v>
@@ -23912,10 +23912,10 @@
         <v>0.0001376060326484713</v>
       </c>
       <c r="AN127" t="n">
-        <v>0.006044424987591456</v>
+        <v>0.006044584994606163</v>
       </c>
       <c r="AO127" t="n">
-        <v>0.09685240600947946</v>
+        <v>0.09685224600246475</v>
       </c>
       <c r="AP127" t="n">
         <v>0.01399485353437895</v>
@@ -23989,10 +23989,10 @@
         <v>0.01549498859163844</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02109749184317626</v>
+        <v>0.02109765059029322</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03540695696540281</v>
+        <v>0.03540679821828586</v>
       </c>
       <c r="F128" t="n">
         <v>0.02792774529723572</v>
@@ -24025,13 +24025,13 @@
         <v>0.01233338101038413</v>
       </c>
       <c r="P128" t="n">
-        <v>0.01064764537545042</v>
+        <v>0.01064748662833347</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.02334519227212685</v>
+        <v>0.02334503352500989</v>
       </c>
       <c r="R128" t="n">
-        <v>0.00952022335084367</v>
+        <v>0.009520382097960623</v>
       </c>
       <c r="S128" t="n">
         <v>0.01498874403567238</v>
@@ -24061,7 +24061,7 @@
         <v>0.009392908163046623</v>
       </c>
       <c r="AB128" t="n">
-        <v>0.01895885068357302</v>
+        <v>0.01895900943068998</v>
       </c>
       <c r="AC128" t="n">
         <v>0.05058699127700467</v>
@@ -24076,16 +24076,16 @@
         <v>0.02865036217360998</v>
       </c>
       <c r="AG128" t="n">
-        <v>0.01911934401881344</v>
+        <v>0.01911918527169649</v>
       </c>
       <c r="AH128" t="n">
-        <v>0.03439938901409627</v>
+        <v>0.03439954776121322</v>
       </c>
       <c r="AI128" t="n">
-        <v>0.04417186153377972</v>
+        <v>0.04417170278666276</v>
       </c>
       <c r="AJ128" t="n">
-        <v>0.01348652006793742</v>
+        <v>0.01348667881505437</v>
       </c>
       <c r="AK128" t="n">
         <v>0.01327379893121916</v>
@@ -24097,10 +24097,10 @@
         <v>0.0001365225205803731</v>
       </c>
       <c r="AN128" t="n">
-        <v>0.005996831090051366</v>
+        <v>0.005996989837168319</v>
       </c>
       <c r="AO128" t="n">
-        <v>0.09803539330471335</v>
+        <v>0.09803523455759638</v>
       </c>
       <c r="AP128" t="n">
         <v>0.01388465783725785</v>
@@ -24174,10 +24174,10 @@
         <v>0.01550119957258926</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02121507756900063</v>
+        <v>0.02121523507590573</v>
       </c>
       <c r="E129" t="n">
-        <v>0.03584053874921877</v>
+        <v>0.03584038124231366</v>
       </c>
       <c r="F129" t="n">
         <v>0.0282789472490474</v>
@@ -24210,13 +24210,13 @@
         <v>0.0122370264712405</v>
       </c>
       <c r="P129" t="n">
-        <v>0.01056871333239249</v>
+        <v>0.01056855582548739</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.0234378150138102</v>
+        <v>0.0234376575069051</v>
       </c>
       <c r="R129" t="n">
-        <v>0.009572324650712687</v>
+        <v>0.009572482157617791</v>
       </c>
       <c r="S129" t="n">
         <v>0.01527942985020463</v>
@@ -24246,7 +24246,7 @@
         <v>0.009319526068022822</v>
       </c>
       <c r="AB129" t="n">
-        <v>0.01881073466260761</v>
+        <v>0.01881089216951271</v>
       </c>
       <c r="AC129" t="n">
         <v>0.05089284364226528</v>
@@ -24261,16 +24261,16 @@
         <v>0.02843188645390214</v>
       </c>
       <c r="AG129" t="n">
-        <v>0.01896997414366646</v>
+        <v>0.01896981663676136</v>
       </c>
       <c r="AH129" t="n">
-        <v>0.03413064378742364</v>
+        <v>0.03413080129432874</v>
       </c>
       <c r="AI129" t="n">
-        <v>0.04382676886554707</v>
+        <v>0.04382661135864196</v>
       </c>
       <c r="AJ129" t="n">
-        <v>0.01338115662990665</v>
+        <v>0.01338131413681176</v>
       </c>
       <c r="AK129" t="n">
         <v>0.01317009737706901</v>
@@ -24282,10 +24282,10 @@
         <v>0.0001354559383883389</v>
       </c>
       <c r="AN129" t="n">
-        <v>0.00594998084716034</v>
+        <v>0.005950138354065443</v>
       </c>
       <c r="AO129" t="n">
-        <v>0.09936197102880991</v>
+        <v>0.0993618135219048</v>
       </c>
       <c r="AP129" t="n">
         <v>0.01377618394790428</v>
@@ -24359,10 +24359,10 @@
         <v>0.01544620646401696</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02114360972654809</v>
+        <v>0.02114376601246943</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0357114893126217</v>
+        <v>0.03571133302670036</v>
       </c>
       <c r="F130" t="n">
         <v>0.02812834012317519</v>
@@ -24395,13 +24395,13 @@
         <v>0.01214216580092081</v>
       </c>
       <c r="P130" t="n">
-        <v>0.01048678532206387</v>
+        <v>0.01048662903614253</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.02325612652533105</v>
+        <v>0.02325597023940972</v>
       </c>
       <c r="R130" t="n">
-        <v>0.009498120583652899</v>
+        <v>0.009498276869574241</v>
       </c>
       <c r="S130" t="n">
         <v>0.01516098465756739</v>
@@ -24431,7 +24431,7 @@
         <v>0.009247281679898614</v>
       </c>
       <c r="AB130" t="n">
-        <v>0.01866491501406026</v>
+        <v>0.0186650712999816</v>
       </c>
       <c r="AC130" t="n">
         <v>0.05049832547449578</v>
@@ -24446,16 +24446,16 @@
         <v>0.02821148423332925</v>
       </c>
       <c r="AG130" t="n">
-        <v>0.01882292008053726</v>
+        <v>0.01882276379461592</v>
       </c>
       <c r="AH130" t="n">
-        <v>0.0338660651534126</v>
+        <v>0.03386622143933395</v>
       </c>
       <c r="AI130" t="n">
-        <v>0.04392962820048171</v>
+        <v>0.04392947191456036</v>
       </c>
       <c r="AJ130" t="n">
-        <v>0.01509362542546889</v>
+        <v>0.01509378171139023</v>
       </c>
       <c r="AK130" t="n">
         <v>0.01408276808622732</v>
@@ -24467,10 +24467,10 @@
         <v>0.0001344058923543208</v>
       </c>
       <c r="AN130" t="n">
-        <v>0.005903856964624213</v>
+        <v>0.005904013250545555</v>
       </c>
       <c r="AO130" t="n">
-        <v>0.09859172319137727</v>
+        <v>0.09859156690545592</v>
       </c>
       <c r="AP130" t="n">
         <v>0.01366939182427711</v>
@@ -24544,10 +24544,10 @@
         <v>0.01536988243103039</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02101151806802903</v>
+        <v>0.02101167315175097</v>
       </c>
       <c r="E131" t="n">
-        <v>0.03546656162329234</v>
+        <v>0.03546640653957039</v>
       </c>
       <c r="F131" t="n">
         <v>0.02801944129538331</v>
@@ -24562,10 +24562,10 @@
         <v>0.01946099101599999</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02203227912588611</v>
+        <v>0.02203212404216416</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03101720964062449</v>
+        <v>0.03101736472434644</v>
       </c>
       <c r="L131" t="n">
         <v>0.02676264281272245</v>
@@ -24580,13 +24580,13 @@
         <v>0.01204876452552911</v>
       </c>
       <c r="P131" t="n">
-        <v>0.01040611774266338</v>
+        <v>0.01040596265894143</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.02307723324436697</v>
+        <v>0.02307707816064503</v>
       </c>
       <c r="R131" t="n">
-        <v>0.009425058117624801</v>
+        <v>0.009425213201346747</v>
       </c>
       <c r="S131" t="n">
         <v>0.01504436169866302</v>
@@ -24616,7 +24616,7 @@
         <v>0.009176148743899394</v>
       </c>
       <c r="AB131" t="n">
-        <v>0.01852133874472134</v>
+        <v>0.01852149382844329</v>
       </c>
       <c r="AC131" t="n">
         <v>0.05010987681699966</v>
@@ -24631,16 +24631,16 @@
         <v>0.0279944728161498</v>
       </c>
       <c r="AG131" t="n">
-        <v>0.01867812838761005</v>
+        <v>0.0186779733038881</v>
       </c>
       <c r="AH131" t="n">
-        <v>0.03360881371808571</v>
+        <v>0.03360896880180766</v>
       </c>
       <c r="AI131" t="n">
-        <v>0.04441628813314868</v>
+        <v>0.04441613304942673</v>
       </c>
       <c r="AJ131" t="n">
-        <v>0.01504172527538992</v>
+        <v>0.01504188035911187</v>
       </c>
       <c r="AK131" t="n">
         <v>0.01433004607537379</v>
@@ -24652,10 +24652,10 @@
         <v>0.0001333720008746722</v>
       </c>
       <c r="AN131" t="n">
-        <v>0.00585844268028095</v>
+        <v>0.005858597764002897</v>
       </c>
       <c r="AO131" t="n">
-        <v>0.09783332532067436</v>
+        <v>0.09783317023695241</v>
       </c>
       <c r="AP131" t="n">
         <v>0.01356424265639806</v>
@@ -24729,10 +24729,10 @@
         <v>0.0155551222419026</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02113368497403171</v>
+        <v>0.02113383887390845</v>
       </c>
       <c r="E132" t="n">
-        <v>0.03537311716967046</v>
+        <v>0.03537296326979372</v>
       </c>
       <c r="F132" t="n">
         <v>0.02796545440246757</v>
@@ -24747,10 +24747,10 @@
         <v>0.01969425942686763</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02217481764018855</v>
+        <v>0.02217466374031181</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03114671875459295</v>
+        <v>0.03114687265446969</v>
       </c>
       <c r="L132" t="n">
         <v>0.02720995990754311</v>
@@ -24765,13 +24765,13 @@
         <v>0.01232137803180833</v>
       </c>
       <c r="P132" t="n">
-        <v>0.01047257881251163</v>
+        <v>0.01047242491263489</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.02308344251247089</v>
+        <v>0.02308328861259415</v>
       </c>
       <c r="R132" t="n">
-        <v>0.00955718234565266</v>
+        <v>0.0095573362455294</v>
       </c>
       <c r="S132" t="n">
         <v>0.01497907500325883</v>
@@ -24801,7 +24801,7 @@
         <v>0.009141806578327111</v>
       </c>
       <c r="AB132" t="n">
-        <v>0.01837995447949446</v>
+        <v>0.0183801083793712</v>
       </c>
       <c r="AC132" t="n">
         <v>0.04972735867335844</v>
@@ -24816,16 +24816,16 @@
         <v>0.02778077455037766</v>
       </c>
       <c r="AG132" t="n">
-        <v>0.0185355472548802</v>
+        <v>0.01853539335500346</v>
       </c>
       <c r="AH132" t="n">
-        <v>0.03335225788817666</v>
+        <v>0.0333524117880534</v>
       </c>
       <c r="AI132" t="n">
-        <v>0.04408523529213505</v>
+        <v>0.04408508139225831</v>
       </c>
       <c r="AJ132" t="n">
-        <v>0.01500923937910018</v>
+        <v>0.01500939327897692</v>
       </c>
       <c r="AK132" t="n">
         <v>0.01435362590418101</v>
@@ -24837,10 +24837,10 @@
         <v>0.0001323538939977663</v>
       </c>
       <c r="AN132" t="n">
-        <v>0.005813721743790255</v>
+        <v>0.005813875643666997</v>
       </c>
       <c r="AO132" t="n">
-        <v>0.09708650604341731</v>
+        <v>0.09708635214354057</v>
       </c>
       <c r="AP132" t="n">
         <v>0.01346069881932632</v>
@@ -24914,10 +24914,10 @@
         <v>0.0156816547564718</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02119565649030781</v>
+        <v>0.02119580922427639</v>
       </c>
       <c r="E133" t="n">
-        <v>0.03532171577674693</v>
+        <v>0.03532156304277834</v>
       </c>
       <c r="F133" t="n">
         <v>0.02793305731250531</v>
@@ -24932,10 +24932,10 @@
         <v>0.01968679761466197</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02223638575224229</v>
+        <v>0.0222362330182737</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03154689574318211</v>
+        <v>0.0315470484771507</v>
       </c>
       <c r="L133" t="n">
         <v>0.02768562828339849</v>
@@ -24950,13 +24950,13 @@
         <v>0.01277680740796404</v>
       </c>
       <c r="P133" t="n">
-        <v>0.01050824977257912</v>
+        <v>0.01050809703861054</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.02310910764873387</v>
+        <v>0.02310895491476528</v>
       </c>
       <c r="R133" t="n">
-        <v>0.009552898799083352</v>
+        <v>0.009553051533051936</v>
       </c>
       <c r="S133" t="n">
         <v>0.01492378880435573</v>
@@ -24986,7 +24986,7 @@
         <v>0.009204970818647962</v>
       </c>
       <c r="AB133" t="n">
-        <v>0.01824071240010435</v>
+        <v>0.01824086513407293</v>
       </c>
       <c r="AC133" t="n">
         <v>0.0493509417271035</v>
@@ -25001,16 +25001,16 @@
         <v>0.02757031413711723</v>
       </c>
       <c r="AG133" t="n">
-        <v>0.01839512644234323</v>
+        <v>0.01839497370837465</v>
       </c>
       <c r="AH133" t="n">
-        <v>0.03309958926781168</v>
+        <v>0.03309974200178026</v>
       </c>
       <c r="AI133" t="n">
-        <v>0.04375125623689161</v>
+        <v>0.04375110350292302</v>
       </c>
       <c r="AJ133" t="n">
-        <v>0.0148955330201676</v>
+        <v>0.01489568575413619</v>
       </c>
       <c r="AK133" t="n">
         <v>0.01424488631399782</v>
@@ -25022,10 +25022,10 @@
         <v>0.0001313512129826317</v>
       </c>
       <c r="AN133" t="n">
-        <v>0.00576967839724639</v>
+        <v>0.005769831131214974</v>
       </c>
       <c r="AO133" t="n">
-        <v>0.09635100220975505</v>
+        <v>0.09635084947578647</v>
       </c>
       <c r="AP133" t="n">
         <v>0.01335872382827081</v>
@@ -25099,10 +25099,10 @@
         <v>0.0156822875114845</v>
       </c>
       <c r="D134" t="n">
-        <v>0.02108631389768548</v>
+        <v>0.02108646548327837</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0351188954018481</v>
+        <v>0.03511874381625522</v>
       </c>
       <c r="F134" t="n">
         <v>0.02786203831386494</v>
@@ -25117,10 +25117,10 @@
         <v>0.01982633444966017</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02248044659541032</v>
+        <v>0.02248029500981744</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03195454615046113</v>
+        <v>0.03195469773605401</v>
       </c>
       <c r="L134" t="n">
         <v>0.0281523247242317</v>
@@ -25135,13 +25135,13 @@
         <v>0.01305197430381664</v>
       </c>
       <c r="P134" t="n">
-        <v>0.01042924037579281</v>
+        <v>0.01042908879019993</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.02293535495964564</v>
+        <v>0.02293520337405276</v>
       </c>
       <c r="R134" t="n">
-        <v>0.009481072492323326</v>
+        <v>0.009481224077916208</v>
       </c>
       <c r="S134" t="n">
         <v>0.01481157986597711</v>
@@ -25171,7 +25171,7 @@
         <v>0.009627655760639073</v>
       </c>
       <c r="AB134" t="n">
-        <v>0.01810356418656973</v>
+        <v>0.01810371577216261</v>
       </c>
       <c r="AC134" t="n">
         <v>0.04897988201486964</v>
@@ -25186,16 +25186,16 @@
         <v>0.02736301854210131</v>
       </c>
       <c r="AG134" t="n">
-        <v>0.01825681722097223</v>
+        <v>0.01825666563537935</v>
       </c>
       <c r="AH134" t="n">
-        <v>0.03285072017557249</v>
+        <v>0.03285087176116538</v>
       </c>
       <c r="AI134" t="n">
-        <v>0.04350279137290011</v>
+        <v>0.04350263978730722</v>
       </c>
       <c r="AJ134" t="n">
-        <v>0.01522222523709124</v>
+        <v>0.01522237682268412</v>
       </c>
       <c r="AK134" t="n">
         <v>0.0141377819056219</v>
@@ -25207,10 +25207,10 @@
         <v>0.0001303636098774991</v>
       </c>
       <c r="AN134" t="n">
-        <v>0.00572629735666559</v>
+        <v>0.00572644894225847</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.0956265585841178</v>
+        <v>0.09562640699852493</v>
       </c>
       <c r="AP134" t="n">
         <v>0.01325828229572742</v>
@@ -25284,10 +25284,10 @@
         <v>0.01574880983080806</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0210129068774793</v>
+        <v>0.02101305733183641</v>
       </c>
       <c r="E135" t="n">
-        <v>0.03524047270351735</v>
+        <v>0.03524032224916024</v>
       </c>
       <c r="F135" t="n">
         <v>0.02779207930027891</v>
@@ -25302,10 +25302,10 @@
         <v>0.02001569539853403</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02251714953989553</v>
+        <v>0.02251699908553842</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0318964741623228</v>
+        <v>0.03189662461667991</v>
       </c>
       <c r="L135" t="n">
         <v>0.02804830307044243</v>
@@ -25320,13 +25320,13 @@
         <v>0.01370699375042691</v>
       </c>
       <c r="P135" t="n">
-        <v>0.01049404095427782</v>
+        <v>0.01049389049992071</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.02302463208643783</v>
+        <v>0.02302448163208072</v>
       </c>
       <c r="R135" t="n">
-        <v>0.009420850024990469</v>
+        <v>0.009421000479347581</v>
       </c>
       <c r="S135" t="n">
         <v>0.01470104568787281</v>
@@ -25356,7 +25356,7 @@
         <v>0.01007201648257573</v>
       </c>
       <c r="AB135" t="n">
-        <v>0.01796846296129682</v>
+        <v>0.01796861341565393</v>
       </c>
       <c r="AC135" t="n">
         <v>0.04960013745510066</v>
@@ -25371,16 +25371,16 @@
         <v>0.0271588169111901</v>
       </c>
       <c r="AG135" t="n">
-        <v>0.01812057231633811</v>
+        <v>0.018120421861981</v>
       </c>
       <c r="AH135" t="n">
-        <v>0.03260556554739658</v>
+        <v>0.03260571600175369</v>
       </c>
       <c r="AI135" t="n">
-        <v>0.04317814367608742</v>
+        <v>0.04317799322173031</v>
       </c>
       <c r="AJ135" t="n">
-        <v>0.01510862654129205</v>
+        <v>0.01510877699564916</v>
       </c>
       <c r="AK135" t="n">
         <v>0.01403227607050532</v>
@@ -25392,10 +25392,10 @@
         <v>0.0001293907471172193</v>
       </c>
       <c r="AN135" t="n">
-        <v>0.005683563794302414</v>
+        <v>0.005683714248659527</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.09491292754990796</v>
+        <v>0.09491277709555085</v>
       </c>
       <c r="AP135" t="n">
         <v>0.01315933989053543</v>
@@ -25469,10 +25469,10 @@
         <v>0.01578104384096199</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02096328703050342</v>
+        <v>0.02096343637038381</v>
       </c>
       <c r="E136" t="n">
-        <v>0.03507515902830514</v>
+        <v>0.03507500968842474</v>
       </c>
       <c r="F136" t="n">
         <v>0.02763086467044049</v>
@@ -25487,10 +25487,10 @@
         <v>0.02014759260379308</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02262872537665385</v>
+        <v>0.02262857603677345</v>
       </c>
       <c r="K136" t="n">
-        <v>0.03226727059714298</v>
+        <v>0.03226741993702337</v>
       </c>
       <c r="L136" t="n">
         <v>0.02814967141492816</v>
@@ -25505,13 +25505,13 @@
         <v>0.01383335312086749</v>
       </c>
       <c r="P136" t="n">
-        <v>0.01055250528849852</v>
+        <v>0.01055235594861812</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.02285407925616792</v>
+        <v>0.02285392991628753</v>
       </c>
       <c r="R136" t="n">
-        <v>0.009351065950731281</v>
+        <v>0.009351215290611673</v>
       </c>
       <c r="S136" t="n">
         <v>0.01459214905314782</v>
@@ -25541,7 +25541,7 @@
         <v>0.01009507723485264</v>
       </c>
       <c r="AB136" t="n">
-        <v>0.01783536323565758</v>
+        <v>0.01783551257553798</v>
       </c>
       <c r="AC136" t="n">
         <v>0.04923272902950732</v>
@@ -25556,16 +25556,16 @@
         <v>0.02695764048962573</v>
       </c>
       <c r="AG136" t="n">
-        <v>0.01798694321425718</v>
+        <v>0.01798679387437679</v>
       </c>
       <c r="AH136" t="n">
-        <v>0.03244020617863887</v>
+        <v>0.03244035551851927</v>
       </c>
       <c r="AI136" t="n">
-        <v>0.04316400430994895</v>
+        <v>0.04316385497006855</v>
       </c>
       <c r="AJ136" t="n">
-        <v>0.01499671078913433</v>
+        <v>0.01499686012901472</v>
       </c>
       <c r="AK136" t="n">
         <v>0.01392833328479787</v>
@@ -25577,10 +25577,10 @@
         <v>0.0001284322971385732</v>
       </c>
       <c r="AN136" t="n">
-        <v>0.005641463321752025</v>
+        <v>0.00564161266163242</v>
       </c>
       <c r="AO136" t="n">
-        <v>0.09420986882731605</v>
+        <v>0.09420971948743566</v>
       </c>
       <c r="AP136" t="n">
         <v>0.01306186329875368</v>
@@ -25654,10 +25654,10 @@
         <v>0.0156740495032714</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02081566785299632</v>
+        <v>0.02081581609478936</v>
       </c>
       <c r="E137" t="n">
-        <v>0.03484215806844501</v>
+        <v>0.03484200982665198</v>
       </c>
       <c r="F137" t="n">
         <v>0.02755399855553197</v>
@@ -25672,10 +25672,10 @@
         <v>0.02012797417509372</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02280640689170166</v>
+        <v>0.02280625864990862</v>
       </c>
       <c r="K137" t="n">
-        <v>0.03250053070561908</v>
+        <v>0.03250067894741211</v>
       </c>
       <c r="L137" t="n">
         <v>0.02806706340123598</v>
@@ -25690,13 +25690,13 @@
         <v>0.0137316372890964</v>
       </c>
       <c r="P137" t="n">
-        <v>0.01047491333784779</v>
+        <v>0.01047476509605475</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.02268603455575493</v>
+        <v>0.02268588631396189</v>
       </c>
       <c r="R137" t="n">
-        <v>0.009282308112858255</v>
+        <v>0.009282456354651294</v>
       </c>
       <c r="S137" t="n">
         <v>0.01448485383952174</v>
@@ -25726,7 +25726,7 @@
         <v>0.01002084872577284</v>
       </c>
       <c r="AB137" t="n">
-        <v>0.01770422085892481</v>
+        <v>0.01770436910071784</v>
       </c>
       <c r="AC137" t="n">
         <v>0.04887072366899624</v>
@@ -25741,16 +25741,16 @@
         <v>0.02675942254484907</v>
       </c>
       <c r="AG137" t="n">
-        <v>0.01786313606106139</v>
+        <v>0.01786298781926835</v>
       </c>
       <c r="AH137" t="n">
-        <v>0.03237496990691601</v>
+        <v>0.03237511814870905</v>
       </c>
       <c r="AI137" t="n">
-        <v>0.043974593728542</v>
+        <v>0.04397444548674896</v>
       </c>
       <c r="AJ137" t="n">
-        <v>0.0148923705285828</v>
+        <v>0.01489251877037583</v>
       </c>
       <c r="AK137" t="n">
         <v>0.01382636379484759</v>
@@ -25762,10 +25762,10 @@
         <v>0.0001274879420125543</v>
       </c>
       <c r="AN137" t="n">
-        <v>0.005599981973797966</v>
+        <v>0.005600130215591004</v>
       </c>
       <c r="AO137" t="n">
-        <v>0.09351714920358579</v>
+        <v>0.09351700096179276</v>
       </c>
       <c r="AP137" t="n">
         <v>0.01296582018626285</v>
@@ -25839,10 +25839,10 @@
         <v>0.01557612227325885</v>
       </c>
       <c r="D138" t="n">
-        <v>0.02067550145047994</v>
+        <v>0.02067564861021609</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03460446479696298</v>
+        <v>0.03460431763722682</v>
       </c>
       <c r="F138" t="n">
         <v>0.02735758359004123</v>
@@ -25857,10 +25857,10 @@
         <v>0.02003005884770689</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02293837671332562</v>
+        <v>0.02293822955358947</v>
       </c>
       <c r="K138" t="n">
-        <v>0.03257174736146272</v>
+        <v>0.03257189452119887</v>
       </c>
       <c r="L138" t="n">
         <v>0.02789339218937928</v>
@@ -25875,13 +25875,13 @@
         <v>0.01363140635997891</v>
       </c>
       <c r="P138" t="n">
-        <v>0.01039845411640365</v>
+        <v>0.01039830695666749</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.02252044306264723</v>
+        <v>0.02252029590291107</v>
       </c>
       <c r="R138" t="n">
-        <v>0.009214554039041773</v>
+        <v>0.009214701198777927</v>
       </c>
       <c r="S138" t="n">
         <v>0.01437912497937924</v>
@@ -25911,7 +25911,7 @@
         <v>0.009947703844562823</v>
       </c>
       <c r="AB138" t="n">
-        <v>0.01757499296944361</v>
+        <v>0.01757514012917976</v>
       </c>
       <c r="AC138" t="n">
         <v>0.04851400305827364</v>
@@ -25926,16 +25926,16 @@
         <v>0.02656409829269689</v>
       </c>
       <c r="AG138" t="n">
-        <v>0.01797924076465965</v>
+        <v>0.01797909360492349</v>
       </c>
       <c r="AH138" t="n">
-        <v>0.03540354216428118</v>
+        <v>0.03540368932401734</v>
       </c>
       <c r="AI138" t="n">
-        <v>0.04508871303954462</v>
+        <v>0.04508856587980846</v>
       </c>
       <c r="AJ138" t="n">
-        <v>0.01478366709406759</v>
+        <v>0.01478381425380375</v>
       </c>
       <c r="AK138" t="n">
         <v>0.01372544143138155</v>
@@ -25947,10 +25947,10 @@
         <v>0.0001265573730927546</v>
       </c>
       <c r="AN138" t="n">
-        <v>0.005559106192967325</v>
+        <v>0.005559253352703479</v>
       </c>
       <c r="AO138" t="n">
-        <v>0.09283454227509247</v>
+        <v>0.09283439511535631</v>
       </c>
       <c r="AP138" t="n">
         <v>0.01287117916300545</v>
@@ -26024,10 +26024,10 @@
         <v>0.01546325182200336</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0205256789762011</v>
+        <v>0.02052582506956235</v>
       </c>
       <c r="E139" t="n">
-        <v>0.03435370780568064</v>
+        <v>0.03435356171231938</v>
       </c>
       <c r="F139" t="n">
         <v>0.0271593402306931</v>
@@ -26042,10 +26042,10 @@
         <v>0.01989367909541328</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02296032484151062</v>
+        <v>0.02296017874814936</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0324257137172024</v>
+        <v>0.03242585981056366</v>
       </c>
       <c r="L139" t="n">
         <v>0.027692727092634</v>
@@ -26060,13 +26060,13 @@
         <v>0.01353262805302254</v>
       </c>
       <c r="P139" t="n">
-        <v>0.01032310299961811</v>
+        <v>0.01032295690625686</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.02235725144625123</v>
+        <v>0.02235710535288998</v>
       </c>
       <c r="R139" t="n">
-        <v>0.009147781908324078</v>
+        <v>0.009147928001685334</v>
       </c>
       <c r="S139" t="n">
         <v>0.01427492842155765</v>
@@ -26096,7 +26096,7 @@
         <v>0.009875619034094977</v>
       </c>
       <c r="AB139" t="n">
-        <v>0.0174476379479259</v>
+        <v>0.01744778404128715</v>
       </c>
       <c r="AC139" t="n">
         <v>0.04816245231147455</v>
@@ -26111,16 +26111,16 @@
         <v>0.02637160482680778</v>
       </c>
       <c r="AG139" t="n">
-        <v>0.01784895641129255</v>
+        <v>0.0178488103179313</v>
       </c>
       <c r="AH139" t="n">
-        <v>0.03957639937717478</v>
+        <v>0.03957654547053604</v>
       </c>
       <c r="AI139" t="n">
-        <v>0.04606615867083091</v>
+        <v>0.04606601257746966</v>
       </c>
       <c r="AJ139" t="n">
-        <v>0.01467653907164681</v>
+        <v>0.01467668516500807</v>
       </c>
       <c r="AK139" t="n">
         <v>0.01362598171086429</v>
@@ -26132,10 +26132,10 @@
         <v>0.000125640290679039</v>
       </c>
       <c r="AN139" t="n">
-        <v>0.005518822814757417</v>
+        <v>0.005518968908118671</v>
       </c>
       <c r="AO139" t="n">
-        <v>0.09216182820063527</v>
+        <v>0.09216168210727402</v>
       </c>
       <c r="AP139" t="n">
         <v>0.01277790974878078</v>
@@ -26209,10 +26209,10 @@
         <v>0.01536621955434584</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0204096314488902</v>
+        <v>0.02040977649122008</v>
       </c>
       <c r="E140" t="n">
-        <v>0.03411221547952662</v>
+        <v>0.03411207043719675</v>
       </c>
       <c r="F140" t="n">
         <v>0.02697555268017195</v>
@@ -26227,10 +26227,10 @@
         <v>0.01982525590180866</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02327972907253117</v>
+        <v>0.0232795840302013</v>
       </c>
       <c r="K140" t="n">
-        <v>0.03236300498118874</v>
+        <v>0.03236315002351861</v>
       </c>
       <c r="L140" t="n">
         <v>0.02751206425839349</v>
@@ -26245,13 +26245,13 @@
         <v>0.01343527101666986</v>
       </c>
       <c r="P140" t="n">
-        <v>0.0102488360715633</v>
+        <v>0.01024869102923343</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.02219640791066669</v>
+        <v>0.02219626286833681</v>
       </c>
       <c r="R140" t="n">
-        <v>0.009081970527688653</v>
+        <v>0.009082115570018532</v>
       </c>
       <c r="S140" t="n">
         <v>0.01417223109478386</v>
@@ -26281,7 +26281,7 @@
         <v>0.009804571415144653</v>
       </c>
       <c r="AB140" t="n">
-        <v>0.01732211537276096</v>
+        <v>0.01732226041509084</v>
       </c>
       <c r="AC140" t="n">
         <v>0.04781595984880208</v>
@@ -26296,16 +26296,16 @@
         <v>0.02618188105107535</v>
       </c>
       <c r="AG140" t="n">
-        <v>0.01772779876943186</v>
+        <v>0.01772765372710199</v>
       </c>
       <c r="AH140" t="n">
-        <v>0.0434746978732008</v>
+        <v>0.04347484291553069</v>
       </c>
       <c r="AI140" t="n">
-        <v>0.04669434751184959</v>
+        <v>0.04669420246951972</v>
       </c>
       <c r="AJ140" t="n">
-        <v>0.01457095245962058</v>
+        <v>0.01457109750195046</v>
       </c>
       <c r="AK140" t="n">
         <v>0.01352795306546239</v>
@@ -26317,10 +26317,10 @@
         <v>0.0001247364036957366</v>
       </c>
       <c r="AN140" t="n">
-        <v>0.005479119053500169</v>
+        <v>0.005479264095830047</v>
       </c>
       <c r="AO140" t="n">
-        <v>0.0914987934653789</v>
+        <v>0.09149864842304903</v>
       </c>
       <c r="AP140" t="n">
         <v>0.01268598234051617</v>
@@ -26394,10 +26394,10 @@
         <v>0.01525646084324337</v>
       </c>
       <c r="D141" t="n">
-        <v>0.02026384836711241</v>
+        <v>0.02026399237342565</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03386855679753</v>
+        <v>0.03386841279121677</v>
       </c>
       <c r="F141" t="n">
         <v>0.02678287016102786</v>
@@ -26412,10 +26412,10 @@
         <v>0.01972252863565539</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02322361012306779</v>
+        <v>0.02322346611675456</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0322170923973307</v>
+        <v>0.03221723640364393</v>
       </c>
       <c r="L141" t="n">
         <v>0.02731554951369068</v>
@@ -26430,13 +26430,13 @@
         <v>0.01333930479512222</v>
       </c>
       <c r="P141" t="n">
-        <v>0.01017563009962357</v>
+        <v>0.01017548609331033</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.02203786213987621</v>
+        <v>0.02203771813356297</v>
       </c>
       <c r="R141" t="n">
-        <v>0.009017099309633734</v>
+        <v>0.009017243315946971</v>
       </c>
       <c r="S141" t="n">
         <v>0.01407100087267826</v>
@@ -26466,7 +26466,7 @@
         <v>0.009734538762179334</v>
       </c>
       <c r="AB141" t="n">
-        <v>0.01719838597724124</v>
+        <v>0.01719852998355448</v>
       </c>
       <c r="AC141" t="n">
         <v>0.04747441727845349</v>
@@ -26481,16 +26481,16 @@
         <v>0.02599486761499624</v>
       </c>
       <c r="AG141" t="n">
-        <v>0.01763818125786635</v>
+        <v>0.01763803725155311</v>
       </c>
       <c r="AH141" t="n">
-        <v>0.04728908115331776</v>
+        <v>0.047289225159631</v>
       </c>
       <c r="AI141" t="n">
-        <v>0.04697399533995571</v>
+        <v>0.04697385133364246</v>
       </c>
       <c r="AJ141" t="n">
-        <v>0.01446687422776615</v>
+        <v>0.01446701823407938</v>
       </c>
       <c r="AK141" t="n">
         <v>0.01343132482928052</v>
@@ -26502,10 +26502,10 @@
         <v>0.0001238454293836242</v>
       </c>
       <c r="AN141" t="n">
-        <v>0.00543998248883231</v>
+        <v>0.005440126495145547</v>
       </c>
       <c r="AO141" t="n">
-        <v>0.09084523065491192</v>
+        <v>0.09084508664859868</v>
       </c>
       <c r="AP141" t="n">
         <v>0.01259536818094105</v>
@@ -26579,10 +26579,10 @@
         <v>0.01514825899329129</v>
       </c>
       <c r="D142" t="n">
-        <v>0.02012013313046623</v>
+        <v>0.02012027611545809</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03362835426705107</v>
+        <v>0.0336282112820592</v>
       </c>
       <c r="F142" t="n">
         <v>0.0265929207272617</v>
@@ -26597,10 +26597,10 @@
         <v>0.01958265254604081</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02305890366829427</v>
+        <v>0.0230587606833024</v>
       </c>
       <c r="K142" t="n">
-        <v>0.03202120295847387</v>
+        <v>0.03202134594346574</v>
       </c>
       <c r="L142" t="n">
         <v>0.02712382400206127</v>
@@ -26615,13 +26615,13 @@
         <v>0.01324469979657525</v>
       </c>
       <c r="P142" t="n">
-        <v>0.01010346251026453</v>
+        <v>0.01010331952527267</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.02188156524526716</v>
+        <v>0.0218814222602753</v>
       </c>
       <c r="R142" t="n">
-        <v>0.008953148250700161</v>
+        <v>0.008953291235692029</v>
       </c>
       <c r="S142" t="n">
         <v>0.01405771246032703</v>
@@ -26651,7 +26651,7 @@
         <v>0.009665499480178062</v>
       </c>
       <c r="AB142" t="n">
-        <v>0.01707641160860833</v>
+        <v>0.01707655459360019</v>
       </c>
       <c r="AC142" t="n">
         <v>0.04713771928357084</v>
@@ -26666,16 +26666,16 @@
         <v>0.02674033825387586</v>
       </c>
       <c r="AG142" t="n">
-        <v>0.01903330420729049</v>
+        <v>0.01903316122229862</v>
       </c>
       <c r="AH142" t="n">
-        <v>0.04717532433643167</v>
+        <v>0.04717546732142354</v>
       </c>
       <c r="AI142" t="n">
-        <v>0.04687877346330097</v>
+        <v>0.04687863047830911</v>
       </c>
       <c r="AJ142" t="n">
-        <v>0.0143662740727745</v>
+        <v>0.01436641705776637</v>
       </c>
       <c r="AK142" t="n">
         <v>0.01333606720637782</v>
@@ -26687,10 +26687,10 @@
         <v>0.0001229670930050169</v>
       </c>
       <c r="AN142" t="n">
-        <v>0.005401401052741301</v>
+        <v>0.005401544037733168</v>
       </c>
       <c r="AO142" t="n">
-        <v>0.09020093823891963</v>
+        <v>0.09020079525392777</v>
       </c>
       <c r="AP142" t="n">
         <v>0.01250603932859395</v>
@@ -26764,10 +26764,10 @@
         <v>0.01504527254249474</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01998270139374178</v>
+        <v>0.01998284337179708</v>
       </c>
       <c r="E143" t="n">
-        <v>0.03339735597107168</v>
+        <v>0.03339721399301639</v>
       </c>
       <c r="F143" t="n">
         <v>0.02644497455895227</v>
@@ -26782,10 +26782,10 @@
         <v>0.01947910523157899</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02292789417296505</v>
+        <v>0.02292775219490975</v>
       </c>
       <c r="K143" t="n">
-        <v>0.03183559736272923</v>
+        <v>0.03183573934078453</v>
       </c>
       <c r="L143" t="n">
         <v>0.02698449116910694</v>
@@ -26800,13 +26800,13 @@
         <v>0.01315142726279655</v>
       </c>
       <c r="P143" t="n">
-        <v>0.01003231136582605</v>
+        <v>0.01003216938777075</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.02172746971537091</v>
+        <v>0.02172732773731561</v>
       </c>
       <c r="R143" t="n">
-        <v>0.008890097910906499</v>
+        <v>0.008890239888961803</v>
       </c>
       <c r="S143" t="n">
         <v>0.01396538745385358</v>
@@ -26836,7 +26836,7 @@
         <v>0.009597432582430329</v>
       </c>
       <c r="AB143" t="n">
-        <v>0.01695615518882939</v>
+        <v>0.0169562971668847</v>
       </c>
       <c r="AC143" t="n">
         <v>0.04680576351396823</v>
@@ -26851,16 +26851,16 @@
         <v>0.02655202601265138</v>
       </c>
       <c r="AG143" t="n">
-        <v>0.01904152886513249</v>
+        <v>0.01904138688707719</v>
       </c>
       <c r="AH143" t="n">
-        <v>0.04797339104078717</v>
+        <v>0.04797353301884247</v>
       </c>
       <c r="AI143" t="n">
-        <v>0.04679057186205071</v>
+        <v>0.04679042988399541</v>
       </c>
       <c r="AJ143" t="n">
-        <v>0.01426524510665533</v>
+        <v>0.01426538708471064</v>
       </c>
       <c r="AK143" t="n">
         <v>0.0133957714959745</v>
@@ -26872,10 +26872,10 @@
         <v>0.0001221011275613196</v>
       </c>
       <c r="AN143" t="n">
-        <v>0.005363363017158616</v>
+        <v>0.00536350499521392</v>
       </c>
       <c r="AO143" t="n">
-        <v>0.08956572036399765</v>
+        <v>0.08956557838594235</v>
       </c>
       <c r="AP143" t="n">
         <v>0.01241796862909681</v>
@@ -26949,10 +26949,10 @@
         <v>0.01497121857598461</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01987905443480936</v>
+        <v>0.01987919542001113</v>
       </c>
       <c r="E144" t="n">
-        <v>0.03323387767249786</v>
+        <v>0.03323373668729609</v>
       </c>
       <c r="F144" t="n">
         <v>0.02632109125929815</v>
@@ -26967,10 +26967,10 @@
         <v>0.01942198041067016</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02284989460651242</v>
+        <v>0.02284975362131065</v>
       </c>
       <c r="K144" t="n">
-        <v>0.03166344350997886</v>
+        <v>0.03166358449518063</v>
       </c>
       <c r="L144" t="n">
         <v>0.02680678527939672</v>
@@ -26985,13 +26985,13 @@
         <v>0.01316477518570218</v>
       </c>
       <c r="P144" t="n">
-        <v>0.01006859916962536</v>
+        <v>0.01006845818442359</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.02177460047261059</v>
+        <v>0.02177445948740882</v>
       </c>
       <c r="R144" t="n">
-        <v>0.009750959510036948</v>
+        <v>0.009751100495238718</v>
       </c>
       <c r="S144" t="n">
         <v>0.01422258715458449</v>
@@ -27021,7 +27021,7 @@
         <v>0.01034619903191101</v>
       </c>
       <c r="AB144" t="n">
-        <v>0.01713520043795643</v>
+        <v>0.0171353414231582</v>
       </c>
       <c r="AC144" t="n">
         <v>0.04657728110884297</v>
@@ -27036,16 +27036,16 @@
         <v>0.02739511652638404</v>
       </c>
       <c r="AG144" t="n">
-        <v>0.0192316503882803</v>
+        <v>0.01923150940307853</v>
       </c>
       <c r="AH144" t="n">
-        <v>0.04771573661313788</v>
+        <v>0.04771587759833965</v>
       </c>
       <c r="AI144" t="n">
-        <v>0.0464633650658126</v>
+        <v>0.04646322408061083</v>
       </c>
       <c r="AJ144" t="n">
-        <v>0.01426798438955452</v>
+        <v>0.01426812537475629</v>
       </c>
       <c r="AK144" t="n">
         <v>0.01331915398164062</v>
@@ -27057,10 +27057,10 @@
         <v>0.0001212472735224293</v>
       </c>
       <c r="AN144" t="n">
-        <v>0.00532585698207359</v>
+        <v>0.005325997967275361</v>
       </c>
       <c r="AO144" t="n">
-        <v>0.08893938665515852</v>
+        <v>0.08893924566995674</v>
       </c>
       <c r="AP144" t="n">
         <v>0.0123311296876346</v>
@@ -27152,10 +27152,10 @@
         <v>0.01928710554670717</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02269121478285608</v>
+        <v>0.02269107477671821</v>
       </c>
       <c r="K145" t="n">
-        <v>0.03144355848560401</v>
+        <v>0.03144369849174188</v>
       </c>
       <c r="L145" t="n">
         <v>0.0266206270482898</v>
@@ -27170,13 +27170,13 @@
         <v>0.01307335313580147</v>
       </c>
       <c r="P145" t="n">
-        <v>0.009998818348196385</v>
+        <v>0.009998678342058516</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.02167617028330522</v>
+        <v>0.02167603027716735</v>
       </c>
       <c r="R145" t="n">
-        <v>0.009740647029965794</v>
+        <v>0.009740787036103662</v>
       </c>
       <c r="S145" t="n">
         <v>0.01413991989408816</v>
@@ -27206,7 +27206,7 @@
         <v>0.01027435042752274</v>
       </c>
       <c r="AB145" t="n">
-        <v>0.01701620599047062</v>
+        <v>0.01701634599660849</v>
       </c>
       <c r="AC145" t="n">
         <v>0.04775679365783396</v>
@@ -27221,16 +27221,16 @@
         <v>0.02720487266161748</v>
       </c>
       <c r="AG145" t="n">
-        <v>0.0190980972605839</v>
+        <v>0.01909795725444604</v>
       </c>
       <c r="AH145" t="n">
-        <v>0.04738437733110219</v>
+        <v>0.04738451733724006</v>
       </c>
       <c r="AI145" t="n">
-        <v>0.04614070280841112</v>
+        <v>0.04614056280227325</v>
       </c>
       <c r="AJ145" t="n">
-        <v>0.01416890116462706</v>
+        <v>0.01416904117076493</v>
       </c>
       <c r="AK145" t="n">
         <v>0.01322665985676812</v>
@@ -27242,10 +27242,10 @@
         <v>0.0001204052785674124</v>
       </c>
       <c r="AN145" t="n">
-        <v>0.005288871864142524</v>
+        <v>0.005289011870280393</v>
       </c>
       <c r="AO145" t="n">
-        <v>0.08896172008180839</v>
+        <v>0.08896158007567052</v>
       </c>
       <c r="AP145" t="n">
         <v>0.01555874209525346</v>
@@ -27337,10 +27337,10 @@
         <v>0.0191540910256954</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02253472364642259</v>
+        <v>0.02253458460584429</v>
       </c>
       <c r="K146" t="n">
-        <v>0.03122670635811708</v>
+        <v>0.03122684539869538</v>
       </c>
       <c r="L146" t="n">
         <v>0.02643703651692228</v>
@@ -27355,13 +27355,13 @@
         <v>0.0129831920796925</v>
       </c>
       <c r="P146" t="n">
-        <v>0.009932919873000335</v>
+        <v>0.009932780832422038</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.02166071457124405</v>
+        <v>0.02166057553066575</v>
       </c>
       <c r="R146" t="n">
-        <v>0.009858950285346026</v>
+        <v>0.009859089325924324</v>
       </c>
       <c r="S146" t="n">
         <v>0.01404546209788596</v>
@@ -27391,7 +27391,7 @@
         <v>0.01020349283836741</v>
       </c>
       <c r="AB146" t="n">
-        <v>0.01689885284570876</v>
+        <v>0.01689899188628705</v>
       </c>
       <c r="AC146" t="n">
         <v>0.04913874789788026</v>
@@ -27406,16 +27406,16 @@
         <v>0.02702781993410867</v>
       </c>
       <c r="AG146" t="n">
-        <v>0.01896638624499367</v>
+        <v>0.01896624720441537</v>
       </c>
       <c r="AH146" t="n">
-        <v>0.04705758852192218</v>
+        <v>0.04705772756250048</v>
       </c>
       <c r="AI146" t="n">
-        <v>0.04582249106490484</v>
+        <v>0.04582235202432654</v>
       </c>
       <c r="AJ146" t="n">
-        <v>0.01407118460487101</v>
+        <v>0.01407132364544931</v>
       </c>
       <c r="AK146" t="n">
         <v>0.01313544151292834</v>
@@ -27427,10 +27427,10 @@
         <v>0.000119574897335913</v>
       </c>
       <c r="AN146" t="n">
-        <v>0.005252396885769128</v>
+        <v>0.005252535926347425</v>
       </c>
       <c r="AO146" t="n">
-        <v>0.08864420836899145</v>
+        <v>0.08864406932841315</v>
       </c>
       <c r="AP146" t="n">
         <v>0.01911474254203718</v>
@@ -27522,10 +27522,10 @@
         <v>0.01902289862140981</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02238037622418682</v>
+        <v>0.02238023813594125</v>
       </c>
       <c r="K147" t="n">
-        <v>0.03101282480771902</v>
+        <v>0.03101296289596459</v>
       </c>
       <c r="L147" t="n">
         <v>0.02625596092434062</v>
@@ -27540,13 +27540,13 @@
         <v>0.01289426610654392</v>
       </c>
       <c r="P147" t="n">
-        <v>0.00986488617524006</v>
+        <v>0.009864748086994489</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.02159741587180771</v>
+        <v>0.02159727778356214</v>
       </c>
       <c r="R147" t="n">
-        <v>0.009828983231391988</v>
+        <v>0.009829121319637557</v>
       </c>
       <c r="S147" t="n">
         <v>0.01395008883216838</v>
@@ -27576,7 +27576,7 @@
         <v>0.01013360590111832</v>
       </c>
       <c r="AB147" t="n">
-        <v>0.01678310727827239</v>
+        <v>0.01678324536651796</v>
       </c>
       <c r="AC147" t="n">
         <v>0.05096105276269011</v>
@@ -27591,16 +27591,16 @@
         <v>0.02684269787976546</v>
       </c>
       <c r="AG147" t="n">
-        <v>0.01883647948989097</v>
+        <v>0.0188363414016454</v>
       </c>
       <c r="AH147" t="n">
-        <v>0.04673527627177203</v>
+        <v>0.0467354143600176</v>
       </c>
       <c r="AI147" t="n">
-        <v>0.04550863838637809</v>
+        <v>0.04550850029813252</v>
       </c>
       <c r="AJ147" t="n">
-        <v>0.01397480662812532</v>
+        <v>0.01397494471637089</v>
       </c>
       <c r="AK147" t="n">
         <v>0.01304547273544253</v>
@@ -27612,10 +27612,10 @@
         <v>0.0001187558911897766</v>
       </c>
       <c r="AN147" t="n">
-        <v>0.005216421564633722</v>
+        <v>0.005216559652879292</v>
       </c>
       <c r="AO147" t="n">
-        <v>0.08840699466675578</v>
+        <v>0.0884068565785102</v>
       </c>
       <c r="AP147" t="n">
         <v>0.02270861198390554</v>
@@ -27707,10 +27707,10 @@
         <v>0.01889349114779477</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02222812876687942</v>
+        <v>0.02222799161800968</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0308018532103876</v>
+        <v>0.03080199035925735</v>
       </c>
       <c r="L148" t="n">
         <v>0.02607734894526348</v>
@@ -27725,13 +27725,13 @@
         <v>0.01280696145719028</v>
       </c>
       <c r="P148" t="n">
-        <v>0.009798875296978734</v>
+        <v>0.009798738148108985</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.02145474629036308</v>
+        <v>0.02145460914149333</v>
       </c>
       <c r="R148" t="n">
-        <v>0.009764862377280905</v>
+        <v>0.009764999526150654</v>
       </c>
       <c r="S148" t="n">
         <v>0.01385573886416323</v>
@@ -27761,7 +27761,7 @@
         <v>0.01006494410429239</v>
       </c>
       <c r="AB148" t="n">
-        <v>0.01667126801124676</v>
+        <v>0.0166714051601165</v>
       </c>
       <c r="AC148" t="n">
         <v>0.05182389481669162</v>
@@ -27776,16 +27776,16 @@
         <v>0.02666009449282828</v>
       </c>
       <c r="AG148" t="n">
-        <v>0.01870834017363321</v>
+        <v>0.01870820302476346</v>
       </c>
       <c r="AH148" t="n">
-        <v>0.04641734922230419</v>
+        <v>0.04641748637117394</v>
       </c>
       <c r="AI148" t="n">
-        <v>0.0451990558123211</v>
+        <v>0.04519891866345135</v>
       </c>
       <c r="AJ148" t="n">
-        <v>0.01387973991636936</v>
+        <v>0.01387987706523911</v>
       </c>
       <c r="AK148" t="n">
         <v>0.01295672802295653</v>
@@ -27797,10 +27797,10 @@
         <v>0.000117948027984404</v>
       </c>
       <c r="AN148" t="n">
-        <v>0.005180935703649819</v>
+        <v>0.005181072852519569</v>
       </c>
       <c r="AO148" t="n">
-        <v>0.089448492850498</v>
+        <v>0.08944835570162825</v>
       </c>
       <c r="AP148" t="n">
         <v>0.02539311323408418</v>
@@ -27892,10 +27892,10 @@
         <v>0.01876583242382319</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02207793870764375</v>
+        <v>0.02207780248545556</v>
       </c>
       <c r="K149" t="n">
-        <v>0.03059373258058768</v>
+        <v>0.03059386880277588</v>
       </c>
       <c r="L149" t="n">
         <v>0.02590115064157926</v>
@@ -27910,13 +27910,13 @@
         <v>0.01272042793383089</v>
       </c>
       <c r="P149" t="n">
-        <v>0.009732666680107256</v>
+        <v>0.009732530457919058</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.0213709455509016</v>
+        <v>0.0213708093287134</v>
       </c>
       <c r="R149" t="n">
-        <v>0.01003099327225857</v>
+        <v>0.01003112949444677</v>
       </c>
       <c r="S149" t="n">
         <v>0.01422513822465436</v>
@@ -27946,7 +27946,7 @@
         <v>0.009996937725209333</v>
       </c>
       <c r="AB149" t="n">
-        <v>0.01655862430846806</v>
+        <v>0.01655876053065626</v>
       </c>
       <c r="AC149" t="n">
         <v>0.05197039946339355</v>
@@ -27961,16 +27961,16 @@
         <v>0.02648132094111006</v>
       </c>
       <c r="AG149" t="n">
-        <v>0.01858193246975731</v>
+        <v>0.01858179624756912</v>
       </c>
       <c r="AH149" t="n">
-        <v>0.04610371848431565</v>
+        <v>0.04610385470650385</v>
       </c>
       <c r="AI149" t="n">
-        <v>0.04489365678656217</v>
+        <v>0.04489352056437398</v>
       </c>
       <c r="AJ149" t="n">
-        <v>0.01378595788990741</v>
+        <v>0.0137860941120956</v>
       </c>
       <c r="AK149" t="n">
         <v>0.01286918256334195</v>
@@ -27982,10 +27982,10 @@
         <v>0.0001171510818493742</v>
       </c>
       <c r="AN149" t="n">
-        <v>0.005145929381327861</v>
+        <v>0.005146065603516058</v>
       </c>
       <c r="AO149" t="n">
-        <v>0.09028602300411337</v>
+        <v>0.09028588678192517</v>
       </c>
       <c r="AP149" t="n">
         <v>0.02788972214487829</v>
@@ -28077,10 +28077,10 @@
         <v>0.01863988723977069</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02192976462235756</v>
+        <v>0.02192962931441223</v>
       </c>
       <c r="K150" t="n">
-        <v>0.03038840551628844</v>
+        <v>0.03038854082423376</v>
       </c>
       <c r="L150" t="n">
         <v>0.02572731741579685</v>
@@ -28095,13 +28095,13 @@
         <v>0.01263505593427498</v>
       </c>
       <c r="P150" t="n">
-        <v>0.009667346769502509</v>
+        <v>0.009667211461557187</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.02138487952654126</v>
+        <v>0.02138474421859594</v>
       </c>
       <c r="R150" t="n">
-        <v>0.01042033548522579</v>
+        <v>0.01042047079317112</v>
       </c>
       <c r="S150" t="n">
         <v>0.01435103129686306</v>
@@ -28131,7 +28131,7 @@
         <v>0.009929844183429404</v>
       </c>
       <c r="AB150" t="n">
-        <v>0.01644749260169982</v>
+        <v>0.01644762790964514</v>
       </c>
       <c r="AC150" t="n">
         <v>0.05225714625530525</v>
@@ -28146,16 +28146,16 @@
         <v>0.02747671384087975</v>
       </c>
       <c r="AG150" t="n">
-        <v>0.01847657054976565</v>
+        <v>0.01847643524182033</v>
       </c>
       <c r="AH150" t="n">
-        <v>0.04579429755489071</v>
+        <v>0.04579443286283603</v>
       </c>
       <c r="AI150" t="n">
-        <v>0.04459235707658524</v>
+        <v>0.04459222176863992</v>
       </c>
       <c r="AJ150" t="n">
-        <v>0.01369343468259259</v>
+        <v>0.01369356999053791</v>
       </c>
       <c r="AK150" t="n">
         <v>0.01278281221056785</v>
@@ -28167,10 +28167,10 @@
         <v>0.0001163648329779019</v>
       </c>
       <c r="AN150" t="n">
-        <v>0.005111392942527003</v>
+        <v>0.005111528250472327</v>
       </c>
       <c r="AO150" t="n">
-        <v>0.09178844494502371</v>
+        <v>0.09178830963707839</v>
       </c>
       <c r="AP150" t="n">
         <v>0.02811834411760209</v>
@@ -28262,10 +28262,10 @@
         <v>0.01851562132483888</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02178356619154184</v>
+        <v>0.02178343178564948</v>
       </c>
       <c r="K151" t="n">
-        <v>0.03018581614617985</v>
+        <v>0.0301859505520722</v>
       </c>
       <c r="L151" t="n">
         <v>0.0255558019663582</v>
@@ -28280,13 +28280,13 @@
         <v>0.01255082222804648</v>
       </c>
       <c r="P151" t="n">
-        <v>0.009602897791039159</v>
+        <v>0.009602763385146805</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.02129016216070912</v>
+        <v>0.02129002775481677</v>
       </c>
       <c r="R151" t="n">
-        <v>0.01040301606822443</v>
+        <v>0.01040315047411679</v>
       </c>
       <c r="S151" t="n">
         <v>0.01425535775488397</v>
@@ -28316,7 +28316,7 @@
         <v>0.009863645222206542</v>
       </c>
       <c r="AB151" t="n">
-        <v>0.01633784265102182</v>
+        <v>0.01633797705691417</v>
       </c>
       <c r="AC151" t="n">
         <v>0.05249585021807356</v>
@@ -28331,16 +28331,16 @@
         <v>0.02729353574860722</v>
       </c>
       <c r="AG151" t="n">
-        <v>0.01835339341276722</v>
+        <v>0.01835325900687486</v>
       </c>
       <c r="AH151" t="n">
-        <v>0.04548900223785811</v>
+        <v>0.04548913664375046</v>
       </c>
       <c r="AI151" t="n">
-        <v>0.04429507469607467</v>
+        <v>0.04429494029018232</v>
       </c>
       <c r="AJ151" t="n">
-        <v>0.01360214511804198</v>
+        <v>0.01360227952393433</v>
       </c>
       <c r="AK151" t="n">
         <v>0.0126975934624974</v>
@@ -28352,10 +28352,10 @@
         <v>0.0001155890674247159</v>
       </c>
       <c r="AN151" t="n">
-        <v>0.005077316989576823</v>
+        <v>0.005077451395469178</v>
       </c>
       <c r="AO151" t="n">
-        <v>0.09395186924994792</v>
+        <v>0.09395173484405556</v>
       </c>
       <c r="AP151" t="n">
         <v>0.03087787208591225</v>
@@ -28447,10 +28447,10 @@
         <v>0.01839887601069782</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02164691456364838</v>
+        <v>0.02164678104786127</v>
       </c>
       <c r="K152" t="n">
-        <v>0.02998617711056082</v>
+        <v>0.02998631062634793</v>
       </c>
       <c r="L152" t="n">
         <v>0.02538655824472669</v>
@@ -28465,13 +28465,13 @@
         <v>0.01246770420004617</v>
       </c>
       <c r="P152" t="n">
-        <v>0.009658665555103235</v>
+        <v>0.009658532039316126</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.02125331002325712</v>
+        <v>0.02125317650747001</v>
       </c>
       <c r="R152" t="n">
-        <v>0.01045855863566092</v>
+        <v>0.01045869215144802</v>
       </c>
       <c r="S152" t="n">
         <v>0.0141609514121364</v>
@@ -28501,7 +28501,7 @@
         <v>0.009798323068417094</v>
       </c>
       <c r="AB152" t="n">
-        <v>0.01626449263800626</v>
+        <v>0.01626462615379336</v>
       </c>
       <c r="AC152" t="n">
         <v>0.0527333952757575</v>
@@ -28516,16 +28516,16 @@
         <v>0.02711278385623234</v>
       </c>
       <c r="AG152" t="n">
-        <v>0.01823184776102704</v>
+        <v>0.01823171424523993</v>
       </c>
       <c r="AH152" t="n">
-        <v>0.04518775056740872</v>
+        <v>0.04518788408319582</v>
       </c>
       <c r="AI152" t="n">
-        <v>0.04400172983053776</v>
+        <v>0.04400159631475065</v>
       </c>
       <c r="AJ152" t="n">
-        <v>0.01351206468679666</v>
+        <v>0.01351219820258377</v>
       </c>
       <c r="AK152" t="n">
         <v>0.01261350343956695</v>
@@ -28537,10 +28537,10 @@
         <v>0.0001148235769119694</v>
       </c>
       <c r="AN152" t="n">
-        <v>0.005043692373751811</v>
+        <v>0.005043825889538918</v>
       </c>
       <c r="AO152" t="n">
-        <v>0.09597194886719199</v>
+        <v>0.09597181535140488</v>
       </c>
       <c r="AP152" t="n">
         <v>0.03297706425754341</v>
@@ -28632,10 +28632,10 @@
         <v>0.01828605429219912</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02150516383901428</v>
+        <v>0.02150503120162051</v>
       </c>
       <c r="K153" t="n">
-        <v>0.02978889962957029</v>
+        <v>0.02978903226696406</v>
       </c>
       <c r="L153" t="n">
         <v>0.02521954141416928</v>
@@ -28650,13 +28650,13 @@
         <v>0.01238567983030902</v>
       </c>
       <c r="P153" t="n">
-        <v>0.009595121702767028</v>
+        <v>0.009594989065373257</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.02120036310812919</v>
+        <v>0.02120023047073542</v>
       </c>
       <c r="R153" t="n">
-        <v>0.01076365714188699</v>
+        <v>0.01076378977928077</v>
       </c>
       <c r="S153" t="n">
         <v>0.01407972462354855</v>
@@ -28686,7 +28686,7 @@
         <v>0.009733860416651193</v>
       </c>
       <c r="AB153" t="n">
-        <v>0.01615748939696674</v>
+        <v>0.01615762203436051</v>
       </c>
       <c r="AC153" t="n">
         <v>0.05313122400970269</v>
@@ -28701,16 +28701,16 @@
         <v>0.02693441027823081</v>
       </c>
       <c r="AG153" t="n">
-        <v>0.01811190139417817</v>
+        <v>0.0181117687567844</v>
       </c>
       <c r="AH153" t="n">
-        <v>0.0448904627347284</v>
+        <v>0.04489059537212216</v>
       </c>
       <c r="AI153" t="n">
-        <v>0.04371224476586317</v>
+        <v>0.0437121121284694</v>
       </c>
       <c r="AJ153" t="n">
-        <v>0.01342316952438353</v>
+        <v>0.0134233021617773</v>
       </c>
       <c r="AK153" t="n">
         <v>0.01253051986430664</v>
@@ -28722,10 +28722,10 @@
         <v>0.0001140681586428117</v>
       </c>
       <c r="AN153" t="n">
-        <v>0.005010510187082391</v>
+        <v>0.005010642824476162</v>
       </c>
       <c r="AO153" t="n">
-        <v>0.09803388938465799</v>
+        <v>0.09803375674726422</v>
       </c>
       <c r="AP153" t="n">
         <v>0.03420055198377792</v>
@@ -28817,10 +28817,10 @@
         <v>0.01817062248244257</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02141573415990322</v>
+        <v>0.02141560238942052</v>
       </c>
       <c r="K154" t="n">
-        <v>0.02963452270688724</v>
+        <v>0.02963465447736994</v>
       </c>
       <c r="L154" t="n">
         <v>0.02508501502117617</v>
@@ -28835,13 +28835,13 @@
         <v>0.01230657246131318</v>
       </c>
       <c r="P154" t="n">
-        <v>0.01000625514481378</v>
+        <v>0.01000612337433108</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.02146448923850233</v>
+        <v>0.02146435746801963</v>
       </c>
       <c r="R154" t="n">
-        <v>0.01099743271568555</v>
+        <v>0.01099756448616825</v>
       </c>
       <c r="S154" t="n">
         <v>0.01414332121967286</v>
@@ -28871,7 +28871,7 @@
         <v>0.009670240413927982</v>
       </c>
       <c r="AB154" t="n">
-        <v>0.01701473180819541</v>
+        <v>0.01701486357867811</v>
       </c>
       <c r="AC154" t="n">
         <v>0.05363598904881872</v>
@@ -28886,16 +28886,16 @@
         <v>0.02676074024967608</v>
       </c>
       <c r="AG154" t="n">
-        <v>0.01799352295369335</v>
+        <v>0.01799339118321065</v>
       </c>
       <c r="AH154" t="n">
-        <v>0.04459706101750795</v>
+        <v>0.04459719278799065</v>
       </c>
       <c r="AI154" t="n">
-        <v>0.04342654381968106</v>
+        <v>0.04342641204919835</v>
       </c>
       <c r="AJ154" t="n">
-        <v>0.01333543639023723</v>
+        <v>0.01333556816071993</v>
       </c>
       <c r="AK154" t="n">
         <v>0.01244862104166411</v>
@@ -28907,10 +28907,10 @@
         <v>0.0001133226151222705</v>
       </c>
       <c r="AN154" t="n">
-        <v>0.004977761754487081</v>
+        <v>0.004977893524969782</v>
       </c>
       <c r="AO154" t="n">
-        <v>0.09739314500959487</v>
+        <v>0.09739301323911216</v>
       </c>
       <c r="AP154" t="n">
         <v>0.0339770189642761</v>
@@ -29002,10 +29002,10 @@
         <v>0.01819768505924027</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02135430344539032</v>
+        <v>0.0213541725305601</v>
       </c>
       <c r="K155" t="n">
-        <v>0.02962785888533353</v>
+        <v>0.02962798980016375</v>
       </c>
       <c r="L155" t="n">
         <v>0.02502253698802155</v>
@@ -29020,13 +29020,13 @@
         <v>0.01222823063108541</v>
       </c>
       <c r="P155" t="n">
-        <v>0.01020926211950586</v>
+        <v>0.01020913120467565</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.02188346118912035</v>
+        <v>0.02188333027429014</v>
       </c>
       <c r="R155" t="n">
-        <v>0.01131077950093696</v>
+        <v>0.01131091041576717</v>
       </c>
       <c r="S155" t="n">
         <v>0.01450405403954728</v>
@@ -29056,7 +29056,7 @@
         <v>0.009609017622968955</v>
       </c>
       <c r="AB155" t="n">
-        <v>0.01737527809582809</v>
+        <v>0.0173754090106583</v>
       </c>
       <c r="AC155" t="n">
         <v>0.05333286902206884</v>
@@ -29071,16 +29071,16 @@
         <v>0.02658696920909376</v>
       </c>
       <c r="AG155" t="n">
-        <v>0.01787668189555248</v>
+        <v>0.01787655098072227</v>
       </c>
       <c r="AH155" t="n">
-        <v>0.04430746971219945</v>
+        <v>0.04430760062702967</v>
       </c>
       <c r="AI155" t="n">
-        <v>0.04314455327539741</v>
+        <v>0.0431444223605672</v>
       </c>
       <c r="AJ155" t="n">
-        <v>0.01324884264744348</v>
+        <v>0.0132489735622737</v>
       </c>
       <c r="AK155" t="n">
         <v>0.01236778584009487</v>
@@ -29092,10 +29092,10 @@
         <v>0.0001125867539851129</v>
       </c>
       <c r="AN155" t="n">
-        <v>0.004945438626211191</v>
+        <v>0.004945569541041406</v>
       </c>
       <c r="AO155" t="n">
-        <v>0.09676072199005205</v>
+        <v>0.09676059107522182</v>
       </c>
       <c r="AP155" t="n">
         <v>0.03455339845735201</v>
@@ -29187,10 +29187,10 @@
         <v>0.01822036626472801</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02135831028380671</v>
+        <v>0.0213581802135883</v>
       </c>
       <c r="K156" t="n">
-        <v>0.02966173288649878</v>
+        <v>0.02966186295671719</v>
       </c>
       <c r="L156" t="n">
         <v>0.02506088912099197</v>
@@ -29205,13 +29205,13 @@
         <v>0.01215155001427521</v>
       </c>
       <c r="P156" t="n">
-        <v>0.01014339591228325</v>
+        <v>0.01014326584206484</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.02174227756854538</v>
+        <v>0.02174214749832697</v>
       </c>
       <c r="R156" t="n">
-        <v>0.01135734126067958</v>
+        <v>0.01135747133089799</v>
       </c>
       <c r="S156" t="n">
         <v>0.01495482336139165</v>
@@ -29241,7 +29241,7 @@
         <v>0.009547023960885285</v>
       </c>
       <c r="AB156" t="n">
-        <v>0.0172631795274679</v>
+        <v>0.01726330959768631</v>
       </c>
       <c r="AC156" t="n">
         <v>0.05298878599612</v>
@@ -29256,16 +29256,16 @@
         <v>0.02679212372799456</v>
       </c>
       <c r="AG156" t="n">
-        <v>0.01776134846396827</v>
+        <v>0.01776121839374986</v>
       </c>
       <c r="AH156" t="n">
-        <v>0.04402161506889495</v>
+        <v>0.04402174513911335</v>
       </c>
       <c r="AI156" t="n">
-        <v>0.04286620131878194</v>
+        <v>0.04286607124856354</v>
       </c>
       <c r="AJ156" t="n">
-        <v>0.01316336624326643</v>
+        <v>0.01316349631348484</v>
       </c>
       <c r="AK156" t="n">
         <v>0.01228799367338458</v>
@@ -29277,10 +29277,10 @@
         <v>0.0001118603878303702</v>
       </c>
       <c r="AN156" t="n">
-        <v>0.004913532570558216</v>
+        <v>0.004913662640776624</v>
       </c>
       <c r="AO156" t="n">
-        <v>0.09613645926753558</v>
+        <v>0.09613632919731717</v>
       </c>
       <c r="AP156" t="n">
         <v>0.03433047330601425</v>
@@ -29372,10 +29372,10 @@
         <v>0.01826537306164733</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02143321655529071</v>
+        <v>0.02143308731885575</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0296483890161437</v>
+        <v>0.02964851825257865</v>
       </c>
       <c r="L157" t="n">
         <v>0.02517228509143995</v>
@@ -29390,13 +29390,13 @@
         <v>0.01207365546290165</v>
       </c>
       <c r="P157" t="n">
-        <v>0.01007837414361476</v>
+        <v>0.01007824490717981</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.02187274967057633</v>
+        <v>0.02187262043414137</v>
       </c>
       <c r="R157" t="n">
-        <v>0.01152879465312682</v>
+        <v>0.01152892388956178</v>
       </c>
       <c r="S157" t="n">
         <v>0.01524111124724016</v>
@@ -29426,7 +29426,7 @@
         <v>0.009485825089341147</v>
       </c>
       <c r="AB157" t="n">
-        <v>0.01715251812024055</v>
+        <v>0.0171526473566755</v>
       </c>
       <c r="AC157" t="n">
         <v>0.0526551884034596</v>
@@ -29441,16 +29441,16 @@
         <v>0.02662141323660245</v>
       </c>
       <c r="AG157" t="n">
-        <v>0.01765124152273605</v>
+        <v>0.01765111228630109</v>
       </c>
       <c r="AH157" t="n">
-        <v>0.04373942522870972</v>
+        <v>0.04373955446514467</v>
       </c>
       <c r="AI157" t="n">
-        <v>0.04259141797699488</v>
+        <v>0.04259128874055992</v>
       </c>
       <c r="AJ157" t="n">
-        <v>0.01307898569042498</v>
+        <v>0.01307911492685993</v>
       </c>
       <c r="AK157" t="n">
         <v>0.01220922448317057</v>
@@ -29462,10 +29462,10 @@
         <v>0.0001111433340622268</v>
       </c>
       <c r="AN157" t="n">
-        <v>0.004882035566900792</v>
+        <v>0.004882164803335747</v>
       </c>
       <c r="AO157" t="n">
-        <v>0.0955201999132565</v>
+        <v>0.09552007067682154</v>
       </c>
       <c r="AP157" t="n">
         <v>0.03411040616943724</v>
@@ -29557,10 +29557,10 @@
         <v>0.01820476446630095</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02132353762643732</v>
+        <v>0.02132340921316436</v>
       </c>
       <c r="K158" t="n">
-        <v>0.02947251551457061</v>
+        <v>0.02947264392784356</v>
       </c>
       <c r="L158" t="n">
         <v>0.02503236977577887</v>
@@ -29575,13 +29575,13 @@
         <v>0.01199675319880673</v>
       </c>
       <c r="P158" t="n">
-        <v>0.01003832237304646</v>
+        <v>0.01003819395977351</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.0220050268659829</v>
+        <v>0.02200489845270995</v>
       </c>
       <c r="R158" t="n">
-        <v>0.01162820710544027</v>
+        <v>0.01162833551871322</v>
       </c>
       <c r="S158" t="n">
         <v>0.01543489016876971</v>
@@ -29611,7 +29611,7 @@
         <v>0.009425405821256172</v>
       </c>
       <c r="AB158" t="n">
-        <v>0.01704326641246831</v>
+        <v>0.01704339482574126</v>
       </c>
       <c r="AC158" t="n">
         <v>0.05280623451576703</v>
@@ -29626,16 +29626,16 @@
         <v>0.02645185009496804</v>
       </c>
       <c r="AG158" t="n">
-        <v>0.01753881323278231</v>
+        <v>0.01753868481950937</v>
       </c>
       <c r="AH158" t="n">
-        <v>0.0434608301635587</v>
+        <v>0.04346095857683165</v>
       </c>
       <c r="AI158" t="n">
-        <v>0.04232013505994396</v>
+        <v>0.04232000664667101</v>
       </c>
       <c r="AJ158" t="n">
-        <v>0.01299568004908469</v>
+        <v>0.01299580846235764</v>
       </c>
       <c r="AK158" t="n">
         <v>0.01213145872213127</v>
@@ -29647,10 +29647,10 @@
         <v>0.0001104354147369897</v>
       </c>
       <c r="AN158" t="n">
-        <v>0.004850939798958748</v>
+        <v>0.004851068212231698</v>
       </c>
       <c r="AO158" t="n">
-        <v>0.09653686096579366</v>
+        <v>0.09653673255252071</v>
       </c>
       <c r="AP158" t="n">
         <v>0.03389314243587394</v>
@@ -29742,10 +29742,10 @@
         <v>0.01817605759785876</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02122571028197421</v>
+        <v>0.02122558268144349</v>
       </c>
       <c r="K159" t="n">
-        <v>0.02934416644825709</v>
+        <v>0.02934429404878781</v>
       </c>
       <c r="L159" t="n">
         <v>0.02505155699443585</v>
@@ -29760,13 +29760,13 @@
         <v>0.01192082438109276</v>
       </c>
       <c r="P159" t="n">
-        <v>0.009974788687141108</v>
+        <v>0.009974661086610392</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.0220643009698406</v>
+        <v>0.02206417336930988</v>
       </c>
       <c r="R159" t="n">
-        <v>0.01162083553337915</v>
+        <v>0.01162096313390987</v>
       </c>
       <c r="S159" t="n">
         <v>0.01561409414214036</v>
@@ -29796,7 +29796,7 @@
         <v>0.009365751354033032</v>
       </c>
       <c r="AB159" t="n">
-        <v>0.01693539763770585</v>
+        <v>0.01693552523823657</v>
       </c>
       <c r="AC159" t="n">
         <v>0.05316858913879595</v>
@@ -29811,16 +29811,16 @@
         <v>0.02628609212911438</v>
       </c>
       <c r="AG159" t="n">
-        <v>0.01742780808573939</v>
+        <v>0.01742768048520867</v>
       </c>
       <c r="AH159" t="n">
-        <v>0.04318576161821972</v>
+        <v>0.04318588921875044</v>
       </c>
       <c r="AI159" t="n">
-        <v>0.04205228610386837</v>
+        <v>0.04205215850333765</v>
       </c>
       <c r="AJ159" t="n">
-        <v>0.01291342890953352</v>
+        <v>0.01291355651006424</v>
       </c>
       <c r="AK159" t="n">
         <v>0.01205467733781398</v>
@@ -29832,10 +29832,10 @@
         <v>0.0001097364564158695</v>
       </c>
       <c r="AN159" t="n">
-        <v>0.004820237648332427</v>
+        <v>0.004820365248863143</v>
       </c>
       <c r="AO159" t="n">
-        <v>0.09761057798191594</v>
+        <v>0.09761045038138523</v>
       </c>
       <c r="AP159" t="n">
         <v>0.03367862887615322</v>
@@ -29927,10 +29927,10 @@
         <v>0.01808152326001745</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02115561425458175</v>
+        <v>0.02115548745657009</v>
       </c>
       <c r="K160" t="n">
-        <v>0.02958539966543077</v>
+        <v>0.02958552646344242</v>
       </c>
       <c r="L160" t="n">
         <v>0.02564058672483145</v>
@@ -29945,13 +29945,13 @@
         <v>0.0118458506428469</v>
       </c>
       <c r="P160" t="n">
-        <v>0.009912054167096195</v>
+        <v>0.00991192736908454</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.02192553178135103</v>
+        <v>0.02192540498333937</v>
       </c>
       <c r="R160" t="n">
-        <v>0.01154774851744595</v>
+        <v>0.0115478753154576</v>
       </c>
       <c r="S160" t="n">
         <v>0.01551589229218979</v>
@@ -29981,7 +29981,7 @@
         <v>0.009306847257466786</v>
       </c>
       <c r="AB160" t="n">
-        <v>0.01682888570287751</v>
+        <v>0.01682901250088917</v>
       </c>
       <c r="AC160" t="n">
         <v>0.05283419549641358</v>
@@ -29996,16 +29996,16 @@
         <v>0.02612077079496901</v>
       </c>
       <c r="AG160" t="n">
-        <v>0.01731819922985424</v>
+        <v>0.01731807243184258</v>
       </c>
       <c r="AH160" t="n">
-        <v>0.04291415305458312</v>
+        <v>0.04291427985259477</v>
       </c>
       <c r="AI160" t="n">
-        <v>0.04215780291506093</v>
+        <v>0.04215767611704927</v>
       </c>
       <c r="AJ160" t="n">
-        <v>0.01398759585771184</v>
+        <v>0.01398772265572349</v>
       </c>
       <c r="AK160" t="n">
         <v>0.0130698318493528</v>
@@ -30017,10 +30017,10 @@
         <v>0.0001090462900233169</v>
       </c>
       <c r="AN160" t="n">
-        <v>0.004789921688280021</v>
+        <v>0.004790048486291677</v>
       </c>
       <c r="AO160" t="n">
-        <v>0.09699667497574037</v>
+        <v>0.09699654817772871</v>
       </c>
       <c r="AP160" t="n">
         <v>0.03346681360020257</v>
@@ -30112,10 +30112,10 @@
         <v>0.01811228604262011</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02132404084595069</v>
+        <v>0.0213239148404266</v>
       </c>
       <c r="K161" t="n">
-        <v>0.03026829096187577</v>
+        <v>0.03026841696739985</v>
       </c>
       <c r="L161" t="n">
         <v>0.02597137658514949</v>
@@ -30130,13 +30130,13 @@
         <v>0.01177181407632911</v>
       </c>
       <c r="P161" t="n">
-        <v>0.009850103828551844</v>
+        <v>0.009849977823027762</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.02178849720771759</v>
+        <v>0.02178837120219351</v>
       </c>
       <c r="R161" t="n">
-        <v>0.01147557508921191</v>
+        <v>0.01147570109473599</v>
       </c>
       <c r="S161" t="n">
         <v>0.0154189179653636</v>
@@ -30166,7 +30166,7 @@
         <v>0.009248679462107619</v>
       </c>
       <c r="AB161" t="n">
-        <v>0.01672370516723453</v>
+        <v>0.01672383117275861</v>
       </c>
       <c r="AC161" t="n">
         <v>0.052503981774561</v>
@@ -30181,16 +30181,16 @@
         <v>0.02595751597750045</v>
       </c>
       <c r="AG161" t="n">
-        <v>0.01720996048466765</v>
+        <v>0.01720983447914357</v>
       </c>
       <c r="AH161" t="n">
-        <v>0.04264593959799198</v>
+        <v>0.04264606560351606</v>
       </c>
       <c r="AI161" t="n">
-        <v>0.04258785105139009</v>
+        <v>0.04258772504586601</v>
       </c>
       <c r="AJ161" t="n">
-        <v>0.01406990282453983</v>
+        <v>0.01407002883006391</v>
       </c>
       <c r="AK161" t="n">
         <v>0.0133674220277817</v>
@@ -30202,10 +30202,10 @@
         <v>0.0001083647507106712</v>
       </c>
       <c r="AN161" t="n">
-        <v>0.004759984677728272</v>
+        <v>0.004760110683252354</v>
       </c>
       <c r="AO161" t="n">
-        <v>0.09639044575714199</v>
+        <v>0.09639031975161791</v>
       </c>
       <c r="AP161" t="n">
         <v>0.03325764601520131</v>
@@ -30297,10 +30297,10 @@
         <v>0.01821805085326245</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02165291448116216</v>
+        <v>0.02165278925828108</v>
       </c>
       <c r="K162" t="n">
-        <v>0.03049252287915954</v>
+        <v>0.03049264810204062</v>
       </c>
       <c r="L162" t="n">
         <v>0.02623682326581023</v>
@@ -30315,13 +30315,13 @@
         <v>0.01205007262300988</v>
       </c>
       <c r="P162" t="n">
-        <v>0.009881963660069467</v>
+        <v>0.00988183843718839</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.02179416589101527</v>
+        <v>0.02179404066813419</v>
       </c>
       <c r="R162" t="n">
-        <v>0.01161755279177526</v>
+        <v>0.01161767801465634</v>
       </c>
       <c r="S162" t="n">
         <v>0.01536973120032017</v>
@@ -30351,7 +30351,7 @@
         <v>0.00919261169974909</v>
       </c>
       <c r="AB162" t="n">
-        <v>0.01661983122209643</v>
+        <v>0.0166199564449775</v>
       </c>
       <c r="AC162" t="n">
         <v>0.05217787008652024</v>
@@ -30366,16 +30366,16 @@
         <v>0.02579628917018678</v>
       </c>
       <c r="AG162" t="n">
-        <v>0.01710306632016661</v>
+        <v>0.01710294109728553</v>
       </c>
       <c r="AH162" t="n">
-        <v>0.04238105798558209</v>
+        <v>0.04238118320846317</v>
       </c>
       <c r="AI162" t="n">
-        <v>0.04232570947214673</v>
+        <v>0.04232558424926566</v>
       </c>
       <c r="AJ162" t="n">
-        <v>0.01398251212376629</v>
+        <v>0.01398263734664736</v>
       </c>
       <c r="AK162" t="n">
         <v>0.01328439456177063</v>
@@ -30387,10 +30387,10 @@
         <v>0.0001076916777248906</v>
       </c>
       <c r="AN162" t="n">
-        <v>0.004730419555506357</v>
+        <v>0.004730544778387432</v>
       </c>
       <c r="AO162" t="n">
-        <v>0.09579174733629017</v>
+        <v>0.09579162211340911</v>
       </c>
       <c r="AP162" t="n">
         <v>0.03305107678529322</v>
@@ -30482,10 +30482,10 @@
         <v>0.01831753192948868</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02174737118253042</v>
+        <v>0.02174724673263009</v>
       </c>
       <c r="K163" t="n">
-        <v>0.03081118187332444</v>
+        <v>0.03081130632322477</v>
       </c>
       <c r="L163" t="n">
         <v>0.02658461435838236</v>
@@ -30500,13 +30500,13 @@
         <v>0.01245357707593012</v>
       </c>
       <c r="P163" t="n">
-        <v>0.009891029178274731</v>
+        <v>0.009890904728374403</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.02183025481614892</v>
+        <v>0.02183013036624859</v>
       </c>
       <c r="R163" t="n">
-        <v>0.01159288156526115</v>
+        <v>0.01159300601516148</v>
       </c>
       <c r="S163" t="n">
         <v>0.01531555143377486</v>
@@ -30536,7 +30536,7 @@
         <v>0.009152045670126624</v>
       </c>
       <c r="AB163" t="n">
-        <v>0.01651723967134275</v>
+        <v>0.01651736412124307</v>
       </c>
       <c r="AC163" t="n">
         <v>0.05185578446870222</v>
@@ -30551,16 +30551,16 @@
         <v>0.0256370528172844</v>
       </c>
       <c r="AG163" t="n">
-        <v>0.01699749183670879</v>
+        <v>0.01699736738680846</v>
       </c>
       <c r="AH163" t="n">
-        <v>0.04211944651653528</v>
+        <v>0.04211957096643561</v>
       </c>
       <c r="AI163" t="n">
-        <v>0.04206443966059028</v>
+        <v>0.04206431521068995</v>
       </c>
       <c r="AJ163" t="n">
-        <v>0.01389644922033382</v>
+        <v>0.01389657367023415</v>
       </c>
       <c r="AK163" t="n">
         <v>0.01341333470726023</v>
@@ -30572,10 +30572,10 @@
         <v>0.0001070269142821444</v>
       </c>
       <c r="AN163" t="n">
-        <v>0.004701219434793355</v>
+        <v>0.004701343884693683</v>
       </c>
       <c r="AO163" t="n">
-        <v>0.0952004402539674</v>
+        <v>0.09520031580406707</v>
       </c>
       <c r="AP163" t="n">
         <v>0.03284705779279141</v>
@@ -30667,10 +30667,10 @@
         <v>0.01861777227675624</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02208099158895347</v>
+        <v>0.02208086790254946</v>
       </c>
       <c r="K164" t="n">
-        <v>0.03099445229372107</v>
+        <v>0.03099457598012508</v>
       </c>
       <c r="L164" t="n">
         <v>0.02676351147185213</v>
@@ -30685,13 +30685,13 @@
         <v>0.01237828794021692</v>
       </c>
       <c r="P164" t="n">
-        <v>0.01002923575531514</v>
+        <v>0.01002911206891114</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.02223324955228614</v>
+        <v>0.02223312586588213</v>
       </c>
       <c r="R164" t="n">
-        <v>0.01212708085367861</v>
+        <v>0.01212720454008262</v>
       </c>
       <c r="S164" t="n">
         <v>0.01522678582449914</v>
@@ -30721,7 +30721,7 @@
         <v>0.009095898150677992</v>
       </c>
       <c r="AB164" t="n">
-        <v>0.01641590691262285</v>
+        <v>0.01641603059902686</v>
       </c>
       <c r="AC164" t="n">
         <v>0.0517402491514185</v>
@@ -30736,16 +30736,16 @@
         <v>0.02547977028466302</v>
       </c>
       <c r="AG164" t="n">
-        <v>0.01689321274568603</v>
+        <v>0.01689308905928203</v>
       </c>
       <c r="AH164" t="n">
-        <v>0.0418610450041639</v>
+        <v>0.04186116869056791</v>
       </c>
       <c r="AI164" t="n">
-        <v>0.04180637561359279</v>
+        <v>0.04180625192718878</v>
       </c>
       <c r="AJ164" t="n">
-        <v>0.01381119493063852</v>
+        <v>0.01381131861704253</v>
       </c>
       <c r="AK164" t="n">
         <v>0.01333104431028318</v>
@@ -30757,10 +30757,10 @@
         <v>0.0001063703074460576</v>
       </c>
       <c r="AN164" t="n">
-        <v>0.004672377597770083</v>
+        <v>0.00467250128417409</v>
       </c>
       <c r="AO164" t="n">
-        <v>0.09461638847326821</v>
+        <v>0.0946162647868642</v>
       </c>
       <c r="AP164" t="n">
         <v>0.0326455421008111</v>
@@ -30852,10 +30852,10 @@
         <v>0.01901970406772877</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02254638355540629</v>
+        <v>0.02254626062318767</v>
       </c>
       <c r="K165" t="n">
-        <v>0.03111783249845966</v>
+        <v>0.03111795543067828</v>
       </c>
       <c r="L165" t="n">
         <v>0.02681852401677582</v>
@@ -30870,28 +30870,28 @@
         <v>0.01230785079569108</v>
       </c>
       <c r="P165" t="n">
-        <v>0.009968081878758346</v>
+        <v>0.009967958946539729</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.02212103807899231</v>
+        <v>0.02212091514677369</v>
       </c>
       <c r="R165" t="n">
-        <v>0.01218934413694452</v>
+        <v>0.01218946706916314</v>
       </c>
       <c r="S165" t="n">
         <v>0.01545565318559175</v>
       </c>
       <c r="T165" t="n">
-        <v>0.02573438478079464</v>
+        <v>0.02573426184857603</v>
       </c>
       <c r="U165" t="n">
         <v>0.01966890911424386</v>
       </c>
       <c r="V165" t="n">
-        <v>0.01630757346060588</v>
+        <v>0.0163076963928245</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01925917602959421</v>
+        <v>0.0192590530973756</v>
       </c>
       <c r="X165" t="n">
         <v>0.01323463679184281</v>
@@ -30906,7 +30906,7 @@
         <v>0.009040435357076299</v>
       </c>
       <c r="AB165" t="n">
-        <v>0.0163158099192532</v>
+        <v>0.01631593285147182</v>
       </c>
       <c r="AC165" t="n">
         <v>0.05142475982732449</v>
@@ -30918,19 +30918,19 @@
         <v>0.02187394431957263</v>
       </c>
       <c r="AF165" t="n">
-        <v>0.02559485671266462</v>
+        <v>0.02559497964488324</v>
       </c>
       <c r="AG165" t="n">
-        <v>0.01686359588540947</v>
+        <v>0.01686347295319085</v>
       </c>
       <c r="AH165" t="n">
-        <v>0.04208117361913927</v>
+        <v>0.04208129655135789</v>
       </c>
       <c r="AI165" t="n">
-        <v>0.04156030980886007</v>
+        <v>0.04156018687664145</v>
       </c>
       <c r="AJ165" t="n">
-        <v>0.01372698032740292</v>
+        <v>0.01372710325962154</v>
       </c>
       <c r="AK165" t="n">
         <v>0.01324975745473267</v>
@@ -30942,10 +30942,10 @@
         <v>0.0001057217080104109</v>
       </c>
       <c r="AN165" t="n">
-        <v>0.004643887490466607</v>
+        <v>0.004644010422685223</v>
       </c>
       <c r="AO165" t="n">
-        <v>0.09403945927526049</v>
+        <v>0.09403933634304186</v>
       </c>
       <c r="AP165" t="n">
         <v>0.03244648391726956</v>
@@ -31037,10 +31037,10 @@
         <v>0.01913023503314022</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02274917477836774</v>
+        <v>0.02274905259119287</v>
       </c>
       <c r="K166" t="n">
-        <v>0.03140222612813891</v>
+        <v>0.03140234831531378</v>
       </c>
       <c r="L166" t="n">
         <v>0.0270403883597166</v>
@@ -31055,28 +31055,28 @@
         <v>0.01223325776056568</v>
       </c>
       <c r="P166" t="n">
-        <v>0.009907669261311324</v>
+        <v>0.009907547074136457</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.02198697118154387</v>
+        <v>0.021986848994369</v>
       </c>
       <c r="R166" t="n">
-        <v>0.01211546932399335</v>
+        <v>0.01211559151116821</v>
       </c>
       <c r="S166" t="n">
         <v>0.01536198256022453</v>
       </c>
       <c r="T166" t="n">
-        <v>0.02557841881242619</v>
+        <v>0.02557829662525132</v>
       </c>
       <c r="U166" t="n">
         <v>0.01954970360446057</v>
       </c>
       <c r="V166" t="n">
-        <v>0.01626885577209159</v>
+        <v>0.01626897795926646</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01946563882815168</v>
+        <v>0.01946551664097681</v>
       </c>
       <c r="X166" t="n">
         <v>0.01323091604335934</v>
@@ -31091,7 +31091,7 @@
         <v>0.008985644839760684</v>
       </c>
       <c r="AB166" t="n">
-        <v>0.01621692622277288</v>
+        <v>0.01621704840994775</v>
       </c>
       <c r="AC166" t="n">
         <v>0.05111309461624979</v>
@@ -31103,19 +31103,19 @@
         <v>0.02174137496006007</v>
       </c>
       <c r="AF166" t="n">
-        <v>0.02543973636895151</v>
+        <v>0.02543985855612637</v>
       </c>
       <c r="AG166" t="n">
-        <v>0.01676139227398275</v>
+        <v>0.01676127008680788</v>
       </c>
       <c r="AH166" t="n">
-        <v>0.04183016838003633</v>
+        <v>0.04183029056721119</v>
       </c>
       <c r="AI166" t="n">
-        <v>0.04192559656360789</v>
+        <v>0.04192547437643303</v>
       </c>
       <c r="AJ166" t="n">
-        <v>0.01365588303754873</v>
+        <v>0.0136560052247236</v>
       </c>
       <c r="AK166" t="n">
         <v>0.01316945589440096</v>
@@ -31127,10 +31127,10 @@
         <v>0.0001050809703861054</v>
       </c>
       <c r="AN166" t="n">
-        <v>0.004615742717797112</v>
+        <v>0.004615864904971979</v>
       </c>
       <c r="AO166" t="n">
-        <v>0.09346952315844072</v>
+        <v>0.09346940097126585</v>
       </c>
       <c r="AP166" t="n">
         <v>0.03224983856019521</v>
@@ -31222,10 +31222,10 @@
         <v>0.01911786174151658</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02294733661364678</v>
+        <v>0.02294721516253923</v>
       </c>
       <c r="K167" t="n">
-        <v>0.03164408607191412</v>
+        <v>0.03164420752302166</v>
       </c>
       <c r="L167" t="n">
         <v>0.02704157490023399</v>
@@ -31240,28 +31240,28 @@
         <v>0.01215956343670685</v>
       </c>
       <c r="P167" t="n">
-        <v>0.009847984506725112</v>
+        <v>0.009847863055617563</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.02185451954792011</v>
+        <v>0.02185439809681257</v>
       </c>
       <c r="R167" t="n">
-        <v>0.01204248456902953</v>
+        <v>0.01204260602013708</v>
       </c>
       <c r="S167" t="n">
         <v>0.01526944049660872</v>
       </c>
       <c r="T167" t="n">
-        <v>0.02542433195211037</v>
+        <v>0.02542421050100282</v>
       </c>
       <c r="U167" t="n">
         <v>0.01943193430563851</v>
       </c>
       <c r="V167" t="n">
-        <v>0.01618032380322686</v>
+        <v>0.01618044525433441</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01969900529113895</v>
+        <v>0.0196988838400314</v>
       </c>
       <c r="X167" t="n">
         <v>0.01321618807238389</v>
@@ -31276,7 +31276,7 @@
         <v>0.008931514449159716</v>
       </c>
       <c r="AB167" t="n">
-        <v>0.01611923389612967</v>
+        <v>0.01611935534723722</v>
       </c>
       <c r="AC167" t="n">
         <v>0.05080518440771817</v>
@@ -31288,19 +31288,19 @@
         <v>0.02161040282174645</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.02528648494504216</v>
+        <v>0.02528660639614971</v>
       </c>
       <c r="AG167" t="n">
-        <v>0.01666042003136839</v>
+        <v>0.01666029858026084</v>
       </c>
       <c r="AH167" t="n">
-        <v>0.04157817941389153</v>
+        <v>0.04157830086499908</v>
       </c>
       <c r="AI167" t="n">
-        <v>0.04231344441899369</v>
+        <v>0.04231332296788614</v>
       </c>
       <c r="AJ167" t="n">
-        <v>0.01370976537346337</v>
+        <v>0.01370988682457092</v>
       </c>
       <c r="AK167" t="n">
         <v>0.01325638838898264</v>
@@ -31312,10 +31312,10 @@
         <v>0.0001044479524922132</v>
       </c>
       <c r="AN167" t="n">
-        <v>0.004587937038774238</v>
+        <v>0.004588058489881787</v>
       </c>
       <c r="AO167" t="n">
-        <v>0.0929064537418236</v>
+        <v>0.09290633229071606</v>
       </c>
       <c r="AP167" t="n">
         <v>0.03205556242429042</v>
@@ -31407,10 +31407,10 @@
         <v>0.0190464819438762</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02294912201765296</v>
+        <v>0.02294900129379756</v>
       </c>
       <c r="K168" t="n">
-        <v>0.03166864392221182</v>
+        <v>0.03166876464606724</v>
       </c>
       <c r="L168" t="n">
         <v>0.0270951413839324</v>
@@ -31425,28 +31425,28 @@
         <v>0.01208675167960082</v>
       </c>
       <c r="P168" t="n">
-        <v>0.009789014539618973</v>
+        <v>0.009788893815763566</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.02172365416140562</v>
+        <v>0.02172353343755021</v>
       </c>
       <c r="R168" t="n">
-        <v>0.01197037388298744</v>
+        <v>0.01197049460684284</v>
       </c>
       <c r="S168" t="n">
         <v>0.01517800672117993</v>
       </c>
       <c r="T168" t="n">
-        <v>0.0252720904434151</v>
+        <v>0.02527196971955969</v>
       </c>
       <c r="U168" t="n">
         <v>0.0193155754175808</v>
       </c>
       <c r="V168" t="n">
-        <v>0.01612255016589268</v>
+        <v>0.01612267088974809</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01990651868980331</v>
+        <v>0.0199063979659479</v>
       </c>
       <c r="X168" t="n">
         <v>0.01323121382886935</v>
@@ -31461,7 +31461,7 @@
         <v>0.008878032326709659</v>
       </c>
       <c r="AB168" t="n">
-        <v>0.01602271153747021</v>
+        <v>0.01602283226132562</v>
       </c>
       <c r="AC168" t="n">
         <v>0.05050096174659411</v>
@@ -31473,19 +31473,19 @@
         <v>0.0214809992120354</v>
       </c>
       <c r="AF168" t="n">
-        <v>0.02513506886752694</v>
+        <v>0.02513518959138234</v>
       </c>
       <c r="AG168" t="n">
-        <v>0.01656065703716858</v>
+        <v>0.01656053631331317</v>
       </c>
       <c r="AH168" t="n">
-        <v>0.04132920827967661</v>
+        <v>0.04132932900353202</v>
       </c>
       <c r="AI168" t="n">
-        <v>0.04254103434026284</v>
+        <v>0.04254091361640743</v>
       </c>
       <c r="AJ168" t="n">
-        <v>0.01382940053241635</v>
+        <v>0.01382952125627175</v>
       </c>
       <c r="AK168" t="n">
         <v>0.01318159632429663</v>
@@ -31497,10 +31497,10 @@
         <v>0.0001038225156509424</v>
       </c>
       <c r="AN168" t="n">
-        <v>0.00456046436189535</v>
+        <v>0.004560585085750758</v>
       </c>
       <c r="AO168" t="n">
-        <v>0.09235012767151329</v>
+        <v>0.09235000694765788</v>
       </c>
       <c r="AP168" t="n">
         <v>0.03186361294869586</v>
@@ -31592,10 +31592,10 @@
         <v>0.01893431008015391</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0228179203376276</v>
+        <v>0.02281780033236657</v>
       </c>
       <c r="K169" t="n">
-        <v>0.03159822526619567</v>
+        <v>0.0315983452714567</v>
       </c>
       <c r="L169" t="n">
         <v>0.02708998762505748</v>
@@ -31610,28 +31610,28 @@
         <v>0.012014806729127</v>
       </c>
       <c r="P169" t="n">
-        <v>0.009730746595930765</v>
+        <v>0.009730626590669735</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.02159434669615916</v>
+        <v>0.02159422669089813</v>
       </c>
       <c r="R169" t="n">
-        <v>0.01189912165749346</v>
+        <v>0.0118992416627545</v>
       </c>
       <c r="S169" t="n">
         <v>0.01508766144307767</v>
       </c>
       <c r="T169" t="n">
-        <v>0.02512166133363287</v>
+        <v>0.02512154132837184</v>
       </c>
       <c r="U169" t="n">
         <v>0.01920060175438091</v>
       </c>
       <c r="V169" t="n">
-        <v>0.01602658260538142</v>
+        <v>0.01602670261064245</v>
       </c>
       <c r="W169" t="n">
-        <v>0.02005731931287867</v>
+        <v>0.02005719930761764</v>
       </c>
       <c r="X169" t="n">
         <v>0.01340086749403094</v>
@@ -31646,7 +31646,7 @@
         <v>0.00882518689619353</v>
       </c>
       <c r="AB169" t="n">
-        <v>0.01592733825450908</v>
+        <v>0.01592745825977011</v>
       </c>
       <c r="AC169" t="n">
         <v>0.05020036078381676</v>
@@ -31658,19 +31658,19 @@
         <v>0.02135313612148756</v>
       </c>
       <c r="AF169" t="n">
-        <v>0.02498545536236309</v>
+        <v>0.02498557536762412</v>
       </c>
       <c r="AG169" t="n">
-        <v>0.01646208169766163</v>
+        <v>0.0164619616924006</v>
       </c>
       <c r="AH169" t="n">
-        <v>0.04108320108753568</v>
+        <v>0.04108332109279671</v>
       </c>
       <c r="AI169" t="n">
-        <v>0.04320189397103169</v>
+        <v>0.04320177396577066</v>
       </c>
       <c r="AJ169" t="n">
-        <v>0.01417934162233672</v>
+        <v>0.01417946162759775</v>
       </c>
       <c r="AK169" t="n">
         <v>0.01310313444141391</v>
@@ -31682,10 +31682,10 @@
         <v>0.0001032045244863535</v>
       </c>
       <c r="AN169" t="n">
-        <v>0.004533318740693592</v>
+        <v>0.004533438745954623</v>
       </c>
       <c r="AO169" t="n">
-        <v>0.09180042453061142</v>
+        <v>0.09180030452535039</v>
       </c>
       <c r="AP169" t="n">
         <v>0.031673948585906</v>
@@ -31777,10 +31777,10 @@
         <v>0.01882573230235265</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02272238975903449</v>
+        <v>0.02272227046386376</v>
       </c>
       <c r="K170" t="n">
-        <v>0.03145992594871572</v>
+        <v>0.03146004524388645</v>
       </c>
       <c r="L170" t="n">
         <v>0.02702500868170605</v>
@@ -31795,28 +31795,28 @@
         <v>0.01203067937764664</v>
       </c>
       <c r="P170" t="n">
-        <v>0.009673168213706323</v>
+        <v>0.009673048918535595</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.0214665694967736</v>
+        <v>0.02146645020160287</v>
       </c>
       <c r="R170" t="n">
-        <v>0.01182871265360297</v>
+        <v>0.0118288319487737</v>
       </c>
       <c r="S170" t="n">
         <v>0.01499838533986419</v>
       </c>
       <c r="T170" t="n">
-        <v>0.0249730124500019</v>
+        <v>0.02497289315483118</v>
       </c>
       <c r="U170" t="n">
         <v>0.01908698872624848</v>
       </c>
       <c r="V170" t="n">
-        <v>0.01593413665906001</v>
+        <v>0.01593425595423074</v>
       </c>
       <c r="W170" t="n">
-        <v>0.02019094623617175</v>
+        <v>0.02019082694100102</v>
       </c>
       <c r="X170" t="n">
         <v>0.01389418923959946</v>
@@ -31831,7 +31831,7 @@
         <v>0.00877296685538765</v>
       </c>
       <c r="AB170" t="n">
-        <v>0.01583309364945281</v>
+        <v>0.01583321294462354</v>
       </c>
       <c r="AC170" t="n">
         <v>0.04990331722888294</v>
@@ -31843,19 +31843,19 @@
         <v>0.02122678620360894</v>
       </c>
       <c r="AF170" t="n">
-        <v>0.02483761243122484</v>
+        <v>0.02483773172639557</v>
       </c>
       <c r="AG170" t="n">
-        <v>0.01636467293021984</v>
+        <v>0.01636455363504911</v>
       </c>
       <c r="AH170" t="n">
-        <v>0.04084010522311239</v>
+        <v>0.04084022451828312</v>
       </c>
       <c r="AI170" t="n">
-        <v>0.04365439759577285</v>
+        <v>0.04365427830060212</v>
       </c>
       <c r="AJ170" t="n">
-        <v>0.0144682376011459</v>
+        <v>0.01446835689631663</v>
       </c>
       <c r="AK170" t="n">
         <v>0.01302715193874336</v>
@@ -31867,10 +31867,10 @@
         <v>0.0001025938468266709</v>
       </c>
       <c r="AN170" t="n">
-        <v>0.004506494369446884</v>
+        <v>0.004506613664617613</v>
       </c>
       <c r="AO170" t="n">
-        <v>0.09125722675232378</v>
+        <v>0.09125710745715306</v>
       </c>
       <c r="AP170" t="n">
         <v>0.03148652877178822</v>
@@ -31962,10 +31962,10 @@
         <v>0.01876373460212496</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02261031264787119</v>
+        <v>0.02261019405443676</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0312826947274545</v>
+        <v>0.03128281332088893</v>
       </c>
       <c r="L171" t="n">
         <v>0.02687303505503328</v>
@@ -31980,28 +31980,28 @@
         <v>0.01207411615278155</v>
       </c>
       <c r="P171" t="n">
-        <v>0.009622196895935447</v>
+        <v>0.009622078302501016</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.02134076993229501</v>
+        <v>0.02134065133886058</v>
       </c>
       <c r="R171" t="n">
-        <v>0.01175913199093472</v>
+        <v>0.01175925058436915</v>
       </c>
       <c r="S171" t="n">
         <v>0.01491015954374734</v>
       </c>
       <c r="T171" t="n">
-        <v>0.0248261123767666</v>
+        <v>0.02482599378333217</v>
       </c>
       <c r="U171" t="n">
         <v>0.01905926944072522</v>
       </c>
       <c r="V171" t="n">
-        <v>0.01588891115810047</v>
+        <v>0.0158890297515349</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02013633501222105</v>
+        <v>0.02013621641878662</v>
       </c>
       <c r="X171" t="n">
         <v>0.01391575359604942</v>
@@ -32016,7 +32016,7 @@
         <v>0.008721716948306308</v>
       </c>
       <c r="AB171" t="n">
-        <v>0.01573995780445603</v>
+        <v>0.01574007639789046</v>
       </c>
       <c r="AC171" t="n">
         <v>0.04960976830400715</v>
@@ -32028,19 +32028,19 @@
         <v>0.02110192275535242</v>
       </c>
       <c r="AF171" t="n">
-        <v>0.02469150882868823</v>
+        <v>0.02469162742212266</v>
       </c>
       <c r="AG171" t="n">
-        <v>0.01629094290081912</v>
+        <v>0.01629082430738469</v>
       </c>
       <c r="AH171" t="n">
-        <v>0.04083741195919911</v>
+        <v>0.04083753055263355</v>
       </c>
       <c r="AI171" t="n">
-        <v>0.04451961950482498</v>
+        <v>0.04451950091139054</v>
       </c>
       <c r="AJ171" t="n">
-        <v>0.01493055761446935</v>
+        <v>0.01493067620790378</v>
       </c>
       <c r="AK171" t="n">
         <v>0.01317822102732748</v>
@@ -32052,10 +32052,10 @@
         <v>0.0001019903536100434</v>
       </c>
       <c r="AN171" t="n">
-        <v>0.004479985579038373</v>
+        <v>0.004480104172472804</v>
       </c>
       <c r="AO171" t="n">
-        <v>0.09072041953613363</v>
+        <v>0.09072030094269921</v>
       </c>
       <c r="AP171" t="n">
         <v>0.03130131389666006</v>
@@ -32147,10 +32147,10 @@
         <v>0.01865400516000727</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02247808859729884</v>
+        <v>0.02247797069739327</v>
       </c>
       <c r="K172" t="n">
-        <v>0.03109975499220623</v>
+        <v>0.0310998728921118</v>
       </c>
       <c r="L172" t="n">
         <v>0.02671588280324946</v>
@@ -32165,28 +32165,28 @@
         <v>0.01200350728639102</v>
       </c>
       <c r="P172" t="n">
-        <v>0.009565926738649274</v>
+        <v>0.009565808838743702</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.02121597010812954</v>
+        <v>0.02121585220822397</v>
       </c>
       <c r="R172" t="n">
-        <v>0.01169036513718656</v>
+        <v>0.01169048303709214</v>
       </c>
       <c r="S172" t="n">
         <v>0.01482296562828683</v>
       </c>
       <c r="T172" t="n">
-        <v>0.02468093043304282</v>
+        <v>0.02468081253313724</v>
       </c>
       <c r="U172" t="n">
         <v>0.01894781172469759</v>
       </c>
       <c r="V172" t="n">
-        <v>0.01579599354898877</v>
+        <v>0.01579611144889434</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02002789275966069</v>
+        <v>0.02002777485975512</v>
       </c>
       <c r="X172" t="n">
         <v>0.01398622999842839</v>
@@ -32201,7 +32201,7 @@
         <v>0.008670712755626154</v>
       </c>
       <c r="AB172" t="n">
-        <v>0.01564791126758787</v>
+        <v>0.01564802916749344</v>
       </c>
       <c r="AC172" t="n">
         <v>0.04931965269989015</v>
@@ -32213,19 +32213,19 @@
         <v>0.02097851969830357</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.02454711404021637</v>
+        <v>0.02454723194012194</v>
       </c>
       <c r="AG172" t="n">
-        <v>0.01619567422888451</v>
+        <v>0.01619555632897894</v>
       </c>
       <c r="AH172" t="n">
-        <v>0.04059859668458392</v>
+        <v>0.04059871458448949</v>
       </c>
       <c r="AI172" t="n">
-        <v>0.04469915540044644</v>
+        <v>0.04469903750054086</v>
       </c>
       <c r="AJ172" t="n">
-        <v>0.01540409426286091</v>
+        <v>0.01540421216276648</v>
       </c>
       <c r="AK172" t="n">
         <v>0.01310115540728463</v>
@@ -32237,10 +32237,10 @@
         <v>0.0001013939187936104</v>
       </c>
       <c r="AN172" t="n">
-        <v>0.004453786832962126</v>
+        <v>0.0044539047328677</v>
       </c>
       <c r="AO172" t="n">
-        <v>0.09018989076691648</v>
+        <v>0.09018977286701091</v>
       </c>
       <c r="AP172" t="n">
         <v>0.03111826527738134</v>
@@ -32332,10 +32332,10 @@
         <v>0.01854555164163513</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02234740203568664</v>
+        <v>0.02234728482124563</v>
       </c>
       <c r="K173" t="n">
-        <v>0.03092398268414506</v>
+        <v>0.03092409989858607</v>
       </c>
       <c r="L173" t="n">
         <v>0.02656055790323057</v>
@@ -32350,28 +32350,28 @@
         <v>0.0119337194533306</v>
       </c>
       <c r="P173" t="n">
-        <v>0.009510310885517593</v>
+        <v>0.009510193671076587</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.02109262144471018</v>
+        <v>0.02109250423026918</v>
       </c>
       <c r="R173" t="n">
-        <v>0.01162239789801687</v>
+        <v>0.01162251511245788</v>
       </c>
       <c r="S173" t="n">
         <v>0.01473678559556423</v>
       </c>
       <c r="T173" t="n">
-        <v>0.02453743665145536</v>
+        <v>0.02453731943701435</v>
       </c>
       <c r="U173" t="n">
         <v>0.01883765002862377</v>
       </c>
       <c r="V173" t="n">
-        <v>0.01570415637719232</v>
+        <v>0.01570427359163333</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01998728926601724</v>
+        <v>0.01998717205157623</v>
       </c>
       <c r="X173" t="n">
         <v>0.01407686829269665</v>
@@ -32386,7 +32386,7 @@
         <v>0.008620301634953909</v>
       </c>
       <c r="AB173" t="n">
-        <v>0.01555693503928794</v>
+        <v>0.01555705225372894</v>
       </c>
       <c r="AC173" t="n">
         <v>0.04903291053303033</v>
@@ -32398,19 +32398,19 @@
         <v>0.02085655156052274</v>
       </c>
       <c r="AF173" t="n">
-        <v>0.02440439826091278</v>
+        <v>0.02440451547535379</v>
       </c>
       <c r="AG173" t="n">
-        <v>0.01610151333220495</v>
+        <v>0.01610139611776394</v>
       </c>
       <c r="AH173" t="n">
-        <v>0.04036255833176657</v>
+        <v>0.04036267554620757</v>
       </c>
       <c r="AI173" t="n">
-        <v>0.04567530287039412</v>
+        <v>0.04567518565595311</v>
       </c>
       <c r="AJ173" t="n">
-        <v>0.01589603641712025</v>
+        <v>0.01589615363156125</v>
       </c>
       <c r="AK173" t="n">
         <v>0.01302498589910275</v>
@@ -32422,10 +32422,10 @@
         <v>0.0001008044192657406</v>
       </c>
       <c r="AN173" t="n">
-        <v>0.00442789272346816</v>
+        <v>0.004428009937909166</v>
       </c>
       <c r="AO173" t="n">
-        <v>0.08966553093687628</v>
+        <v>0.08966541372243526</v>
       </c>
       <c r="AP173" t="n">
         <v>0.03093734513041982</v>
@@ -32517,10 +32517,10 @@
         <v>0.01843835192116325</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02221822630137631</v>
+        <v>0.02221810976447543</v>
       </c>
       <c r="K174" t="n">
-        <v>0.03074523133915</v>
+        <v>0.03074534787605089</v>
       </c>
       <c r="L174" t="n">
         <v>0.02640702866679571</v>
@@ -32535,28 +32535,28 @@
         <v>0.01186473841602811</v>
       </c>
       <c r="P174" t="n">
-        <v>0.009455337990225583</v>
+        <v>0.009455221453324699</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.02097069877739972</v>
+        <v>0.02097058224049883</v>
       </c>
       <c r="R174" t="n">
-        <v>0.01155521640727689</v>
+        <v>0.01155533294417778</v>
       </c>
       <c r="S174" t="n">
         <v>0.01465160186379796</v>
       </c>
       <c r="T174" t="n">
-        <v>0.02439560175751631</v>
+        <v>0.02439548522061542</v>
       </c>
       <c r="U174" t="n">
         <v>0.01872876187816929</v>
       </c>
       <c r="V174" t="n">
-        <v>0.01561338090680392</v>
+        <v>0.01561349744370481</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0198743196138713</v>
+        <v>0.01987420307697041</v>
       </c>
       <c r="X174" t="n">
         <v>0.01403150901418755</v>
@@ -32571,7 +32571,7 @@
         <v>0.008570473301803886</v>
       </c>
       <c r="AB174" t="n">
-        <v>0.01546701055929205</v>
+        <v>0.01546712709619294</v>
       </c>
       <c r="AC174" t="n">
         <v>0.0487494833045157</v>
@@ -32583,19 +32583,19 @@
         <v>0.02073599345901683</v>
       </c>
       <c r="AF174" t="n">
-        <v>0.02426333237501155</v>
+        <v>0.02426344891191244</v>
       </c>
       <c r="AG174" t="n">
-        <v>0.01600844100080492</v>
+        <v>0.01600832446390403</v>
       </c>
       <c r="AH174" t="n">
-        <v>0.04012924874603381</v>
+        <v>0.0401293652829347</v>
       </c>
       <c r="AI174" t="n">
-        <v>0.04642060987722488</v>
+        <v>0.04642049334032399</v>
       </c>
       <c r="AJ174" t="n">
-        <v>0.0162756601145348</v>
+        <v>0.01627577665143568</v>
       </c>
       <c r="AK174" t="n">
         <v>0.01294969696326978</v>
@@ -32607,10 +32607,10 @@
         <v>0.0001002217347613144</v>
       </c>
       <c r="AN174" t="n">
-        <v>0.004402297967841176</v>
+        <v>0.004402414504742061</v>
       </c>
       <c r="AO174" t="n">
-        <v>0.08914723307018912</v>
+        <v>0.08914711653328825</v>
       </c>
       <c r="AP174" t="n">
         <v>0.03075851654585092</v>
@@ -32702,10 +32702,10 @@
         <v>0.01833238438138645</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02209053534562128</v>
+        <v>0.0220904194784727</v>
       </c>
       <c r="K175" t="n">
-        <v>0.03056853460731581</v>
+        <v>0.03056865047446439</v>
       </c>
       <c r="L175" t="n">
         <v>0.02625526413422792</v>
@@ -32720,28 +32720,28 @@
         <v>0.01179712959995476</v>
       </c>
       <c r="P175" t="n">
-        <v>0.009441202867850967</v>
+        <v>0.009441087000702387</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.02086048969628208</v>
+        <v>0.0208603738291335</v>
       </c>
       <c r="R175" t="n">
-        <v>0.0114888071175799</v>
+        <v>0.01148892298472848</v>
       </c>
       <c r="S175" t="n">
         <v>0.01456739725538533</v>
       </c>
       <c r="T175" t="n">
-        <v>0.02425539714971449</v>
+        <v>0.02425528128256591</v>
       </c>
       <c r="U175" t="n">
         <v>0.01862112531565108</v>
       </c>
       <c r="V175" t="n">
-        <v>0.01552364883262689</v>
+        <v>0.01552376469977547</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01976009938620537</v>
+        <v>0.01975998351905679</v>
       </c>
       <c r="X175" t="n">
         <v>0.01395086815778417</v>
@@ -32756,7 +32756,7 @@
         <v>0.008843560115468566</v>
       </c>
       <c r="AB175" t="n">
-        <v>0.01682078156099467</v>
+        <v>0.01682089742814325</v>
       </c>
       <c r="AC175" t="n">
         <v>0.04893753300765395</v>
@@ -32768,19 +32768,19 @@
         <v>0.02061682108281558</v>
       </c>
       <c r="AF175" t="n">
-        <v>0.0241238879360747</v>
+        <v>0.02412400380322328</v>
       </c>
       <c r="AG175" t="n">
-        <v>0.01591643846631753</v>
+        <v>0.01591632259916895</v>
       </c>
       <c r="AH175" t="n">
-        <v>0.0398986208796773</v>
+        <v>0.03989873674682588</v>
       </c>
       <c r="AI175" t="n">
-        <v>0.04615382476298795</v>
+        <v>0.04615370889583937</v>
       </c>
       <c r="AJ175" t="n">
-        <v>0.01618212183801448</v>
+        <v>0.01618223770516306</v>
       </c>
       <c r="AK175" t="n">
         <v>0.01287527341750386</v>
@@ -32792,10 +32792,10 @@
         <v>0.0005767866656377664</v>
       </c>
       <c r="AN175" t="n">
-        <v>0.005975268852338211</v>
+        <v>0.005975384719486792</v>
       </c>
       <c r="AO175" t="n">
-        <v>0.09002228588735812</v>
+        <v>0.09002217002020955</v>
       </c>
       <c r="AP175" t="n">
         <v>0.03058174346225407</v>
@@ -32887,10 +32887,10 @@
         <v>0.0182276278992071</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02196430371507487</v>
+        <v>0.02196418851002428</v>
       </c>
       <c r="K176" t="n">
-        <v>0.03039385726670257</v>
+        <v>0.03039397247175316</v>
       </c>
       <c r="L176" t="n">
         <v>0.0261052340534609</v>
@@ -32905,28 +32905,28 @@
         <v>0.01185148916928518</v>
       </c>
       <c r="P176" t="n">
-        <v>0.009406377175575378</v>
+        <v>0.009406261970524788</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.02075891327075779</v>
+        <v>0.0207587980657072</v>
       </c>
       <c r="R176" t="n">
-        <v>0.01142315679119373</v>
+        <v>0.01142327199624431</v>
       </c>
       <c r="S176" t="n">
         <v>0.01448415498535456</v>
       </c>
       <c r="T176" t="n">
-        <v>0.02411679488028755</v>
+        <v>0.02411667967523696</v>
       </c>
       <c r="U176" t="n">
         <v>0.01851471888527593</v>
       </c>
       <c r="V176" t="n">
-        <v>0.01543494226786902</v>
+        <v>0.01543505747291961</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01964718453256991</v>
+        <v>0.01964706932751932</v>
       </c>
       <c r="X176" t="n">
         <v>0.01387114891116827</v>
@@ -32941,7 +32941,7 @@
         <v>0.009797267912225271</v>
       </c>
       <c r="AB176" t="n">
-        <v>0.0185999706227121</v>
+        <v>0.01860008582776269</v>
       </c>
       <c r="AC176" t="n">
         <v>0.0500855109488</v>
@@ -32953,19 +32953,19 @@
         <v>0.02049901067662806</v>
       </c>
       <c r="AF176" t="n">
-        <v>0.02398603714786856</v>
+        <v>0.02398615235291915</v>
       </c>
       <c r="AG176" t="n">
-        <v>0.01582548738936715</v>
+        <v>0.01582537218431656</v>
       </c>
       <c r="AH176" t="n">
-        <v>0.03967062876036485</v>
+        <v>0.03967074396541544</v>
       </c>
       <c r="AI176" t="n">
-        <v>0.04589008862148516</v>
+        <v>0.04588997341643457</v>
       </c>
       <c r="AJ176" t="n">
-        <v>0.01608965257036869</v>
+        <v>0.01608976777541928</v>
       </c>
       <c r="AK176" t="n">
         <v>0.01323752113292647</v>
@@ -32977,10 +32977,10 @@
         <v>0.0006085130772133051</v>
       </c>
       <c r="AN176" t="n">
-        <v>0.005941124458896278</v>
+        <v>0.005941239663946867</v>
       </c>
       <c r="AO176" t="n">
-        <v>0.08950787282514465</v>
+        <v>0.08950775762009407</v>
       </c>
       <c r="AP176" t="n">
         <v>0.03040699064246977</v>
@@ -33072,10 +33072,10 @@
         <v>0.01812795654779687</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02184156844345147</v>
+        <v>0.02184145389297503</v>
       </c>
       <c r="K177" t="n">
-        <v>0.03022780882350246</v>
+        <v>0.0302279233739789</v>
       </c>
       <c r="L177" t="n">
         <v>0.02599562692101149</v>
@@ -33090,28 +33090,28 @@
         <v>0.01195666418015766</v>
       </c>
       <c r="P177" t="n">
-        <v>0.009559351809256045</v>
+        <v>0.009559237258779607</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.02066078213232505</v>
+        <v>0.02066066758184861</v>
       </c>
       <c r="R177" t="n">
-        <v>0.01135893979410239</v>
+        <v>0.01135905434457883</v>
       </c>
       <c r="S177" t="n">
         <v>0.01440288960449844</v>
       </c>
       <c r="T177" t="n">
-        <v>0.02400989441195284</v>
+        <v>0.0240097798614764</v>
       </c>
       <c r="U177" t="n">
         <v>0.01841043802269382</v>
       </c>
       <c r="V177" t="n">
-        <v>0.01535468951322462</v>
+        <v>0.01535480406370106</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01954952796039669</v>
+        <v>0.01954941340992026</v>
       </c>
       <c r="X177" t="n">
         <v>0.01382120228514454</v>
@@ -33129,7 +33129,7 @@
         <v>0.01983074938005282</v>
       </c>
       <c r="AC177" t="n">
-        <v>0.05015741526472157</v>
+        <v>0.05015752981519801</v>
       </c>
       <c r="AD177" t="n">
         <v>0.01904619316692662</v>
@@ -33138,19 +33138,19 @@
         <v>0.02038253902505631</v>
       </c>
       <c r="AF177" t="n">
-        <v>0.02384975284589204</v>
+        <v>0.02384986739636848</v>
       </c>
       <c r="AG177" t="n">
-        <v>0.01573556984738211</v>
+        <v>0.01573545529690567</v>
       </c>
       <c r="AH177" t="n">
-        <v>0.03944522746059005</v>
+        <v>0.03944534201106649</v>
       </c>
       <c r="AI177" t="n">
-        <v>0.04562934948159036</v>
+        <v>0.04562923493111393</v>
       </c>
       <c r="AJ177" t="n">
-        <v>0.01599823408985523</v>
+        <v>0.01599834864033167</v>
       </c>
       <c r="AK177" t="n">
         <v>0.0131628806970534</v>
@@ -33162,10 +33162,10 @@
         <v>0.0006050556165473203</v>
       </c>
       <c r="AN177" t="n">
-        <v>0.006094658098901965</v>
+        <v>0.006094772649378404</v>
       </c>
       <c r="AO177" t="n">
-        <v>0.09027230481057016</v>
+        <v>0.09027219026009373</v>
       </c>
       <c r="AP177" t="n">
         <v>0.03023422365018301</v>
@@ -33239,7 +33239,7 @@
         <v>0.01430887408070071</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01889781017491332</v>
+        <v>0.01889769627161472</v>
       </c>
       <c r="E178" t="n">
         <v>0.03049487452241771</v>
@@ -33257,10 +33257,10 @@
         <v>0.01804433275846339</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02172921837164528</v>
+        <v>0.02172910446834667</v>
       </c>
       <c r="K178" t="n">
-        <v>0.03009655468719477</v>
+        <v>0.03009666859049338</v>
       </c>
       <c r="L178" t="n">
         <v>0.02591072236674652</v>
@@ -33278,25 +33278,25 @@
         <v>0.009780876251241973</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.02061672485416676</v>
+        <v>0.02061661095086816</v>
       </c>
       <c r="R178" t="n">
-        <v>0.01143087943483917</v>
+        <v>0.01143099333813778</v>
       </c>
       <c r="S178" t="n">
-        <v>0.01451674760065549</v>
+        <v>0.0145168615039541</v>
       </c>
       <c r="T178" t="n">
-        <v>0.02417449438610507</v>
+        <v>0.02417426657950786</v>
       </c>
       <c r="U178" t="n">
         <v>0.01834515137008013</v>
       </c>
       <c r="V178" t="n">
-        <v>0.01526862327474945</v>
+        <v>0.01526873717804805</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01943942035978179</v>
+        <v>0.01943930645648319</v>
       </c>
       <c r="X178" t="n">
         <v>0.01376350508697827</v>
@@ -33314,7 +33314,7 @@
         <v>0.02004276613249437</v>
       </c>
       <c r="AC178" t="n">
-        <v>0.05012679145684255</v>
+        <v>0.05012690536014116</v>
       </c>
       <c r="AD178" t="n">
         <v>0.01893858755581404</v>
@@ -33323,19 +33323,19 @@
         <v>0.02026738343734413</v>
       </c>
       <c r="AF178" t="n">
-        <v>0.02371500847953106</v>
+        <v>0.02371512238282967</v>
       </c>
       <c r="AG178" t="n">
-        <v>0.01564666832282063</v>
+        <v>0.01564655441952202</v>
       </c>
       <c r="AH178" t="n">
-        <v>0.03922237306815734</v>
+        <v>0.03922248697145594</v>
       </c>
       <c r="AI178" t="n">
-        <v>0.04537155654666612</v>
+        <v>0.04537144264336752</v>
       </c>
       <c r="AJ178" t="n">
-        <v>0.01590784858652271</v>
+        <v>0.01590796248982132</v>
       </c>
       <c r="AK178" t="n">
         <v>0.01342384545053709</v>
@@ -33347,10 +33347,10 @@
         <v>0.0006016372232334937</v>
       </c>
       <c r="AN178" t="n">
-        <v>0.006060225002297999</v>
+        <v>0.006060338905596605</v>
       </c>
       <c r="AO178" t="n">
-        <v>0.09018077250811761</v>
+        <v>0.090180658604819</v>
       </c>
       <c r="AP178" t="n">
         <v>0.03006340882730062</v>
@@ -33424,7 +33424,7 @@
         <v>0.0144465191780974</v>
       </c>
       <c r="D179" t="n">
-        <v>0.01903470594218266</v>
+        <v>0.01903459267879023</v>
       </c>
       <c r="E179" t="n">
         <v>0.0304515426360786</v>
@@ -33442,10 +33442,10 @@
         <v>0.01805090011550601</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02174985598559652</v>
+        <v>0.02174974272220409</v>
       </c>
       <c r="K179" t="n">
-        <v>0.03011095961503132</v>
+        <v>0.03011107287842375</v>
       </c>
       <c r="L179" t="n">
         <v>0.02583322780960605</v>
@@ -33463,25 +33463,25 @@
         <v>0.009882797306777749</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.02061155889164069</v>
+        <v>0.02061144562824825</v>
       </c>
       <c r="R179" t="n">
-        <v>0.01136666101104794</v>
+        <v>0.01136677427444037</v>
       </c>
       <c r="S179" t="n">
-        <v>0.01443519283885406</v>
+        <v>0.01443530610224649</v>
       </c>
       <c r="T179" t="n">
-        <v>0.024038682619891</v>
+        <v>0.02403845609310613</v>
       </c>
       <c r="U179" t="n">
         <v>0.01824208872193361</v>
       </c>
       <c r="V179" t="n">
-        <v>0.01518318428248434</v>
+        <v>0.01518329754587677</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01933213561071281</v>
+        <v>0.01933202234732038</v>
       </c>
       <c r="X179" t="n">
         <v>0.0137754335779294</v>
@@ -33499,7 +33499,7 @@
         <v>0.01994002023790296</v>
       </c>
       <c r="AC179" t="n">
-        <v>0.0500354627681709</v>
+        <v>0.05003557603156333</v>
       </c>
       <c r="AD179" t="n">
         <v>0.01883219099651172</v>
@@ -33508,19 +33508,19 @@
         <v>0.02015352173263995</v>
       </c>
       <c r="AF179" t="n">
-        <v>0.0235817780948146</v>
+        <v>0.02358189135820703</v>
       </c>
       <c r="AG179" t="n">
-        <v>0.01555876569179355</v>
+        <v>0.01555865242840111</v>
       </c>
       <c r="AH179" t="n">
-        <v>0.03900202265766207</v>
+        <v>0.03900213592105451</v>
       </c>
       <c r="AI179" t="n">
-        <v>0.04511666016157249</v>
+        <v>0.04511654689818006</v>
       </c>
       <c r="AJ179" t="n">
-        <v>0.01581847865064337</v>
+        <v>0.0158185919140358</v>
       </c>
       <c r="AK179" t="n">
         <v>0.01364416130609908</v>
@@ -33532,10 +33532,10 @@
         <v>0.0005982572388333055</v>
       </c>
       <c r="AN179" t="n">
-        <v>0.006026178794419921</v>
+        <v>0.006026292057812354</v>
       </c>
       <c r="AO179" t="n">
-        <v>0.08967413895470121</v>
+        <v>0.08967402569130878</v>
       </c>
       <c r="AP179" t="n">
         <v>0.02989451327209106</v>
@@ -33609,7 +33609,7 @@
         <v>0.01469232858095873</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0192429441693316</v>
+        <v>0.01924283153869555</v>
       </c>
       <c r="E180" t="n">
         <v>0.03034877540651494</v>
@@ -33627,10 +33627,10 @@
         <v>0.01795433706227089</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02164163882531202</v>
+        <v>0.02164152619467597</v>
       </c>
       <c r="K180" t="n">
-        <v>0.02997112488383558</v>
+        <v>0.02997123751447163</v>
       </c>
       <c r="L180" t="n">
         <v>0.025725287796617</v>
@@ -33648,25 +33648,25 @@
         <v>0.01045685351225686</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.02052073873533141</v>
+        <v>0.02052062610469536</v>
       </c>
       <c r="R180" t="n">
-        <v>0.01136105225847515</v>
+        <v>0.0113611648891112</v>
       </c>
       <c r="S180" t="n">
-        <v>0.01435454930344146</v>
+        <v>0.01435466193407751</v>
       </c>
       <c r="T180" t="n">
-        <v>0.02390438830357876</v>
+        <v>0.02390416304230666</v>
       </c>
       <c r="U180" t="n">
         <v>0.01814017761175521</v>
       </c>
       <c r="V180" t="n">
-        <v>0.01509836202392297</v>
+        <v>0.01509847465455902</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01922413485311107</v>
+        <v>0.01922402222247501</v>
       </c>
       <c r="X180" t="n">
         <v>0.01371210415540595</v>
@@ -33684,7 +33684,7 @@
         <v>0.01982862347679736</v>
       </c>
       <c r="AC180" t="n">
-        <v>0.04975593504320906</v>
+        <v>0.0497560476738451</v>
       </c>
       <c r="AD180" t="n">
         <v>0.01872698322558148</v>
@@ -33693,19 +33693,19 @@
         <v>0.02004093222575369</v>
       </c>
       <c r="AF180" t="n">
-        <v>0.0234500363177486</v>
+        <v>0.02345014894838465</v>
       </c>
       <c r="AG180" t="n">
-        <v>0.01547184521306844</v>
+        <v>0.01547173258243239</v>
       </c>
       <c r="AH180" t="n">
-        <v>0.03878413426292653</v>
+        <v>0.03878424689356259</v>
       </c>
       <c r="AI180" t="n">
-        <v>0.04486461178078158</v>
+        <v>0.04486449915014554</v>
       </c>
       <c r="AJ180" t="n">
-        <v>0.0157317967210744</v>
+        <v>0.01573190935171045</v>
       </c>
       <c r="AK180" t="n">
         <v>0.01373677026470114</v>
@@ -33717,10 +33717,10 @@
         <v>0.0005949150196219462</v>
       </c>
       <c r="AN180" t="n">
-        <v>0.005992512991099139</v>
+        <v>0.00599262562173519</v>
       </c>
       <c r="AO180" t="n">
-        <v>0.08917316611137886</v>
+        <v>0.08917305348074281</v>
       </c>
       <c r="AP180" t="n">
         <v>0.02972750481805703</v>
@@ -33794,7 +33794,7 @@
         <v>0.01461720081808386</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01917389658362623</v>
+        <v>0.01917378457871593</v>
       </c>
       <c r="E181" t="n">
         <v>0.03079026184507929</v>
@@ -33812,10 +33812,10 @@
         <v>0.01785515076980975</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02152163150832533</v>
+        <v>0.02152151950341503</v>
       </c>
       <c r="K181" t="n">
-        <v>0.02980484264430153</v>
+        <v>0.02980495464921182</v>
       </c>
       <c r="L181" t="n">
         <v>0.02558270554581113</v>
@@ -33833,25 +33833,25 @@
         <v>0.01040626421062299</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.02085923446883911</v>
+        <v>0.02085912246392882</v>
       </c>
       <c r="R181" t="n">
-        <v>0.0112982713162145</v>
+        <v>0.0112983833211248</v>
       </c>
       <c r="S181" t="n">
-        <v>0.01427480180731123</v>
+        <v>0.01427491381222153</v>
       </c>
       <c r="T181" t="n">
-        <v>0.02377158614633666</v>
+        <v>0.02377136213651607</v>
       </c>
       <c r="U181" t="n">
         <v>0.01803939884724546</v>
       </c>
       <c r="V181" t="n">
-        <v>0.01501448223490118</v>
+        <v>0.01501459423981147</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01911733410392712</v>
+        <v>0.01911722209901682</v>
       </c>
       <c r="X181" t="n">
         <v>0.01363592579898703</v>
@@ -33869,7 +33869,7 @@
         <v>0.01996117909809166</v>
       </c>
       <c r="AC181" t="n">
-        <v>0.05170997896547785</v>
+        <v>0.05171009097038815</v>
       </c>
       <c r="AD181" t="n">
         <v>0.0186229444298838</v>
@@ -33878,19 +33878,19 @@
         <v>0.0199295937133884</v>
       </c>
       <c r="AF181" t="n">
-        <v>0.02331975833820555</v>
+        <v>0.02331987034311584</v>
       </c>
       <c r="AG181" t="n">
-        <v>0.01538589051744028</v>
+        <v>0.01538577851252999</v>
       </c>
       <c r="AH181" t="n">
-        <v>0.03856866685035472</v>
+        <v>0.03856877885526502</v>
       </c>
       <c r="AI181" t="n">
-        <v>0.04461536393755502</v>
+        <v>0.04461525193264473</v>
       </c>
       <c r="AJ181" t="n">
-        <v>0.01564439785040176</v>
+        <v>0.01564450985531206</v>
       </c>
       <c r="AK181" t="n">
         <v>0.01366045487434169</v>
@@ -33902,10 +33902,10 @@
         <v>0.0005916099361796021</v>
       </c>
       <c r="AN181" t="n">
-        <v>0.007140985060785065</v>
+        <v>0.007141097065695361</v>
       </c>
       <c r="AO181" t="n">
-        <v>0.08935180518313923</v>
+        <v>0.08935169317822893</v>
       </c>
       <c r="AP181" t="n">
         <v>0.02956235201351227</v>
